--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\HONORÁRIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\Projeto Honorarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712AC953-035F-47BB-A67F-40D8656D2937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3694F9F5-2FED-49B2-9124-F3254ABFF00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="189">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -582,6 +582,15 @@
   </si>
   <si>
     <t>REF</t>
+  </si>
+  <si>
+    <t>luiz.logika@gmail.com</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>simone</t>
   </si>
 </sst>
 </file>
@@ -726,7 +735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -775,13 +784,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -890,6 +910,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1199,9 +1225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DA245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1253,7 @@
     <col min="20" max="20" width="10.42578125" style="3" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="106" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -1296,6 +1323,12 @@
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="46" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,7 +1439,9 @@
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="X4" s="10"/>
+      <c r="X4" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,7 +1589,9 @@
         <f t="shared" si="0"/>
         <v>1095</v>
       </c>
-      <c r="X8" s="10"/>
+      <c r="X8" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y8" s="10"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,7 +1629,9 @@
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
-      <c r="X9" s="10"/>
+      <c r="X9" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1669,9 @@
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="X10" s="10"/>
+      <c r="X10" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,7 +1827,12 @@
         <f t="shared" si="0"/>
         <v>1422</v>
       </c>
-      <c r="X14" s="10"/>
+      <c r="W14" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,7 +1984,9 @@
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="X18" s="10"/>
+      <c r="X18" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y18" s="10"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1976,7 +2024,9 @@
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="X19" s="10"/>
+      <c r="X19" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y19" s="10"/>
     </row>
     <row r="20" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,7 +2177,9 @@
         <f t="shared" si="0"/>
         <v>2118</v>
       </c>
-      <c r="X23" s="10"/>
+      <c r="X23" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2279,7 +2331,9 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="X27" s="10"/>
+      <c r="X27" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y27" s="10"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2739,7 +2793,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="X39" s="10"/>
+      <c r="X39" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y39" s="10"/>
     </row>
     <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,7 +2913,9 @@
         <f t="shared" si="0"/>
         <v>2964</v>
       </c>
-      <c r="X42" s="10"/>
+      <c r="X42" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y42" s="10"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,7 +3109,9 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="X47" s="10"/>
+      <c r="X47" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y47" s="10"/>
     </row>
     <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,7 +3149,9 @@
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
-      <c r="X48" s="10"/>
+      <c r="X48" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y48" s="10"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3278,7 +3340,9 @@
         <f t="shared" si="0"/>
         <v>1422</v>
       </c>
-      <c r="X53" s="10"/>
+      <c r="X53" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y53" s="10"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3354,7 +3418,9 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="X55" s="10"/>
+      <c r="X55" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y55" s="10"/>
     </row>
     <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4118,7 +4184,9 @@
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="X75" s="10"/>
+      <c r="X75" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y75" s="10"/>
     </row>
     <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4156,7 +4224,9 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="X76" s="10"/>
+      <c r="X76" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y76" s="10"/>
     </row>
     <row r="77" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4384,7 +4454,9 @@
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
-      <c r="X82" s="10"/>
+      <c r="X82" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y82" s="10"/>
     </row>
     <row r="83" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,7 +4570,9 @@
         <f t="shared" si="2"/>
         <v>1130</v>
       </c>
-      <c r="X85" s="10"/>
+      <c r="X85" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y85" s="10"/>
     </row>
     <row r="86" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5902,8 +5976,11 @@
     <sortCondition ref="B2:B89"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W14" r:id="rId1" xr:uid="{F89FEDED-138A-401F-91FC-CA10B26BE0FE}"/>
+  </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\Projeto Honorarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3694F9F5-2FED-49B2-9124-F3254ABFF00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D41086-29F6-452D-A9A5-06A6B18903D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="192">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>simone</t>
+  </si>
+  <si>
+    <t>claudio</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>AMB DISTRIBUIDORA DE MED. E PROD. HOSP. LTDA</t>
   </si>
 </sst>
 </file>
@@ -801,7 +810,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -912,9 +921,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DA245"/>
+  <dimension ref="A1:DA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1263,7 @@
     <col min="106" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>76</v>
       </c>
@@ -1327,11 +1333,17 @@
       <c r="W1" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="45" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z1" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1366,17 +1378,17 @@
         <v>706</v>
       </c>
       <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>68</v>
+      <c r="Y2" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>191</v>
       </c>
       <c r="C3" s="13">
-        <v>320</v>
+        <v>2118</v>
       </c>
       <c r="D3" s="14">
         <v>45566</v>
@@ -1399,21 +1411,20 @@
       <c r="T3" s="14"/>
       <c r="U3" s="12"/>
       <c r="V3" s="18">
-        <f t="shared" ref="V3:V62" si="0">C3+E3+G3+I3+K3+M3+O3+Q3+S3</f>
-        <v>320</v>
+        <v>2118</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C4" s="13">
-        <v>1150</v>
+        <v>320</v>
       </c>
       <c r="D4" s="14">
         <v>45566</v>
@@ -1429,36 +1440,37 @@
       <c r="M4" s="16"/>
       <c r="N4" s="14"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="25"/>
       <c r="T4" s="14"/>
       <c r="U4" s="12"/>
       <c r="V4" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="V4:V63" si="0">C4+E4+G4+I4+K4+M4+O4+Q4+S4</f>
+        <v>320</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13">
         <v>1150</v>
       </c>
-      <c r="X4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y4" s="10"/>
-    </row>
-    <row r="5" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="13">
-        <v>310</v>
-      </c>
       <c r="D5" s="14">
         <v>45566</v>
       </c>
       <c r="E5" s="25"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -1476,36 +1488,38 @@
       <c r="U5" s="12"/>
       <c r="V5" s="18">
         <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13">
         <v>310</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-    </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13">
-        <v>990</v>
-      </c>
       <c r="D6" s="14">
         <v>45566</v>
       </c>
       <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="16"/>
       <c r="L6" s="14"/>
       <c r="M6" s="16"/>
       <c r="N6" s="14"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="25"/>
@@ -1513,20 +1527,20 @@
       <c r="U6" s="12"/>
       <c r="V6" s="18">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>310</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C7" s="13">
-        <v>353</v>
+        <v>990</v>
       </c>
       <c r="D7" s="14">
         <v>45566</v>
@@ -1536,7 +1550,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="16"/>
       <c r="L7" s="14"/>
       <c r="M7" s="16"/>
@@ -1550,20 +1564,23 @@
       <c r="U7" s="12"/>
       <c r="V7" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>990</v>
       </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-    </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C8" s="13">
-        <v>1095</v>
+        <v>353</v>
       </c>
       <c r="D8" s="14">
         <v>45566</v>
@@ -1579,7 +1596,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="14"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="25"/>
@@ -1587,23 +1604,20 @@
       <c r="U8" s="12"/>
       <c r="V8" s="18">
         <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13">
         <v>1095</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <f t="shared" ref="A9:A72" si="1">A8+1</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1412</v>
       </c>
       <c r="D9" s="14">
         <v>45566</v>
@@ -1619,7 +1633,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="14"/>
       <c r="O9" s="17"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="25"/>
@@ -1627,23 +1641,23 @@
       <c r="U9" s="12"/>
       <c r="V9" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>1095</v>
       </c>
       <c r="X9" s="10" t="s">
         <v>187</v>
       </c>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" ref="A10:A73" si="1">A9+1</f>
+        <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="13">
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="D10" s="14">
         <v>45566</v>
@@ -1667,23 +1681,23 @@
       <c r="U10" s="12"/>
       <c r="V10" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>187</v>
       </c>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C11" s="13">
-        <v>1170</v>
+        <v>706</v>
       </c>
       <c r="D11" s="14">
         <v>45566</v>
@@ -1699,7 +1713,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="14"/>
       <c r="O11" s="17"/>
-      <c r="P11" s="15"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="25"/>
@@ -1707,21 +1721,23 @@
       <c r="U11" s="12"/>
       <c r="V11" s="18">
         <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="13">
         <v>1170</v>
-      </c>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="13">
-        <v>423</v>
       </c>
       <c r="D12" s="14">
         <v>45566</v>
@@ -1731,7 +1747,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="16"/>
       <c r="L12" s="14"/>
       <c r="M12" s="16"/>
@@ -1745,31 +1761,34 @@
       <c r="U12" s="12"/>
       <c r="V12" s="18">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>1170</v>
       </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C13" s="13">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="D13" s="14">
         <v>45566</v>
       </c>
       <c r="E13" s="25"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="27"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="16"/>
       <c r="L13" s="14"/>
       <c r="M13" s="16"/>
@@ -1783,27 +1802,30 @@
       <c r="U13" s="12"/>
       <c r="V13" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="13">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D14" s="14">
         <v>45566</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1816,35 +1838,29 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="25">
-        <v>10</v>
-      </c>
+      <c r="S14" s="25"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="U14" s="12"/>
       <c r="V14" s="18">
         <f t="shared" si="0"/>
-        <v>1422</v>
-      </c>
-      <c r="W14" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="X14" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" t="s">
         <v>187</v>
       </c>
-      <c r="Y14" s="10"/>
-    </row>
-    <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C15" s="13">
-        <v>290</v>
+        <v>1412</v>
       </c>
       <c r="D15" s="14">
         <v>45566</v>
@@ -1863,26 +1879,35 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
-      <c r="S15" s="25"/>
+      <c r="S15" s="25">
+        <v>10</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="12"/>
+      <c r="U15" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="V15" s="18">
         <f t="shared" si="0"/>
+        <v>1422</v>
+      </c>
+      <c r="W15" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="13">
         <v>290</v>
-      </c>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="13">
-        <v>990</v>
       </c>
       <c r="D16" s="14">
         <v>45566</v>
@@ -1898,7 +1923,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="14"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="25"/>
@@ -1906,27 +1931,30 @@
       <c r="U16" s="12"/>
       <c r="V16" s="18">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>290</v>
       </c>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C17" s="13">
-        <v>320</v>
+        <v>990</v>
       </c>
       <c r="D17" s="14">
         <v>45566</v>
       </c>
       <c r="E17" s="25"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1936,7 +1964,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="14"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="15"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="25"/>
@@ -1944,27 +1972,30 @@
       <c r="U17" s="12"/>
       <c r="V17" s="18">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>990</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C18" s="13">
-        <v>650</v>
+        <v>320</v>
       </c>
       <c r="D18" s="14">
         <v>45566</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -1974,7 +2005,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="14"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="25"/>
@@ -1982,23 +2013,21 @@
       <c r="U18" s="12"/>
       <c r="V18" s="18">
         <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13">
         <v>650</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y18" s="10"/>
-    </row>
-    <row r="19" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="13">
-        <v>706</v>
       </c>
       <c r="D19" s="14">
         <v>45566</v>
@@ -2014,7 +2043,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="14"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="15"/>
+      <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="25"/>
@@ -2022,20 +2051,20 @@
       <c r="U19" s="12"/>
       <c r="V19" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>650</v>
       </c>
       <c r="X19" s="10" t="s">
         <v>187</v>
       </c>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C20" s="13">
         <v>706</v>
@@ -2058,30 +2087,33 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="31"/>
+      <c r="T20" s="14"/>
       <c r="U20" s="12"/>
       <c r="V20" s="18">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="X20" s="10"/>
+      <c r="X20" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="C21" s="13">
-        <v>750</v>
+        <v>706</v>
       </c>
       <c r="D21" s="14">
         <v>45566</v>
       </c>
       <c r="E21" s="25"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -2091,29 +2123,28 @@
       <c r="M21" s="16"/>
       <c r="N21" s="14"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="14"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="14"/>
+      <c r="T21" s="31"/>
       <c r="U21" s="12"/>
       <c r="V21" s="18">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>706</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="13">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="D22" s="14">
         <v>45566</v>
@@ -2133,31 +2164,31 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="25"/>
-      <c r="T22" s="15"/>
+      <c r="T22" s="14"/>
       <c r="U22" s="12"/>
       <c r="V22" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
     </row>
-    <row r="23" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C23" s="13">
-        <v>2118</v>
+        <v>706</v>
       </c>
       <c r="D23" s="14">
         <v>45566</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -2167,37 +2198,37 @@
       <c r="M23" s="16"/>
       <c r="N23" s="14"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="15"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="25"/>
-      <c r="T23" s="14"/>
+      <c r="T23" s="15"/>
       <c r="U23" s="12"/>
       <c r="V23" s="18">
         <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="13">
         <v>2118</v>
       </c>
-      <c r="X23" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y23" s="10"/>
-    </row>
-    <row r="24" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="13">
-        <v>400</v>
-      </c>
       <c r="D24" s="14">
         <v>45566</v>
       </c>
       <c r="E24" s="25"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -2212,30 +2243,32 @@
       <c r="R24" s="15"/>
       <c r="S24" s="25"/>
       <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
+      <c r="U24" s="12"/>
       <c r="V24" s="18">
         <f t="shared" si="0"/>
+        <v>2118</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y24" s="10"/>
+    </row>
+    <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="13">
         <v>400</v>
       </c>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-    </row>
-    <row r="25" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="13">
-        <v>480</v>
-      </c>
       <c r="D25" s="14">
         <v>45566</v>
       </c>
       <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -2250,24 +2283,24 @@
       <c r="R25" s="15"/>
       <c r="S25" s="25"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="12"/>
+      <c r="U25" s="14"/>
       <c r="V25" s="18">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="13">
-        <v>706</v>
+        <v>480</v>
       </c>
       <c r="D26" s="14">
         <v>45566</v>
@@ -2277,7 +2310,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="16"/>
       <c r="L26" s="14"/>
       <c r="M26" s="16"/>
@@ -2291,21 +2324,24 @@
       <c r="U26" s="12"/>
       <c r="V26" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>480</v>
       </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C27" s="13">
-        <v>420</v>
+        <v>706</v>
       </c>
       <c r="D27" s="14">
         <v>45566</v>
@@ -2315,13 +2351,13 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="16"/>
       <c r="L27" s="14"/>
       <c r="M27" s="16"/>
       <c r="N27" s="14"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="14"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="25"/>
@@ -2329,23 +2365,21 @@
       <c r="U27" s="12"/>
       <c r="V27" s="18">
         <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+    </row>
+    <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13">
         <v>420</v>
-      </c>
-      <c r="X27" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y27" s="10"/>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="13">
-        <v>353</v>
       </c>
       <c r="D28" s="14">
         <v>45566</v>
@@ -2361,7 +2395,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="14"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="15"/>
+      <c r="P28" s="14"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="25"/>
@@ -2369,18 +2403,20 @@
       <c r="U28" s="12"/>
       <c r="V28" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-      <c r="X28" s="10"/>
+        <v>420</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C29" s="13">
         <v>353</v>
@@ -2389,7 +2425,7 @@
         <v>45566</v>
       </c>
       <c r="E29" s="25"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -2412,22 +2448,22 @@
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C30" s="13">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="D30" s="14">
         <v>45566</v>
       </c>
       <c r="E30" s="25"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -2437,7 +2473,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="14"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="14"/>
+      <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="25"/>
@@ -2445,21 +2481,21 @@
       <c r="U30" s="12"/>
       <c r="V30" s="18">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C31" s="13">
-        <v>2118</v>
+        <v>300</v>
       </c>
       <c r="D31" s="14">
         <v>45566</v>
@@ -2469,7 +2505,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="27"/>
       <c r="K31" s="16"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16"/>
@@ -2483,21 +2519,21 @@
       <c r="U31" s="12"/>
       <c r="V31" s="18">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>300</v>
       </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13">
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="D32" s="14">
         <v>45566</v>
@@ -2507,7 +2543,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="27"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="16"/>
       <c r="L32" s="14"/>
       <c r="M32" s="16"/>
@@ -2521,27 +2557,30 @@
       <c r="U32" s="12"/>
       <c r="V32" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
-    </row>
-    <row r="33" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C33" s="13">
-        <v>405</v>
+        <v>1412</v>
       </c>
       <c r="D33" s="14">
         <v>45566</v>
       </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -2551,7 +2590,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="14"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="15"/>
+      <c r="P33" s="14"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="25"/>
@@ -2559,31 +2598,34 @@
       <c r="U33" s="12"/>
       <c r="V33" s="18">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>1412</v>
       </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
-    </row>
-    <row r="34" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="C34" s="13">
-        <v>706</v>
+        <v>405</v>
       </c>
       <c r="D34" s="14">
         <v>45566</v>
       </c>
       <c r="E34" s="25"/>
-      <c r="F34" s="27"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="27"/>
       <c r="K34" s="16"/>
       <c r="L34" s="14"/>
       <c r="M34" s="16"/>
@@ -2597,21 +2639,21 @@
       <c r="U34" s="12"/>
       <c r="V34" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>405</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C35" s="13">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="D35" s="14">
         <v>45566</v>
@@ -2635,21 +2677,21 @@
       <c r="U35" s="12"/>
       <c r="V35" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C36" s="13">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D36" s="14">
         <v>45566</v>
@@ -2659,7 +2701,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="27"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="16"/>
       <c r="L36" s="14"/>
       <c r="M36" s="16"/>
@@ -2673,27 +2715,27 @@
       <c r="U36" s="12"/>
       <c r="V36" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="C37" s="13">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D37" s="14">
         <v>45566</v>
       </c>
       <c r="E37" s="25"/>
-      <c r="F37" s="16"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -2711,18 +2753,21 @@
       <c r="U37" s="12"/>
       <c r="V37" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="13">
         <v>353</v>
@@ -2753,17 +2798,20 @@
       </c>
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
-    </row>
-    <row r="39" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C39" s="13">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="D39" s="14">
         <v>45566</v>
@@ -2782,32 +2830,26 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
-      <c r="S39" s="25">
-        <v>-125</v>
-      </c>
+      <c r="S39" s="25"/>
       <c r="T39" s="14"/>
-      <c r="U39" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="U39" s="12"/>
       <c r="V39" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="X39" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>143</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="13">
-        <v>706</v>
+        <v>205</v>
       </c>
       <c r="D40" s="14">
         <v>45566</v>
@@ -2826,23 +2868,29 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
-      <c r="S40" s="25"/>
+      <c r="S40" s="25">
+        <v>-125</v>
+      </c>
       <c r="T40" s="14"/>
-      <c r="U40" s="12"/>
+      <c r="U40" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="V40" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
-      </c>
-      <c r="X40" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y40" s="10"/>
     </row>
-    <row r="41" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="13">
         <v>706</v>
@@ -2851,7 +2899,7 @@
         <v>45566</v>
       </c>
       <c r="E41" s="25"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -2874,16 +2922,16 @@
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C42" s="13">
-        <v>2824</v>
+        <v>706</v>
       </c>
       <c r="D42" s="14">
         <v>45566</v>
@@ -2899,35 +2947,29 @@
       <c r="M42" s="16"/>
       <c r="N42" s="14"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="14"/>
+      <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
-      <c r="S42" s="25">
-        <v>140</v>
-      </c>
+      <c r="S42" s="25"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="U42" s="12"/>
       <c r="V42" s="18">
         <f t="shared" si="0"/>
-        <v>2964</v>
-      </c>
-      <c r="X42" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="13">
-        <v>706</v>
+        <v>2824</v>
       </c>
       <c r="D43" s="14">
         <v>45566</v>
@@ -2943,26 +2985,32 @@
       <c r="M43" s="16"/>
       <c r="N43" s="14"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="15"/>
+      <c r="P43" s="14"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
-      <c r="S43" s="25"/>
+      <c r="S43" s="25">
+        <v>140</v>
+      </c>
       <c r="T43" s="14"/>
-      <c r="U43" s="12"/>
+      <c r="U43" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="V43" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
-      </c>
-      <c r="X43" s="10"/>
+        <v>2964</v>
+      </c>
+      <c r="X43" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="C44" s="13">
         <v>706</v>
@@ -2981,11 +3029,11 @@
       <c r="M44" s="16"/>
       <c r="N44" s="14"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="14"/>
+      <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="25"/>
-      <c r="T44" s="27"/>
+      <c r="T44" s="14"/>
       <c r="U44" s="12"/>
       <c r="V44" s="18">
         <f t="shared" si="0"/>
@@ -2994,13 +3042,13 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="C45" s="13">
         <v>706</v>
@@ -3022,30 +3070,26 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
-      <c r="S45" s="25">
-        <v>-206</v>
-      </c>
+      <c r="S45" s="25"/>
       <c r="T45" s="27"/>
-      <c r="U45" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="U45" s="12"/>
       <c r="V45" s="18">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>706</v>
       </c>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C46" s="13">
-        <v>2118</v>
+        <v>706</v>
       </c>
       <c r="D46" s="14">
         <v>45566</v>
@@ -3064,32 +3108,36 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="12"/>
+      <c r="S46" s="25">
+        <v>-206</v>
+      </c>
+      <c r="T46" s="27"/>
+      <c r="U46" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="V46" s="18">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>500</v>
       </c>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C47" s="13">
-        <v>170</v>
+        <v>2118</v>
       </c>
       <c r="D47" s="14">
         <v>45566</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="16"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
@@ -3107,23 +3155,24 @@
       <c r="U47" s="12"/>
       <c r="V47" s="18">
         <f t="shared" si="0"/>
+        <v>2118</v>
+      </c>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="13">
         <v>170</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="13">
-        <v>1412</v>
       </c>
       <c r="D48" s="14">
         <v>45566</v>
@@ -3147,23 +3196,23 @@
       <c r="U48" s="12"/>
       <c r="V48" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>170</v>
       </c>
       <c r="X48" s="10" t="s">
         <v>187</v>
       </c>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="C49" s="13">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D49" s="14">
         <v>45566</v>
@@ -3187,31 +3236,33 @@
       <c r="U49" s="12"/>
       <c r="V49" s="18">
         <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y49" s="10"/>
+    </row>
+    <row r="50" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="13">
         <v>353</v>
       </c>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1412</v>
-      </c>
       <c r="D50" s="14">
         <v>45566</v>
       </c>
       <c r="E50" s="25"/>
-      <c r="F50" s="27"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="15"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="16"/>
       <c r="L50" s="14"/>
       <c r="M50" s="16"/>
@@ -3225,20 +3276,22 @@
       <c r="U50" s="12"/>
       <c r="V50" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1412</v>
+      </c>
       <c r="D51" s="14">
         <v>45566</v>
       </c>
@@ -3247,7 +3300,7 @@
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="27"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="16"/>
       <c r="L51" s="14"/>
       <c r="M51" s="16"/>
@@ -3259,26 +3312,29 @@
       <c r="S51" s="25"/>
       <c r="T51" s="14"/>
       <c r="U51" s="12"/>
-      <c r="V51" s="18"/>
+      <c r="V51" s="18">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C52" s="13">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="D52" s="14">
         <v>45566</v>
       </c>
       <c r="E52" s="25"/>
-      <c r="F52" s="16"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -3296,27 +3352,29 @@
       <c r="U52" s="12"/>
       <c r="V52" s="18">
         <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="13">
         <v>353</v>
       </c>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-    </row>
-    <row r="53" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1412</v>
-      </c>
       <c r="D53" s="14">
         <v>45566</v>
       </c>
       <c r="E53" s="25"/>
-      <c r="F53" s="27"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
@@ -3329,32 +3387,26 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="25">
-        <v>10</v>
-      </c>
+      <c r="S53" s="25"/>
       <c r="T53" s="14"/>
-      <c r="U53" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="U53" s="12"/>
       <c r="V53" s="18">
         <f t="shared" si="0"/>
-        <v>1422</v>
-      </c>
-      <c r="X53" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C54" s="13">
-        <v>1130</v>
+        <v>1412</v>
       </c>
       <c r="D54" s="14">
         <v>45566</v>
@@ -3373,26 +3425,32 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="25"/>
+      <c r="S54" s="25">
+        <v>10</v>
+      </c>
       <c r="T54" s="14"/>
-      <c r="U54" s="12"/>
+      <c r="U54" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="V54" s="18">
         <f t="shared" si="0"/>
+        <v>1422</v>
+      </c>
+      <c r="X54" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y54" s="10"/>
+    </row>
+    <row r="55" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="13">
         <v>1130</v>
-      </c>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-    </row>
-    <row r="55" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="13">
-        <v>580</v>
       </c>
       <c r="D55" s="14">
         <v>45566</v>
@@ -3416,23 +3474,21 @@
       <c r="U55" s="12"/>
       <c r="V55" s="18">
         <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+    </row>
+    <row r="56" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="13">
         <v>580</v>
-      </c>
-      <c r="X55" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y55" s="10"/>
-    </row>
-    <row r="56" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="13">
-        <v>2118</v>
       </c>
       <c r="D56" s="14">
         <v>45566</v>
@@ -3441,7 +3497,7 @@
       <c r="F56" s="27"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="22"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="27"/>
       <c r="K56" s="16"/>
       <c r="L56" s="14"/>
@@ -3456,21 +3512,23 @@
       <c r="U56" s="12"/>
       <c r="V56" s="18">
         <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="X56" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y56" s="10"/>
+    </row>
+    <row r="57" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="13">
         <v>2118</v>
-      </c>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-    </row>
-    <row r="57" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="13">
-        <v>1412</v>
       </c>
       <c r="D57" s="14">
         <v>45566</v>
@@ -3494,18 +3552,21 @@
       <c r="U57" s="12"/>
       <c r="V57" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
-    </row>
-    <row r="58" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C58" s="13">
         <v>1412</v>
@@ -3535,18 +3596,20 @@
         <v>1412</v>
       </c>
       <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-    </row>
-    <row r="59" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C59" s="13">
-        <v>600</v>
+        <v>1412</v>
       </c>
       <c r="D59" s="14">
         <v>45566</v>
@@ -3555,7 +3618,7 @@
       <c r="F59" s="27"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="27"/>
       <c r="K59" s="16"/>
       <c r="L59" s="14"/>
@@ -3570,21 +3633,23 @@
       <c r="U59" s="12"/>
       <c r="V59" s="18">
         <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="13">
         <v>600</v>
-      </c>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-    </row>
-    <row r="60" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="13">
-        <v>250</v>
       </c>
       <c r="D60" s="14">
         <v>45566</v>
@@ -3608,21 +3673,21 @@
       <c r="U60" s="12"/>
       <c r="V60" s="18">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C61" s="13">
-        <v>890</v>
+        <v>250</v>
       </c>
       <c r="D61" s="14">
         <v>45566</v>
@@ -3631,14 +3696,14 @@
       <c r="F61" s="27"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="15"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="27"/>
       <c r="K61" s="16"/>
       <c r="L61" s="14"/>
       <c r="M61" s="16"/>
       <c r="N61" s="14"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="15"/>
+      <c r="P61" s="14"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="15"/>
       <c r="S61" s="25"/>
@@ -3646,21 +3711,21 @@
       <c r="U61" s="12"/>
       <c r="V61" s="18">
         <f t="shared" si="0"/>
-        <v>890</v>
+        <v>250</v>
       </c>
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
     </row>
-    <row r="62" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C62" s="13">
-        <v>2824</v>
+        <v>890</v>
       </c>
       <c r="D62" s="14">
         <v>45566</v>
@@ -3669,8 +3734,8 @@
       <c r="F62" s="27"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="27"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="15"/>
       <c r="K62" s="16"/>
       <c r="L62" s="14"/>
       <c r="M62" s="16"/>
@@ -3680,25 +3745,28 @@
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
       <c r="S62" s="25"/>
-      <c r="T62" s="27"/>
+      <c r="T62" s="14"/>
       <c r="U62" s="12"/>
       <c r="V62" s="18">
         <f t="shared" si="0"/>
-        <v>2824</v>
+        <v>890</v>
       </c>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
-    </row>
-    <row r="63" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C63" s="13">
-        <v>529</v>
+        <v>2824</v>
       </c>
       <c r="D63" s="14">
         <v>45566</v>
@@ -3707,7 +3775,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="22"/>
+      <c r="I63" s="16"/>
       <c r="J63" s="27"/>
       <c r="K63" s="16"/>
       <c r="L63" s="14"/>
@@ -3718,25 +3786,28 @@
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="25"/>
-      <c r="T63" s="14"/>
+      <c r="T63" s="27"/>
       <c r="U63" s="12"/>
       <c r="V63" s="18">
-        <f t="shared" ref="V63:V94" si="2">C63+E63+G63+I63+K63+M63+O63+Q63+S63</f>
-        <v>529</v>
+        <f t="shared" si="0"/>
+        <v>2824</v>
       </c>
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>
-    </row>
-    <row r="64" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C64" s="13">
-        <v>4236</v>
+        <v>529</v>
       </c>
       <c r="D64" s="14">
         <v>45566</v>
@@ -3752,29 +3823,32 @@
       <c r="M64" s="16"/>
       <c r="N64" s="14"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="14"/>
+      <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="25"/>
       <c r="T64" s="14"/>
       <c r="U64" s="12"/>
       <c r="V64" s="18">
-        <f t="shared" si="2"/>
-        <v>4236</v>
+        <f t="shared" ref="V64:V95" si="2">C64+E64+G64+I64+K64+M64+O64+Q64+S64</f>
+        <v>529</v>
       </c>
       <c r="X64" s="10"/>
       <c r="Y64" s="10"/>
-    </row>
-    <row r="65" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C65" s="13">
-        <v>706</v>
+        <v>4236</v>
       </c>
       <c r="D65" s="14">
         <v>45566</v>
@@ -3798,21 +3872,24 @@
       <c r="U65" s="12"/>
       <c r="V65" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>4236</v>
       </c>
       <c r="X65" s="10"/>
       <c r="Y65" s="10"/>
-    </row>
-    <row r="66" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C66" s="13">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D66" s="14">
         <v>45566</v>
@@ -3822,7 +3899,7 @@
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="15"/>
+      <c r="J66" s="27"/>
       <c r="K66" s="16"/>
       <c r="L66" s="14"/>
       <c r="M66" s="16"/>
@@ -3831,40 +3908,36 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
-      <c r="S66" s="25">
-        <v>80</v>
-      </c>
+      <c r="S66" s="25"/>
       <c r="T66" s="14"/>
-      <c r="U66" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="U66" s="12"/>
       <c r="V66" s="18">
         <f t="shared" si="2"/>
-        <v>1492</v>
+        <v>706</v>
       </c>
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
     </row>
-    <row r="67" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C67" s="13">
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="D67" s="14">
         <v>45566</v>
       </c>
       <c r="E67" s="25"/>
-      <c r="F67" s="16"/>
+      <c r="F67" s="27"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="27"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="15"/>
       <c r="K67" s="16"/>
       <c r="L67" s="14"/>
       <c r="M67" s="16"/>
@@ -3873,32 +3946,36 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
-      <c r="S67" s="25"/>
+      <c r="S67" s="25">
+        <v>80</v>
+      </c>
       <c r="T67" s="14"/>
-      <c r="U67" s="12"/>
+      <c r="U67" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="V67" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1492</v>
       </c>
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
     </row>
-    <row r="68" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C68" s="13">
-        <v>280</v>
+        <v>706</v>
       </c>
       <c r="D68" s="14">
         <v>45566</v>
       </c>
       <c r="E68" s="25"/>
-      <c r="F68" s="27"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
@@ -3916,21 +3993,21 @@
       <c r="U68" s="12"/>
       <c r="V68" s="18">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>706</v>
       </c>
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
     </row>
-    <row r="69" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C69" s="13">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="D69" s="14">
         <v>45566</v>
@@ -3946,7 +4023,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="14"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="15"/>
+      <c r="P69" s="14"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
       <c r="S69" s="25"/>
@@ -3954,21 +4031,24 @@
       <c r="U69" s="12"/>
       <c r="V69" s="18">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
-    </row>
-    <row r="70" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="C70" s="13">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="D70" s="14">
         <v>45566</v>
@@ -3978,7 +4058,7 @@
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
-      <c r="J70" s="15"/>
+      <c r="J70" s="27"/>
       <c r="K70" s="16"/>
       <c r="L70" s="14"/>
       <c r="M70" s="16"/>
@@ -3992,31 +4072,31 @@
       <c r="U70" s="12"/>
       <c r="V70" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
     </row>
-    <row r="71" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C71" s="13">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D71" s="14">
         <v>45566</v>
       </c>
       <c r="E71" s="25"/>
-      <c r="F71" s="16"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
-      <c r="J71" s="27"/>
+      <c r="J71" s="15"/>
       <c r="K71" s="16"/>
       <c r="L71" s="14"/>
       <c r="M71" s="16"/>
@@ -4030,27 +4110,30 @@
       <c r="U71" s="12"/>
       <c r="V71" s="18">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
-    </row>
-    <row r="72" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C72" s="13">
-        <v>300</v>
+        <v>1412</v>
       </c>
       <c r="D72" s="14">
         <v>45566</v>
       </c>
       <c r="E72" s="25"/>
-      <c r="F72" s="27"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -4060,29 +4143,29 @@
       <c r="M72" s="16"/>
       <c r="N72" s="14"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="14"/>
+      <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="25"/>
       <c r="T72" s="14"/>
-      <c r="U72" s="24"/>
+      <c r="U72" s="12"/>
       <c r="V72" s="18">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>1412</v>
       </c>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
     </row>
-    <row r="73" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
-        <f t="shared" ref="A73:A94" si="3">A72+1</f>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C73" s="13">
-        <v>926</v>
+        <v>300</v>
       </c>
       <c r="D73" s="14">
         <v>45566</v>
@@ -4103,24 +4186,24 @@
       <c r="R73" s="15"/>
       <c r="S73" s="25"/>
       <c r="T73" s="14"/>
-      <c r="U73" s="12"/>
+      <c r="U73" s="24"/>
       <c r="V73" s="18">
         <f t="shared" si="2"/>
-        <v>926</v>
+        <v>300</v>
       </c>
       <c r="X73" s="10"/>
       <c r="Y73" s="10"/>
     </row>
-    <row r="74" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f t="shared" ref="A74:A95" si="3">A73+1</f>
+        <v>72</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13">
-        <v>250</v>
+        <v>926</v>
       </c>
       <c r="D74" s="14">
         <v>45566</v>
@@ -4130,13 +4213,13 @@
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
-      <c r="J74" s="15"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="16"/>
       <c r="L74" s="14"/>
       <c r="M74" s="16"/>
       <c r="N74" s="14"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="15"/>
+      <c r="P74" s="14"/>
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
       <c r="S74" s="25"/>
@@ -4144,37 +4227,37 @@
       <c r="U74" s="12"/>
       <c r="V74" s="18">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>926</v>
       </c>
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
     </row>
-    <row r="75" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C75" s="13">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D75" s="14">
         <v>45566</v>
       </c>
       <c r="E75" s="25"/>
-      <c r="F75" s="16"/>
+      <c r="F75" s="27"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
-      <c r="J75" s="27"/>
+      <c r="J75" s="15"/>
       <c r="K75" s="16"/>
       <c r="L75" s="14"/>
       <c r="M75" s="16"/>
       <c r="N75" s="14"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="14"/>
+      <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
       <c r="S75" s="25"/>
@@ -4182,63 +4265,61 @@
       <c r="U75" s="12"/>
       <c r="V75" s="18">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="X75" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="X75" s="10"/>
       <c r="Y75" s="10"/>
     </row>
-    <row r="76" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C76" s="13">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D76" s="14">
         <v>45566</v>
       </c>
       <c r="E76" s="25"/>
-      <c r="F76" s="27"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
-      <c r="J76" s="15"/>
+      <c r="J76" s="27"/>
       <c r="K76" s="16"/>
       <c r="L76" s="14"/>
       <c r="M76" s="16"/>
       <c r="N76" s="14"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="15"/>
+      <c r="P76" s="14"/>
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
       <c r="S76" s="25"/>
       <c r="T76" s="14"/>
-      <c r="U76" s="24"/>
+      <c r="U76" s="12"/>
       <c r="V76" s="18">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="X76" s="10" t="s">
         <v>187</v>
       </c>
       <c r="Y76" s="10"/>
     </row>
-    <row r="77" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C77" s="13">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="D77" s="14">
         <v>45566</v>
@@ -4248,7 +4329,7 @@
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="27"/>
+      <c r="J77" s="15"/>
       <c r="K77" s="16"/>
       <c r="L77" s="14"/>
       <c r="M77" s="16"/>
@@ -4259,30 +4340,32 @@
       <c r="R77" s="15"/>
       <c r="S77" s="25"/>
       <c r="T77" s="14"/>
-      <c r="U77" s="12"/>
+      <c r="U77" s="24"/>
       <c r="V77" s="18">
         <f t="shared" si="2"/>
-        <v>390</v>
-      </c>
-      <c r="X77" s="10"/>
+        <v>250</v>
+      </c>
+      <c r="X77" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y77" s="10"/>
     </row>
-    <row r="78" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C78" s="13">
-        <v>706</v>
+        <v>390</v>
       </c>
       <c r="D78" s="14">
         <v>45566</v>
       </c>
       <c r="E78" s="25"/>
-      <c r="F78" s="16"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
@@ -4300,18 +4383,21 @@
       <c r="U78" s="12"/>
       <c r="V78" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>390</v>
       </c>
       <c r="X78" s="10"/>
       <c r="Y78" s="10"/>
-    </row>
-    <row r="79" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C79" s="13">
         <v>706</v>
@@ -4320,7 +4406,7 @@
         <v>45566</v>
       </c>
       <c r="E79" s="25"/>
-      <c r="F79" s="27"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
@@ -4343,22 +4429,22 @@
       <c r="X79" s="10"/>
       <c r="Y79" s="10"/>
     </row>
-    <row r="80" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C80" s="13">
-        <v>450</v>
+        <v>706</v>
       </c>
       <c r="D80" s="14">
         <v>45566</v>
       </c>
       <c r="E80" s="25"/>
-      <c r="F80" s="16"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -4376,21 +4462,24 @@
       <c r="U80" s="12"/>
       <c r="V80" s="18">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>706</v>
       </c>
       <c r="X80" s="10"/>
       <c r="Y80" s="10"/>
+      <c r="Z80" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="81" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="C81" s="13">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D81" s="14">
         <v>45566</v>
@@ -4414,27 +4503,30 @@
       <c r="U81" s="12"/>
       <c r="V81" s="18">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="X81" s="10"/>
       <c r="Y81" s="10"/>
+      <c r="Z81" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="82" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C82" s="13">
-        <v>706</v>
+        <v>500</v>
       </c>
       <c r="D82" s="14">
         <v>45566</v>
       </c>
       <c r="E82" s="25"/>
-      <c r="F82" s="27"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
@@ -4444,7 +4536,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="14"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="14"/>
+      <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="15"/>
       <c r="S82" s="25"/>
@@ -4452,23 +4544,21 @@
       <c r="U82" s="12"/>
       <c r="V82" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
-      </c>
-      <c r="X82" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="X82" s="10"/>
       <c r="Y82" s="10"/>
     </row>
     <row r="83" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C83" s="13">
-        <v>1130</v>
+        <v>706</v>
       </c>
       <c r="D83" s="14">
         <v>45566</v>
@@ -4484,7 +4574,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="14"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="15"/>
+      <c r="P83" s="14"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
       <c r="S83" s="25"/>
@@ -4492,21 +4582,23 @@
       <c r="U83" s="12"/>
       <c r="V83" s="18">
         <f t="shared" si="2"/>
-        <v>1130</v>
-      </c>
-      <c r="X83" s="10"/>
+        <v>706</v>
+      </c>
+      <c r="X83" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y83" s="10"/>
     </row>
     <row r="84" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C84" s="13">
-        <v>2118</v>
+        <v>1130</v>
       </c>
       <c r="D84" s="14">
         <v>45566</v>
@@ -4530,7 +4622,7 @@
       <c r="U84" s="12"/>
       <c r="V84" s="18">
         <f t="shared" si="2"/>
-        <v>2118</v>
+        <v>1130</v>
       </c>
       <c r="X84" s="10"/>
       <c r="Y84" s="10"/>
@@ -4538,13 +4630,13 @@
     <row r="85" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C85" s="13">
-        <v>1130</v>
+        <v>2118</v>
       </c>
       <c r="D85" s="14">
         <v>45566</v>
@@ -4560,7 +4652,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="14"/>
       <c r="O85" s="17"/>
-      <c r="P85" s="14"/>
+      <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
       <c r="S85" s="25"/>
@@ -4568,23 +4660,24 @@
       <c r="U85" s="12"/>
       <c r="V85" s="18">
         <f t="shared" si="2"/>
-        <v>1130</v>
-      </c>
-      <c r="X85" s="10" t="s">
+        <v>2118</v>
+      </c>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" t="s">
         <v>187</v>
       </c>
-      <c r="Y85" s="10"/>
     </row>
     <row r="86" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C86" s="13">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D86" s="14">
         <v>45566</v>
@@ -4608,21 +4701,23 @@
       <c r="U86" s="12"/>
       <c r="V86" s="18">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="X86" s="10"/>
+        <v>1130</v>
+      </c>
+      <c r="X86" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y86" s="10"/>
     </row>
     <row r="87" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C87" s="13">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="D87" s="14">
         <v>45566</v>
@@ -4632,13 +4727,13 @@
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
-      <c r="J87" s="15"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="16"/>
       <c r="L87" s="14"/>
       <c r="M87" s="16"/>
       <c r="N87" s="14"/>
       <c r="O87" s="17"/>
-      <c r="P87" s="15"/>
+      <c r="P87" s="14"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
       <c r="S87" s="25"/>
@@ -4646,7 +4741,7 @@
       <c r="U87" s="12"/>
       <c r="V87" s="18">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
@@ -4654,29 +4749,29 @@
     <row r="88" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C88" s="13">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="D88" s="14">
         <v>45566</v>
       </c>
       <c r="E88" s="25"/>
-      <c r="F88" s="16"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
-      <c r="J88" s="27"/>
+      <c r="J88" s="15"/>
       <c r="K88" s="16"/>
       <c r="L88" s="14"/>
       <c r="M88" s="16"/>
       <c r="N88" s="14"/>
       <c r="O88" s="17"/>
-      <c r="P88" s="14"/>
+      <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="25"/>
@@ -4684,7 +4779,7 @@
       <c r="U88" s="12"/>
       <c r="V88" s="18">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="W88"/>
       <c r="X88" s="10"/>
@@ -4773,19 +4868,19 @@
     <row r="89" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C89" s="13">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="D89" s="14">
         <v>45566</v>
       </c>
       <c r="E89" s="25"/>
-      <c r="F89" s="27"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
@@ -4800,10 +4895,10 @@
       <c r="R89" s="15"/>
       <c r="S89" s="25"/>
       <c r="T89" s="14"/>
-      <c r="U89" s="24"/>
+      <c r="U89" s="12"/>
       <c r="V89" s="18">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="W89"/>
       <c r="X89" s="10"/>
@@ -4892,13 +4987,13 @@
     <row r="90" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C90" s="13">
-        <v>706</v>
+        <v>900</v>
       </c>
       <c r="D90" s="14">
         <v>45566</v>
@@ -4922,7 +5017,7 @@
       <c r="U90" s="24"/>
       <c r="V90" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>900</v>
       </c>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
@@ -4930,19 +5025,19 @@
     <row r="91" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C91" s="13">
-        <v>350</v>
+        <v>706</v>
       </c>
       <c r="D91" s="14">
         <v>45566</v>
       </c>
       <c r="E91" s="25"/>
-      <c r="F91" s="16"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
@@ -4952,15 +5047,15 @@
       <c r="M91" s="16"/>
       <c r="N91" s="14"/>
       <c r="O91" s="17"/>
-      <c r="P91" s="15"/>
+      <c r="P91" s="14"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="25"/>
       <c r="T91" s="14"/>
-      <c r="U91" s="12"/>
+      <c r="U91" s="24"/>
       <c r="V91" s="18">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>706</v>
       </c>
       <c r="W91"/>
       <c r="X91" s="10"/>
@@ -5049,19 +5144,19 @@
     <row r="92" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C92" s="13">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="D92" s="14">
         <v>45566</v>
       </c>
       <c r="E92" s="25"/>
-      <c r="F92" s="27"/>
+      <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
@@ -5079,12 +5174,14 @@
       <c r="U92" s="12"/>
       <c r="V92" s="18">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="W92"/>
       <c r="X92" s="10"/>
       <c r="Y92" s="10"/>
-      <c r="Z92"/>
+      <c r="Z92" t="s">
+        <v>187</v>
+      </c>
       <c r="AA92"/>
       <c r="AB92"/>
       <c r="AC92"/>
@@ -5168,13 +5265,13 @@
     <row r="93" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C93" s="13">
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="D93" s="14">
         <v>45566</v>
@@ -5198,7 +5295,7 @@
       <c r="U93" s="12"/>
       <c r="V93" s="18">
         <f t="shared" si="2"/>
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="W93"/>
       <c r="X93" s="10"/>
@@ -5287,19 +5384,19 @@
     <row r="94" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C94" s="13">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D94" s="14">
         <v>45566</v>
       </c>
       <c r="E94" s="25"/>
-      <c r="F94" s="16"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
@@ -5317,12 +5414,14 @@
       <c r="U94" s="12"/>
       <c r="V94" s="18">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="W94"/>
       <c r="X94" s="10"/>
       <c r="Y94" s="10"/>
-      <c r="Z94"/>
+      <c r="Z94" t="s">
+        <v>187</v>
+      </c>
       <c r="AA94"/>
       <c r="AB94"/>
       <c r="AC94"/>
@@ -5404,42 +5503,43 @@
       <c r="DA94"/>
     </row>
     <row r="95" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C95" s="19">
-        <f>SUM(C2:C94)</f>
-        <v>78483</v>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="14"/>
+      <c r="A95" s="11">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="13">
+        <v>580</v>
+      </c>
+      <c r="D95" s="14">
+        <v>45566</v>
+      </c>
+      <c r="E95" s="25"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="27"/>
-      <c r="K95" s="21"/>
+      <c r="K95" s="16"/>
       <c r="L95" s="14"/>
       <c r="M95" s="16"/>
       <c r="N95" s="14"/>
-      <c r="O95" s="20"/>
+      <c r="O95" s="17"/>
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
-      <c r="S95" s="26">
-        <f>SUM(S2:S94)</f>
-        <v>-91</v>
-      </c>
+      <c r="S95" s="25"/>
       <c r="T95" s="14"/>
       <c r="U95" s="12"/>
       <c r="V95" s="18">
-        <f>C95+F95+H95+J95+P95+R95+S95+M95+E95</f>
-        <v>78392</v>
+        <f t="shared" si="2"/>
+        <v>580</v>
       </c>
       <c r="W95"/>
-      <c r="X95"/>
-      <c r="Y95"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
       <c r="Z95"/>
       <c r="AA95"/>
       <c r="AB95"/>
@@ -5522,7 +5622,39 @@
       <c r="DA95"/>
     </row>
     <row r="96" spans="1:105" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K96" s="8"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="19">
+        <f>SUM(C2:C95)</f>
+        <v>81307</v>
+      </c>
+      <c r="D96" s="14"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="26">
+        <f>SUM(S2:S95)</f>
+        <v>-91</v>
+      </c>
+      <c r="T96" s="14"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="18">
+        <f>C96+F96+H96+J96+P96+R96+S96+M96+E96</f>
+        <v>81216</v>
+      </c>
     </row>
     <row r="97" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K97" s="8"/>
@@ -5956,28 +6088,52 @@
     <row r="240" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K240" s="8"/>
     </row>
-    <row r="241" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K241" s="8"/>
     </row>
-    <row r="242" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K242" s="8"/>
     </row>
-    <row r="243" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K243" s="8"/>
     </row>
-    <row r="244" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K244" s="8"/>
     </row>
-    <row r="245" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K245" s="8"/>
     </row>
+    <row r="246" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246"/>
+      <c r="B246"/>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246" s="8"/>
+      <c r="L246"/>
+      <c r="M246"/>
+      <c r="N246"/>
+      <c r="O246"/>
+      <c r="P246"/>
+      <c r="Q246"/>
+      <c r="R246"/>
+      <c r="S246"/>
+      <c r="T246"/>
+      <c r="U246"/>
+      <c r="V246"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:U89">
-    <sortCondition ref="B2:B89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:U90">
+    <sortCondition ref="B2:B90"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W14" r:id="rId1" xr:uid="{F89FEDED-138A-401F-91FC-CA10B26BE0FE}"/>
+    <hyperlink ref="W15" r:id="rId1" xr:uid="{F89FEDED-138A-401F-91FC-CA10B26BE0FE}"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\Projeto Honorarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D41086-29F6-452D-A9A5-06A6B18903D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A04AC-15F7-4A8E-B667-31B150D18FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="281">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -600,6 +600,273 @@
   </si>
   <si>
     <t>AMB DISTRIBUIDORA DE MED. E PROD. HOSP. LTDA</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>37.885.137/0001-80</t>
+  </si>
+  <si>
+    <t>04.534.256/0001-30</t>
+  </si>
+  <si>
+    <t>34.638.212/0001-10</t>
+  </si>
+  <si>
+    <t>24.596.976/0001-37</t>
+  </si>
+  <si>
+    <t>16.825.489/0001-70</t>
+  </si>
+  <si>
+    <t>46.403.149.0001/12</t>
+  </si>
+  <si>
+    <t>81.116.949/0001-53</t>
+  </si>
+  <si>
+    <t>82.373.127/0001-10</t>
+  </si>
+  <si>
+    <t>04.361.522/0001-70</t>
+  </si>
+  <si>
+    <t>20.102.134/0001-20</t>
+  </si>
+  <si>
+    <t>44.662.882/0001-26</t>
+  </si>
+  <si>
+    <t>41.609.653/0001-50</t>
+  </si>
+  <si>
+    <t>37.650.759/0001-20</t>
+  </si>
+  <si>
+    <t>53.145.088/0001-04</t>
+  </si>
+  <si>
+    <t>10.738.654/0001-70</t>
+  </si>
+  <si>
+    <t>01.702.523/0001-42</t>
+  </si>
+  <si>
+    <t>08.277.441/0001-47</t>
+  </si>
+  <si>
+    <t>82.343.708/0001-00</t>
+  </si>
+  <si>
+    <t>55.197.410/0001-66</t>
+  </si>
+  <si>
+    <t>14.205.754/0001-92</t>
+  </si>
+  <si>
+    <t>05.911.861/0001-45</t>
+  </si>
+  <si>
+    <t>03.445.885/0001-20</t>
+  </si>
+  <si>
+    <t>11.268.543/0001-00</t>
+  </si>
+  <si>
+    <t>00.296.238/0001-06</t>
+  </si>
+  <si>
+    <t>30.857.760/0001-80</t>
+  </si>
+  <si>
+    <t>23.443.739/0001-73</t>
+  </si>
+  <si>
+    <t>18.017.393/0001-01</t>
+  </si>
+  <si>
+    <t>07.233.306/0001-37</t>
+  </si>
+  <si>
+    <t>44.945.514/0001-95</t>
+  </si>
+  <si>
+    <t>97.492.508/0001-96</t>
+  </si>
+  <si>
+    <t>06.989.433/0001-06</t>
+  </si>
+  <si>
+    <t>16.097.013/0001-60</t>
+  </si>
+  <si>
+    <t>02.143.789/0001-65</t>
+  </si>
+  <si>
+    <t>78.558.277/0001-21</t>
+  </si>
+  <si>
+    <t>07.085.193/0001-70</t>
+  </si>
+  <si>
+    <t>16.566.834/0001-07</t>
+  </si>
+  <si>
+    <t>37.921.691/0001-76</t>
+  </si>
+  <si>
+    <t>22.444.499/0001-69</t>
+  </si>
+  <si>
+    <t>11.192.559/0001-87</t>
+  </si>
+  <si>
+    <t>78.030.442/0001-78</t>
+  </si>
+  <si>
+    <t>82.435.306/0001-35</t>
+  </si>
+  <si>
+    <t>19.643.389/0001-11</t>
+  </si>
+  <si>
+    <t>36.095.410/0001-00</t>
+  </si>
+  <si>
+    <t>22.659.140/0001-09</t>
+  </si>
+  <si>
+    <t>51.254.176/0001-00</t>
+  </si>
+  <si>
+    <t>00.829.310/0001-13</t>
+  </si>
+  <si>
+    <t>48.807.857/0001-44</t>
+  </si>
+  <si>
+    <t>42.203.145/0001-28</t>
+  </si>
+  <si>
+    <t>22.175.359/0001-32</t>
+  </si>
+  <si>
+    <t>07.199.000/0001-01</t>
+  </si>
+  <si>
+    <t>27.808.141/0001-91</t>
+  </si>
+  <si>
+    <t>23.811.493/0001-45</t>
+  </si>
+  <si>
+    <t>30.805.003/0001-63</t>
+  </si>
+  <si>
+    <t>04.265.851/0001-17</t>
+  </si>
+  <si>
+    <t>77.244.838/0001-55</t>
+  </si>
+  <si>
+    <t>06.888.397/0001-86</t>
+  </si>
+  <si>
+    <t>42.908.917/0001-39</t>
+  </si>
+  <si>
+    <t>85.027.837/0001-87</t>
+  </si>
+  <si>
+    <t>03.164.692/0001-00</t>
+  </si>
+  <si>
+    <t>54.382.028/0001-60</t>
+  </si>
+  <si>
+    <t>36.380.446/0001-36</t>
+  </si>
+  <si>
+    <t>30.994.779/0001-79</t>
+  </si>
+  <si>
+    <t>31.536.243/0001-72</t>
+  </si>
+  <si>
+    <t>77.347.193/0001-86</t>
+  </si>
+  <si>
+    <t>52.933.411/0001-33</t>
+  </si>
+  <si>
+    <t>04.818.014/0001-78</t>
+  </si>
+  <si>
+    <t>15.553.497/0001-42</t>
+  </si>
+  <si>
+    <t>29.263.730/0001-67</t>
+  </si>
+  <si>
+    <t>18.835.507/0001-20</t>
+  </si>
+  <si>
+    <t>115.780.179-04</t>
+  </si>
+  <si>
+    <t>32.229.877/0001-45</t>
+  </si>
+  <si>
+    <t>10.769.556/0001-09</t>
+  </si>
+  <si>
+    <t>13.528.531/0001-01</t>
+  </si>
+  <si>
+    <t>28.946.517/0001-97</t>
+  </si>
+  <si>
+    <t>48.459.134/0001-00</t>
+  </si>
+  <si>
+    <t>02.283.218/0001-26</t>
+  </si>
+  <si>
+    <t>36.473.412/0001-96</t>
+  </si>
+  <si>
+    <t>28.141.743/0001-09</t>
+  </si>
+  <si>
+    <t>11.542.119/0001-02</t>
+  </si>
+  <si>
+    <t>49.799.785/0001-01</t>
+  </si>
+  <si>
+    <t>25.012.856/0001-08</t>
+  </si>
+  <si>
+    <t>75.203.059/0001-86</t>
+  </si>
+  <si>
+    <t>42.286.844/0001-90</t>
+  </si>
+  <si>
+    <t>35.696.342/0001-72</t>
+  </si>
+  <si>
+    <t>05.780.488/0001-30</t>
+  </si>
+  <si>
+    <t>31.002.897/0001-16</t>
+  </si>
+  <si>
+    <t>03.426.078/0001-60</t>
+  </si>
+  <si>
+    <t>37.525.655/0001-93</t>
   </si>
 </sst>
 </file>
@@ -612,7 +879,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +996,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -810,7 +1083,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -923,6 +1196,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1231,9 +1508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1260,10 +1537,11 @@
     <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="106" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>76</v>
       </c>
@@ -1342,8 +1620,11 @@
       <c r="Z1" s="45" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1382,7 +1663,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>191</v>
@@ -1415,8 +1696,11 @@
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
-    </row>
-    <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1447,7 +1731,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="12"/>
       <c r="V4" s="18">
-        <f t="shared" ref="V4:V63" si="0">C4+E4+G4+I4+K4+M4+O4+Q4+S4</f>
+        <f t="shared" ref="V4:V62" si="0">C4+E4+G4+I4+K4+M4+O4+Q4+S4</f>
         <v>320</v>
       </c>
       <c r="X4" s="10"/>
@@ -1455,8 +1739,11 @@
       <c r="Z4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1494,8 +1781,11 @@
         <v>187</v>
       </c>
       <c r="Y5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1531,8 +1821,11 @@
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-    </row>
-    <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1571,8 +1864,11 @@
       <c r="Z7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1608,8 +1904,11 @@
       </c>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-    </row>
-    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1647,8 +1946,11 @@
         <v>187</v>
       </c>
       <c r="Y9" s="10"/>
-    </row>
-    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f t="shared" ref="A10:A73" si="1">A9+1</f>
         <v>8</v>
@@ -1687,8 +1989,11 @@
         <v>187</v>
       </c>
       <c r="Y10" s="10"/>
-    </row>
-    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1727,8 +2032,11 @@
         <v>187</v>
       </c>
       <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1768,8 +2076,11 @@
       <c r="Z12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1809,8 +2120,11 @@
       <c r="Z13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1850,8 +2164,11 @@
       <c r="Z14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1897,8 +2214,11 @@
         <v>187</v>
       </c>
       <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1938,8 +2258,11 @@
       <c r="Z16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1979,8 +2302,11 @@
       <c r="Z17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2017,8 +2343,11 @@
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
-    </row>
-    <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2057,8 +2386,11 @@
         <v>187</v>
       </c>
       <c r="Y19" s="10"/>
-    </row>
-    <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2097,8 +2429,11 @@
         <v>187</v>
       </c>
       <c r="Y20" s="10"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2135,8 +2470,11 @@
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
-    </row>
-    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -2172,8 +2510,11 @@
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-    </row>
-    <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2212,8 +2553,11 @@
       <c r="Y23" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2252,8 +2596,11 @@
         <v>187</v>
       </c>
       <c r="Y24" s="10"/>
-    </row>
-    <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2290,8 +2637,11 @@
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
-    </row>
-    <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2332,16 +2682,16 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C27" s="13">
-        <v>706</v>
+        <v>420</v>
       </c>
       <c r="D27" s="14">
         <v>45566</v>
@@ -2351,13 +2701,13 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="16"/>
       <c r="L27" s="14"/>
       <c r="M27" s="16"/>
       <c r="N27" s="14"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="15"/>
+      <c r="P27" s="14"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="25"/>
@@ -2365,21 +2715,26 @@
       <c r="U27" s="12"/>
       <c r="V27" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
-      </c>
-      <c r="X27" s="10"/>
+        <v>420</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y27" s="10"/>
-    </row>
-    <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C28" s="13">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="D28" s="14">
         <v>45566</v>
@@ -2395,7 +2750,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="14"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="14"/>
+      <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="25"/>
@@ -2403,20 +2758,21 @@
       <c r="U28" s="12"/>
       <c r="V28" s="18">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-    </row>
-    <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C29" s="13">
         <v>353</v>
@@ -2425,7 +2781,7 @@
         <v>45566</v>
       </c>
       <c r="E29" s="25"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -2447,23 +2803,26 @@
       </c>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-    </row>
-    <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C30" s="13">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D30" s="14">
         <v>45566</v>
       </c>
       <c r="E30" s="25"/>
-      <c r="F30" s="16"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -2473,7 +2832,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="14"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="15"/>
+      <c r="P30" s="14"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="25"/>
@@ -2481,21 +2840,24 @@
       <c r="U30" s="12"/>
       <c r="V30" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
-    </row>
-    <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C31" s="13">
-        <v>300</v>
+        <v>2118</v>
       </c>
       <c r="D31" s="14">
         <v>45566</v>
@@ -2505,7 +2867,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="27"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="16"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16"/>
@@ -2519,21 +2881,27 @@
       <c r="U31" s="12"/>
       <c r="V31" s="18">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>2118</v>
       </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
-    </row>
-    <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C32" s="13">
-        <v>2118</v>
+        <v>1412</v>
       </c>
       <c r="D32" s="14">
         <v>45566</v>
@@ -2543,7 +2911,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="15"/>
+      <c r="J32" s="27"/>
       <c r="K32" s="16"/>
       <c r="L32" s="14"/>
       <c r="M32" s="16"/>
@@ -2557,30 +2925,33 @@
       <c r="U32" s="12"/>
       <c r="V32" s="18">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>1412</v>
       </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C33" s="13">
-        <v>1412</v>
+        <v>405</v>
       </c>
       <c r="D33" s="14">
         <v>45566</v>
       </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="27"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -2590,7 +2961,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="14"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="14"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="25"/>
@@ -2598,34 +2969,34 @@
       <c r="U33" s="12"/>
       <c r="V33" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>405</v>
       </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
-      <c r="Z33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="C34" s="13">
-        <v>405</v>
+        <v>706</v>
       </c>
       <c r="D34" s="14">
         <v>45566</v>
       </c>
       <c r="E34" s="25"/>
-      <c r="F34" s="16"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="27"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="16"/>
       <c r="L34" s="14"/>
       <c r="M34" s="16"/>
@@ -2639,21 +3010,24 @@
       <c r="U34" s="12"/>
       <c r="V34" s="18">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>706</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
-    </row>
-    <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C35" s="13">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="D35" s="14">
         <v>45566</v>
@@ -2677,21 +3051,24 @@
       <c r="U35" s="12"/>
       <c r="V35" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
-    </row>
-    <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C36" s="13">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D36" s="14">
         <v>45566</v>
@@ -2701,7 +3078,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="15"/>
+      <c r="J36" s="27"/>
       <c r="K36" s="16"/>
       <c r="L36" s="14"/>
       <c r="M36" s="16"/>
@@ -2715,27 +3092,33 @@
       <c r="U36" s="12"/>
       <c r="V36" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
-    </row>
-    <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="C37" s="13">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D37" s="14">
         <v>45566</v>
       </c>
       <c r="E37" s="25"/>
-      <c r="F37" s="27"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -2753,21 +3136,24 @@
       <c r="U37" s="12"/>
       <c r="V37" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
       <c r="Z37" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="13">
         <v>353</v>
@@ -2798,20 +3184,20 @@
       </c>
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
-      <c r="Z38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C39" s="13">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="D39" s="14">
         <v>45566</v>
@@ -2830,26 +3216,35 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
-      <c r="S39" s="25"/>
+      <c r="S39" s="25">
+        <v>-125</v>
+      </c>
       <c r="T39" s="14"/>
-      <c r="U39" s="12"/>
+      <c r="U39" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="V39" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-      <c r="X39" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y39" s="10"/>
-    </row>
-    <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>79</v>
+      <c r="B40" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="C40" s="13">
-        <v>205</v>
+        <v>706</v>
       </c>
       <c r="D40" s="14">
         <v>45566</v>
@@ -2868,29 +3263,26 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
-      <c r="S40" s="25">
-        <v>-125</v>
-      </c>
+      <c r="S40" s="25"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="U40" s="12"/>
       <c r="V40" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="X40" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
-    </row>
-    <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>143</v>
+      <c r="B41" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="13">
         <v>706</v>
@@ -2899,7 +3291,7 @@
         <v>45566</v>
       </c>
       <c r="E41" s="25"/>
-      <c r="F41" s="16"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -2921,17 +3313,20 @@
       </c>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
-    </row>
-    <row r="42" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C42" s="13">
-        <v>706</v>
+        <v>2824</v>
       </c>
       <c r="D42" s="14">
         <v>45566</v>
@@ -2947,29 +3342,38 @@
       <c r="M42" s="16"/>
       <c r="N42" s="14"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="15"/>
+      <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
-      <c r="S42" s="25"/>
+      <c r="S42" s="25">
+        <v>140</v>
+      </c>
       <c r="T42" s="14"/>
-      <c r="U42" s="12"/>
+      <c r="U42" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="V42" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
-      </c>
-      <c r="X42" s="10"/>
+        <v>2964</v>
+      </c>
+      <c r="X42" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y42" s="10"/>
-    </row>
-    <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>50</v>
+      <c r="B43" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="C43" s="13">
-        <v>2824</v>
+        <v>706</v>
       </c>
       <c r="D43" s="14">
         <v>45566</v>
@@ -2985,32 +3389,29 @@
       <c r="M43" s="16"/>
       <c r="N43" s="14"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="14"/>
+      <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
-      <c r="S43" s="25">
-        <v>140</v>
-      </c>
+      <c r="S43" s="25"/>
       <c r="T43" s="14"/>
-      <c r="U43" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="U43" s="12"/>
       <c r="V43" s="18">
         <f t="shared" si="0"/>
-        <v>2964</v>
-      </c>
-      <c r="X43" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
-    </row>
-    <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>31</v>
+      <c r="B44" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C44" s="13">
         <v>706</v>
@@ -3029,11 +3430,11 @@
       <c r="M44" s="16"/>
       <c r="N44" s="14"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="15"/>
+      <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="25"/>
-      <c r="T44" s="14"/>
+      <c r="T44" s="27"/>
       <c r="U44" s="12"/>
       <c r="V44" s="18">
         <f t="shared" si="0"/>
@@ -3041,14 +3442,17 @@
       </c>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
-    </row>
-    <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C45" s="13">
         <v>706</v>
@@ -3070,26 +3474,33 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
-      <c r="S45" s="25"/>
+      <c r="S45" s="25">
+        <v>-206</v>
+      </c>
       <c r="T45" s="27"/>
-      <c r="U45" s="12"/>
+      <c r="U45" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="V45" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>500</v>
       </c>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
-    </row>
-    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C46" s="13">
-        <v>706</v>
+        <v>2118</v>
       </c>
       <c r="D46" s="14">
         <v>45566</v>
@@ -3108,36 +3519,38 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
-      <c r="S46" s="25">
-        <v>-206</v>
-      </c>
-      <c r="T46" s="27"/>
-      <c r="U46" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="S46" s="25"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="12"/>
       <c r="V46" s="18">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2118</v>
       </c>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
-    </row>
-    <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C47" s="13">
-        <v>2118</v>
+        <v>170</v>
       </c>
       <c r="D47" s="14">
         <v>45566</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
@@ -3155,24 +3568,23 @@
       <c r="U47" s="12"/>
       <c r="V47" s="18">
         <f t="shared" si="0"/>
-        <v>2118</v>
-      </c>
-      <c r="X47" s="10"/>
+        <v>170</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y47" s="10"/>
-      <c r="Z47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="C48" s="13">
-        <v>170</v>
+        <v>1412</v>
       </c>
       <c r="D48" s="14">
         <v>45566</v>
@@ -3196,23 +3608,26 @@
       <c r="U48" s="12"/>
       <c r="V48" s="18">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>1412</v>
       </c>
       <c r="X48" s="10" t="s">
         <v>187</v>
       </c>
       <c r="Y48" s="10"/>
-    </row>
-    <row r="49" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="C49" s="13">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D49" s="14">
         <v>45566</v>
@@ -3236,33 +3651,34 @@
       <c r="U49" s="12"/>
       <c r="V49" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
-      </c>
-      <c r="X49" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C50" s="13">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D50" s="14">
         <v>45566</v>
       </c>
       <c r="E50" s="25"/>
-      <c r="F50" s="16"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="27"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="16"/>
       <c r="L50" s="14"/>
       <c r="M50" s="16"/>
@@ -3276,21 +3692,24 @@
       <c r="U50" s="12"/>
       <c r="V50" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
-    </row>
-    <row r="51" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C51" s="13">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D51" s="14">
         <v>45566</v>
@@ -3300,7 +3719,7 @@
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="15"/>
+      <c r="J51" s="27"/>
       <c r="K51" s="16"/>
       <c r="L51" s="14"/>
       <c r="M51" s="16"/>
@@ -3314,27 +3733,29 @@
       <c r="U51" s="12"/>
       <c r="V51" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-    </row>
-    <row r="52" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C52" s="13">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="D52" s="14">
         <v>45566</v>
       </c>
       <c r="E52" s="25"/>
-      <c r="F52" s="27"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -3352,29 +3773,30 @@
       <c r="U52" s="12"/>
       <c r="V52" s="18">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="X52" s="10"/>
-      <c r="Y52" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y52" s="10"/>
+      <c r="AA52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53" s="13">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D53" s="14">
         <v>45566</v>
       </c>
       <c r="E53" s="25"/>
-      <c r="F53" s="16"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
@@ -3387,26 +3809,35 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
-      <c r="S53" s="25"/>
+      <c r="S53" s="25">
+        <v>10</v>
+      </c>
       <c r="T53" s="14"/>
-      <c r="U53" s="12"/>
+      <c r="U53" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="V53" s="18">
         <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-      <c r="X53" s="10"/>
+        <v>1422</v>
+      </c>
+      <c r="X53" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y53" s="10"/>
-    </row>
-    <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C54" s="13">
-        <v>1412</v>
+        <v>1130</v>
       </c>
       <c r="D54" s="14">
         <v>45566</v>
@@ -3425,32 +3856,29 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
-      <c r="S54" s="25">
-        <v>10</v>
-      </c>
+      <c r="S54" s="25"/>
       <c r="T54" s="14"/>
-      <c r="U54" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="U54" s="12"/>
       <c r="V54" s="18">
         <f t="shared" si="0"/>
-        <v>1422</v>
-      </c>
-      <c r="X54" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
-    </row>
-    <row r="55" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C55" s="13">
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="D55" s="14">
         <v>45566</v>
@@ -3474,21 +3902,26 @@
       <c r="U55" s="12"/>
       <c r="V55" s="18">
         <f t="shared" si="0"/>
-        <v>1130</v>
-      </c>
-      <c r="X55" s="10"/>
+        <v>580</v>
+      </c>
+      <c r="X55" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y55" s="10"/>
-    </row>
-    <row r="56" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C56" s="13">
-        <v>580</v>
+        <v>2118</v>
       </c>
       <c r="D56" s="14">
         <v>45566</v>
@@ -3497,7 +3930,7 @@
       <c r="F56" s="27"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="22"/>
       <c r="J56" s="27"/>
       <c r="K56" s="16"/>
       <c r="L56" s="14"/>
@@ -3512,23 +3945,27 @@
       <c r="U56" s="12"/>
       <c r="V56" s="18">
         <f t="shared" si="0"/>
-        <v>580</v>
-      </c>
-      <c r="X56" s="10" t="s">
+        <v>2118</v>
+      </c>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" t="s">
         <v>187</v>
       </c>
-      <c r="Y56" s="10"/>
-    </row>
-    <row r="57" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C57" s="13">
-        <v>2118</v>
+        <v>1412</v>
       </c>
       <c r="D57" s="14">
         <v>45566</v>
@@ -3552,21 +3989,23 @@
       <c r="U57" s="12"/>
       <c r="V57" s="18">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>1412</v>
       </c>
       <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" t="s">
+      <c r="Y57" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C58" s="13">
         <v>1412</v>
@@ -3599,17 +4038,20 @@
       <c r="Y58" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C59" s="13">
-        <v>1412</v>
+        <v>600</v>
       </c>
       <c r="D59" s="14">
         <v>45566</v>
@@ -3618,7 +4060,7 @@
       <c r="F59" s="27"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
-      <c r="I59" s="22"/>
+      <c r="I59" s="16"/>
       <c r="J59" s="27"/>
       <c r="K59" s="16"/>
       <c r="L59" s="14"/>
@@ -3633,23 +4075,24 @@
       <c r="U59" s="12"/>
       <c r="V59" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>600</v>
       </c>
       <c r="X59" s="10"/>
-      <c r="Y59" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y59" s="10"/>
+      <c r="AA59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" s="13">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="D60" s="14">
         <v>45566</v>
@@ -3673,21 +4116,24 @@
       <c r="U60" s="12"/>
       <c r="V60" s="18">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
-    </row>
-    <row r="61" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C61" s="13">
-        <v>250</v>
+        <v>890</v>
       </c>
       <c r="D61" s="14">
         <v>45566</v>
@@ -3696,14 +4142,14 @@
       <c r="F61" s="27"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="27"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="15"/>
       <c r="K61" s="16"/>
       <c r="L61" s="14"/>
       <c r="M61" s="16"/>
       <c r="N61" s="14"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="14"/>
+      <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="15"/>
       <c r="S61" s="25"/>
@@ -3711,21 +4157,24 @@
       <c r="U61" s="12"/>
       <c r="V61" s="18">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>890</v>
       </c>
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
-    </row>
-    <row r="62" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C62" s="13">
-        <v>890</v>
+        <v>2824</v>
       </c>
       <c r="D62" s="14">
         <v>45566</v>
@@ -3734,8 +4183,8 @@
       <c r="F62" s="27"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="15"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="27"/>
       <c r="K62" s="16"/>
       <c r="L62" s="14"/>
       <c r="M62" s="16"/>
@@ -3745,28 +4194,31 @@
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
       <c r="S62" s="25"/>
-      <c r="T62" s="14"/>
+      <c r="T62" s="27"/>
       <c r="U62" s="12"/>
       <c r="V62" s="18">
         <f t="shared" si="0"/>
-        <v>890</v>
+        <v>2824</v>
       </c>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
       <c r="Z62" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C63" s="13">
-        <v>2824</v>
+        <v>529</v>
       </c>
       <c r="D63" s="14">
         <v>45566</v>
@@ -3775,7 +4227,7 @@
       <c r="F63" s="27"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="27"/>
       <c r="K63" s="16"/>
       <c r="L63" s="14"/>
@@ -3786,28 +4238,31 @@
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="25"/>
-      <c r="T63" s="27"/>
+      <c r="T63" s="14"/>
       <c r="U63" s="12"/>
       <c r="V63" s="18">
-        <f t="shared" si="0"/>
-        <v>2824</v>
+        <f t="shared" ref="V63:V94" si="2">C63+E63+G63+I63+K63+M63+O63+Q63+S63</f>
+        <v>529</v>
       </c>
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>
       <c r="Z63" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C64" s="13">
-        <v>529</v>
+        <v>4236</v>
       </c>
       <c r="D64" s="14">
         <v>45566</v>
@@ -3823,32 +4278,35 @@
       <c r="M64" s="16"/>
       <c r="N64" s="14"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="15"/>
+      <c r="P64" s="14"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="25"/>
       <c r="T64" s="14"/>
       <c r="U64" s="12"/>
       <c r="V64" s="18">
-        <f t="shared" ref="V64:V95" si="2">C64+E64+G64+I64+K64+M64+O64+Q64+S64</f>
-        <v>529</v>
+        <f t="shared" si="2"/>
+        <v>4236</v>
       </c>
       <c r="X64" s="10"/>
       <c r="Y64" s="10"/>
       <c r="Z64" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="C65" s="13">
-        <v>4236</v>
+        <v>706</v>
       </c>
       <c r="D65" s="14">
         <v>45566</v>
@@ -3872,24 +4330,24 @@
       <c r="U65" s="12"/>
       <c r="V65" s="18">
         <f t="shared" si="2"/>
-        <v>4236</v>
+        <v>706</v>
       </c>
       <c r="X65" s="10"/>
       <c r="Y65" s="10"/>
-      <c r="Z65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C66" s="13">
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="D66" s="14">
         <v>45566</v>
@@ -3899,7 +4357,7 @@
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="27"/>
+      <c r="J66" s="15"/>
       <c r="K66" s="16"/>
       <c r="L66" s="14"/>
       <c r="M66" s="16"/>
@@ -3908,36 +4366,43 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
-      <c r="S66" s="25"/>
+      <c r="S66" s="25">
+        <v>80</v>
+      </c>
       <c r="T66" s="14"/>
-      <c r="U66" s="12"/>
+      <c r="U66" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="V66" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1492</v>
       </c>
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
-    </row>
-    <row r="67" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C67" s="13">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D67" s="14">
         <v>45566</v>
       </c>
       <c r="E67" s="25"/>
-      <c r="F67" s="27"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="15"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="16"/>
       <c r="L67" s="14"/>
       <c r="M67" s="16"/>
@@ -3946,36 +4411,35 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
-      <c r="S67" s="25">
-        <v>80</v>
-      </c>
+      <c r="S67" s="25"/>
       <c r="T67" s="14"/>
-      <c r="U67" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="U67" s="12"/>
       <c r="V67" s="18">
         <f t="shared" si="2"/>
-        <v>1492</v>
+        <v>706</v>
       </c>
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
-    </row>
-    <row r="68" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C68" s="13">
-        <v>706</v>
+        <v>280</v>
       </c>
       <c r="D68" s="14">
         <v>45566</v>
       </c>
       <c r="E68" s="25"/>
-      <c r="F68" s="16"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
@@ -3993,21 +4457,27 @@
       <c r="U68" s="12"/>
       <c r="V68" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>280</v>
       </c>
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
-    </row>
-    <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z68" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C69" s="13">
-        <v>280</v>
+        <v>353</v>
       </c>
       <c r="D69" s="14">
         <v>45566</v>
@@ -4023,7 +4493,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="14"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="14"/>
+      <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
       <c r="S69" s="25"/>
@@ -4031,24 +4501,24 @@
       <c r="U69" s="12"/>
       <c r="V69" s="18">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>353</v>
       </c>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
-      <c r="Z69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="C70" s="13">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="D70" s="14">
         <v>45566</v>
@@ -4058,7 +4528,7 @@
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
-      <c r="J70" s="27"/>
+      <c r="J70" s="15"/>
       <c r="K70" s="16"/>
       <c r="L70" s="14"/>
       <c r="M70" s="16"/>
@@ -4072,31 +4542,37 @@
       <c r="U70" s="12"/>
       <c r="V70" s="18">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
-    </row>
-    <row r="71" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z70" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C71" s="13">
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="D71" s="14">
         <v>45566</v>
       </c>
       <c r="E71" s="25"/>
-      <c r="F71" s="27"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
-      <c r="J71" s="15"/>
+      <c r="J71" s="27"/>
       <c r="K71" s="16"/>
       <c r="L71" s="14"/>
       <c r="M71" s="16"/>
@@ -4110,30 +4586,30 @@
       <c r="U71" s="12"/>
       <c r="V71" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
-      <c r="Z71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="C72" s="13">
-        <v>1412</v>
+        <v>300</v>
       </c>
       <c r="D72" s="14">
         <v>45566</v>
       </c>
       <c r="E72" s="25"/>
-      <c r="F72" s="16"/>
+      <c r="F72" s="27"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -4143,29 +4619,32 @@
       <c r="M72" s="16"/>
       <c r="N72" s="14"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="15"/>
+      <c r="P72" s="14"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="25"/>
       <c r="T72" s="14"/>
-      <c r="U72" s="12"/>
+      <c r="U72" s="24"/>
       <c r="V72" s="18">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>300</v>
       </c>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
-    </row>
-    <row r="73" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C73" s="13">
-        <v>300</v>
+        <v>926</v>
       </c>
       <c r="D73" s="14">
         <v>45566</v>
@@ -4186,24 +4665,27 @@
       <c r="R73" s="15"/>
       <c r="S73" s="25"/>
       <c r="T73" s="14"/>
-      <c r="U73" s="24"/>
+      <c r="U73" s="12"/>
       <c r="V73" s="18">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>926</v>
       </c>
       <c r="X73" s="10"/>
       <c r="Y73" s="10"/>
-    </row>
-    <row r="74" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <f t="shared" ref="A74:A95" si="3">A73+1</f>
         <v>72</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C74" s="13">
-        <v>926</v>
+        <v>250</v>
       </c>
       <c r="D74" s="14">
         <v>45566</v>
@@ -4213,13 +4695,13 @@
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
-      <c r="J74" s="27"/>
+      <c r="J74" s="15"/>
       <c r="K74" s="16"/>
       <c r="L74" s="14"/>
       <c r="M74" s="16"/>
       <c r="N74" s="14"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="14"/>
+      <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
       <c r="S74" s="25"/>
@@ -4227,37 +4709,40 @@
       <c r="U74" s="12"/>
       <c r="V74" s="18">
         <f t="shared" si="2"/>
-        <v>926</v>
+        <v>250</v>
       </c>
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
-    </row>
-    <row r="75" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C75" s="13">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D75" s="14">
         <v>45566</v>
       </c>
       <c r="E75" s="25"/>
-      <c r="F75" s="27"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
-      <c r="J75" s="15"/>
+      <c r="J75" s="27"/>
       <c r="K75" s="16"/>
       <c r="L75" s="14"/>
       <c r="M75" s="16"/>
       <c r="N75" s="14"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="15"/>
+      <c r="P75" s="14"/>
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
       <c r="S75" s="25"/>
@@ -4265,61 +4750,69 @@
       <c r="U75" s="12"/>
       <c r="V75" s="18">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="X75" s="10"/>
+        <v>400</v>
+      </c>
+      <c r="X75" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y75" s="10"/>
-    </row>
-    <row r="76" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C76" s="13">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D76" s="14">
         <v>45566</v>
       </c>
       <c r="E76" s="25"/>
-      <c r="F76" s="16"/>
+      <c r="F76" s="27"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
-      <c r="J76" s="27"/>
+      <c r="J76" s="15"/>
       <c r="K76" s="16"/>
       <c r="L76" s="14"/>
       <c r="M76" s="16"/>
       <c r="N76" s="14"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="14"/>
+      <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
       <c r="S76" s="25"/>
       <c r="T76" s="14"/>
-      <c r="U76" s="12"/>
+      <c r="U76" s="24"/>
       <c r="V76" s="18">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="X76" s="10" t="s">
         <v>187</v>
       </c>
       <c r="Y76" s="10"/>
-    </row>
-    <row r="77" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C77" s="13">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="D77" s="14">
         <v>45566</v>
@@ -4329,7 +4822,7 @@
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="15"/>
+      <c r="J77" s="27"/>
       <c r="K77" s="16"/>
       <c r="L77" s="14"/>
       <c r="M77" s="16"/>
@@ -4340,32 +4833,36 @@
       <c r="R77" s="15"/>
       <c r="S77" s="25"/>
       <c r="T77" s="14"/>
-      <c r="U77" s="24"/>
+      <c r="U77" s="12"/>
       <c r="V77" s="18">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="X77" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" t="s">
         <v>187</v>
       </c>
-      <c r="Y77" s="10"/>
-    </row>
-    <row r="78" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C78" s="13">
-        <v>390</v>
+        <v>706</v>
       </c>
       <c r="D78" s="14">
         <v>45566</v>
       </c>
       <c r="E78" s="25"/>
-      <c r="F78" s="27"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
@@ -4383,21 +4880,21 @@
       <c r="U78" s="12"/>
       <c r="V78" s="18">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>706</v>
       </c>
       <c r="X78" s="10"/>
       <c r="Y78" s="10"/>
-      <c r="Z78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C79" s="13">
         <v>706</v>
@@ -4406,7 +4903,7 @@
         <v>45566</v>
       </c>
       <c r="E79" s="25"/>
-      <c r="F79" s="16"/>
+      <c r="F79" s="27"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
@@ -4428,23 +4925,29 @@
       </c>
       <c r="X79" s="10"/>
       <c r="Y79" s="10"/>
-    </row>
-    <row r="80" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z79" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C80" s="13">
-        <v>706</v>
+        <v>450</v>
       </c>
       <c r="D80" s="14">
         <v>45566</v>
       </c>
       <c r="E80" s="25"/>
-      <c r="F80" s="27"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -4462,13 +4965,16 @@
       <c r="U80" s="12"/>
       <c r="V80" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>450</v>
       </c>
       <c r="X80" s="10"/>
       <c r="Y80" s="10"/>
       <c r="Z80" t="s">
         <v>187</v>
       </c>
+      <c r="AA80" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="81" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
@@ -4476,10 +4982,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="C81" s="13">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="D81" s="14">
         <v>45566</v>
@@ -4503,12 +5009,12 @@
       <c r="U81" s="12"/>
       <c r="V81" s="18">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="X81" s="10"/>
       <c r="Y81" s="10"/>
-      <c r="Z81" t="s">
-        <v>187</v>
+      <c r="AA81" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,16 +5023,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="C82" s="13">
-        <v>500</v>
+        <v>706</v>
       </c>
       <c r="D82" s="14">
         <v>45566</v>
       </c>
       <c r="E82" s="25"/>
-      <c r="F82" s="16"/>
+      <c r="F82" s="27"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
@@ -4536,7 +5042,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="14"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="15"/>
+      <c r="P82" s="14"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="15"/>
       <c r="S82" s="25"/>
@@ -4544,10 +5050,15 @@
       <c r="U82" s="12"/>
       <c r="V82" s="18">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="X82" s="10"/>
+        <v>706</v>
+      </c>
+      <c r="X82" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y82" s="10"/>
+      <c r="AA82" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="83" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
@@ -4555,10 +5066,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C83" s="13">
-        <v>706</v>
+        <v>1130</v>
       </c>
       <c r="D83" s="14">
         <v>45566</v>
@@ -4574,7 +5085,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="14"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="14"/>
+      <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
       <c r="S83" s="25"/>
@@ -4582,12 +5093,13 @@
       <c r="U83" s="12"/>
       <c r="V83" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
-      </c>
-      <c r="X83" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="X83" s="10"/>
       <c r="Y83" s="10"/>
+      <c r="AA83" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="84" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
@@ -4595,10 +5107,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C84" s="13">
-        <v>1130</v>
+        <v>2118</v>
       </c>
       <c r="D84" s="14">
         <v>45566</v>
@@ -4622,10 +5134,16 @@
       <c r="U84" s="12"/>
       <c r="V84" s="18">
         <f t="shared" si="2"/>
-        <v>1130</v>
+        <v>2118</v>
       </c>
       <c r="X84" s="10"/>
       <c r="Y84" s="10"/>
+      <c r="Z84" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="85" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
@@ -4633,10 +5151,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C85" s="13">
-        <v>2118</v>
+        <v>1130</v>
       </c>
       <c r="D85" s="14">
         <v>45566</v>
@@ -4652,7 +5170,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="14"/>
       <c r="O85" s="17"/>
-      <c r="P85" s="15"/>
+      <c r="P85" s="14"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
       <c r="S85" s="25"/>
@@ -4660,12 +5178,14 @@
       <c r="U85" s="12"/>
       <c r="V85" s="18">
         <f t="shared" si="2"/>
-        <v>2118</v>
-      </c>
-      <c r="X85" s="10"/>
+        <v>1130</v>
+      </c>
+      <c r="X85" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="Y85" s="10"/>
-      <c r="Z85" t="s">
-        <v>187</v>
+      <c r="AA85" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4674,10 +5194,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C86" s="13">
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="D86" s="14">
         <v>45566</v>
@@ -4701,12 +5221,13 @@
       <c r="U86" s="12"/>
       <c r="V86" s="18">
         <f t="shared" si="2"/>
-        <v>1130</v>
-      </c>
-      <c r="X86" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="X86" s="10"/>
       <c r="Y86" s="10"/>
+      <c r="AA86" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="87" spans="1:105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
@@ -4714,10 +5235,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="C87" s="13">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="D87" s="14">
         <v>45566</v>
@@ -4727,13 +5248,13 @@
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
-      <c r="J87" s="27"/>
+      <c r="J87" s="15"/>
       <c r="K87" s="16"/>
       <c r="L87" s="14"/>
       <c r="M87" s="16"/>
       <c r="N87" s="14"/>
       <c r="O87" s="17"/>
-      <c r="P87" s="14"/>
+      <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
       <c r="S87" s="25"/>
@@ -4741,10 +5262,13 @@
       <c r="U87" s="12"/>
       <c r="V87" s="18">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
+      <c r="AA87" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="88" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
@@ -4752,26 +5276,26 @@
         <v>86</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C88" s="13">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="D88" s="14">
         <v>45566</v>
       </c>
       <c r="E88" s="25"/>
-      <c r="F88" s="27"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
-      <c r="J88" s="15"/>
+      <c r="J88" s="27"/>
       <c r="K88" s="16"/>
       <c r="L88" s="14"/>
       <c r="M88" s="16"/>
       <c r="N88" s="14"/>
       <c r="O88" s="17"/>
-      <c r="P88" s="15"/>
+      <c r="P88" s="14"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="25"/>
@@ -4779,13 +5303,15 @@
       <c r="U88" s="12"/>
       <c r="V88" s="18">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="W88"/>
       <c r="X88" s="10"/>
       <c r="Y88" s="10"/>
       <c r="Z88"/>
-      <c r="AA88"/>
+      <c r="AA88" t="s">
+        <v>274</v>
+      </c>
       <c r="AB88"/>
       <c r="AC88"/>
       <c r="AD88"/>
@@ -4871,16 +5397,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C89" s="13">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="D89" s="14">
         <v>45566</v>
       </c>
       <c r="E89" s="25"/>
-      <c r="F89" s="16"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
@@ -4895,16 +5421,18 @@
       <c r="R89" s="15"/>
       <c r="S89" s="25"/>
       <c r="T89" s="14"/>
-      <c r="U89" s="12"/>
+      <c r="U89" s="24"/>
       <c r="V89" s="18">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="W89"/>
       <c r="X89" s="10"/>
       <c r="Y89" s="10"/>
       <c r="Z89"/>
-      <c r="AA89"/>
+      <c r="AA89" t="s">
+        <v>275</v>
+      </c>
       <c r="AB89"/>
       <c r="AC89"/>
       <c r="AD89"/>
@@ -4990,10 +5518,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C90" s="13">
-        <v>900</v>
+        <v>706</v>
       </c>
       <c r="D90" s="14">
         <v>45566</v>
@@ -5017,10 +5545,13 @@
       <c r="U90" s="24"/>
       <c r="V90" s="18">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>706</v>
       </c>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
+      <c r="AA90" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="91" spans="1:105" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
@@ -5028,16 +5559,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C91" s="13">
-        <v>706</v>
+        <v>350</v>
       </c>
       <c r="D91" s="14">
         <v>45566</v>
       </c>
       <c r="E91" s="25"/>
-      <c r="F91" s="27"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
@@ -5047,21 +5578,25 @@
       <c r="M91" s="16"/>
       <c r="N91" s="14"/>
       <c r="O91" s="17"/>
-      <c r="P91" s="14"/>
+      <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="25"/>
       <c r="T91" s="14"/>
-      <c r="U91" s="24"/>
+      <c r="U91" s="12"/>
       <c r="V91" s="18">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>350</v>
       </c>
       <c r="W91"/>
       <c r="X91" s="10"/>
       <c r="Y91" s="10"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
+      <c r="Z91" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>277</v>
+      </c>
       <c r="AB91"/>
       <c r="AC91"/>
       <c r="AD91"/>
@@ -5147,16 +5682,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C92" s="13">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="D92" s="14">
         <v>45566</v>
       </c>
       <c r="E92" s="25"/>
-      <c r="F92" s="16"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
@@ -5174,15 +5709,15 @@
       <c r="U92" s="12"/>
       <c r="V92" s="18">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="W92"/>
       <c r="X92" s="10"/>
       <c r="Y92" s="10"/>
-      <c r="Z92" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA92"/>
+      <c r="Z92"/>
+      <c r="AA92" t="s">
+        <v>278</v>
+      </c>
       <c r="AB92"/>
       <c r="AC92"/>
       <c r="AD92"/>
@@ -5268,10 +5803,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C93" s="13">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D93" s="14">
         <v>45566</v>
@@ -5295,13 +5830,17 @@
       <c r="U93" s="12"/>
       <c r="V93" s="18">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="W93"/>
       <c r="X93" s="10"/>
       <c r="Y93" s="10"/>
-      <c r="Z93"/>
-      <c r="AA93"/>
+      <c r="Z93" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>279</v>
+      </c>
       <c r="AB93"/>
       <c r="AC93"/>
       <c r="AD93"/>
@@ -5387,16 +5926,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C94" s="13">
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="D94" s="14">
         <v>45566</v>
       </c>
       <c r="E94" s="25"/>
-      <c r="F94" s="27"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
@@ -5414,15 +5953,15 @@
       <c r="U94" s="12"/>
       <c r="V94" s="18">
         <f t="shared" si="2"/>
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="W94"/>
       <c r="X94" s="10"/>
       <c r="Y94" s="10"/>
-      <c r="Z94" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA94"/>
+      <c r="Z94"/>
+      <c r="AA94" t="s">
+        <v>280</v>
+      </c>
       <c r="AB94"/>
       <c r="AC94"/>
       <c r="AD94"/>
@@ -5507,39 +6046,41 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="13">
-        <v>580</v>
-      </c>
-      <c r="D95" s="14">
-        <v>45566</v>
-      </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
+      <c r="B95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="19">
+        <f>SUM(C2:C94)</f>
+        <v>80601</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="14"/>
       <c r="I95" s="16"/>
       <c r="J95" s="27"/>
-      <c r="K95" s="16"/>
+      <c r="K95" s="21"/>
       <c r="L95" s="14"/>
       <c r="M95" s="16"/>
       <c r="N95" s="14"/>
-      <c r="O95" s="17"/>
+      <c r="O95" s="20"/>
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
-      <c r="S95" s="25"/>
+      <c r="S95" s="26">
+        <f>SUM(S2:S94)</f>
+        <v>-91</v>
+      </c>
       <c r="T95" s="14"/>
       <c r="U95" s="12"/>
       <c r="V95" s="18">
-        <f t="shared" si="2"/>
-        <v>580</v>
+        <f>C95+F95+H95+J95+P95+R95+S95+M95+E95</f>
+        <v>80510</v>
       </c>
       <c r="W95"/>
-      <c r="X95" s="10"/>
-      <c r="Y95" s="10"/>
+      <c r="X95"/>
+      <c r="Y95"/>
       <c r="Z95"/>
       <c r="AA95"/>
       <c r="AB95"/>
@@ -5623,38 +6164,7 @@
     </row>
     <row r="96" spans="1:105" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
-      <c r="B96" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="19">
-        <f>SUM(C2:C95)</f>
-        <v>81307</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="26">
-        <f>SUM(S2:S95)</f>
-        <v>-91</v>
-      </c>
-      <c r="T96" s="14"/>
-      <c r="U96" s="12"/>
-      <c r="V96" s="18">
-        <f>C96+F96+H96+J96+P96+R96+S96+M96+E96</f>
-        <v>81216</v>
-      </c>
+      <c r="K96" s="8"/>
     </row>
     <row r="97" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K97" s="8"/>
@@ -6088,48 +6598,27 @@
     <row r="240" spans="11:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K240" s="8"/>
     </row>
-    <row r="241" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K241" s="8"/>
     </row>
-    <row r="242" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K242" s="8"/>
     </row>
-    <row r="243" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K243" s="8"/>
     </row>
-    <row r="244" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K244" s="8"/>
     </row>
-    <row r="245" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K245" s="8"/>
     </row>
-    <row r="246" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246"/>
-      <c r="B246"/>
-      <c r="C246"/>
-      <c r="D246"/>
-      <c r="E246"/>
-      <c r="F246"/>
-      <c r="G246"/>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
-      <c r="K246" s="8"/>
-      <c r="L246"/>
-      <c r="M246"/>
-      <c r="N246"/>
-      <c r="O246"/>
-      <c r="P246"/>
-      <c r="Q246"/>
-      <c r="R246"/>
-      <c r="S246"/>
-      <c r="T246"/>
-      <c r="U246"/>
-      <c r="V246"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:U90">
-    <sortCondition ref="B2:B90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:U89">
+    <sortCondition ref="B2:B89"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\Projeto Honorarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B76827-53CE-4EB9-B987-C30CAE85A9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB36B64-424F-4EBF-970D-A90BC52934CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1495,9 +1495,9 @@
   </sheetPr>
   <dimension ref="A1:AA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\Projeto Honorarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB36B64-424F-4EBF-970D-A90BC52934CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BFADFD-C984-4C82-BDF9-B8D6B522B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="282">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>VERSATIL TELECOMUNICACOES LTDA</t>
+  </si>
+  <si>
+    <t>57.808.017/0001-97</t>
   </si>
 </sst>
 </file>
@@ -1495,9 +1501,9 @@
   </sheetPr>
   <dimension ref="A1:AA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B97"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA93" sqref="AA93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,7 +4449,7 @@
       <c r="T68" s="26"/>
       <c r="U68" s="24"/>
       <c r="V68" s="44">
-        <f t="shared" ref="V68:V94" si="5">C68+E68+G68+I68+K68+M68+O68+Q68+S68</f>
+        <f t="shared" ref="V68:V95" si="5">C68+E68+G68+I68+K68+M68+O68+Q68+S68</f>
         <v>280</v>
       </c>
       <c r="X68" s="31"/>
@@ -5430,16 +5436,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="C92" s="25">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="D92" s="26">
         <v>45566</v>
       </c>
       <c r="E92" s="25"/>
-      <c r="F92" s="27"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
@@ -5457,12 +5463,12 @@
       <c r="U92" s="24"/>
       <c r="V92" s="44">
         <f t="shared" si="5"/>
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="X92" s="31"/>
       <c r="Y92" s="31"/>
       <c r="AA92" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,10 +5477,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="25">
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="D93" s="26">
         <v>45566</v>
@@ -5498,15 +5504,12 @@
       <c r="U93" s="24"/>
       <c r="V93" s="44">
         <f t="shared" si="5"/>
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="X93" s="31"/>
       <c r="Y93" s="31"/>
-      <c r="Z93" t="s">
-        <v>172</v>
-      </c>
       <c r="AA93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5515,16 +5518,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C94" s="25">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D94" s="26">
         <v>45566</v>
       </c>
       <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
@@ -5542,12 +5545,15 @@
       <c r="U94" s="24"/>
       <c r="V94" s="44">
         <f t="shared" si="5"/>
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="X94" s="31"/>
       <c r="Y94" s="31"/>
+      <c r="Z94" t="s">
+        <v>172</v>
+      </c>
       <c r="AA94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5555,42 +5561,76 @@
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="B95" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="38">
-        <f>SUM(C2:C94)</f>
-        <v>80601</v>
-      </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="26"/>
+      <c r="B95" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="25">
+        <v>580</v>
+      </c>
+      <c r="D95" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="25"/>
       <c r="J95" s="27"/>
-      <c r="K95" s="30"/>
+      <c r="K95" s="25"/>
       <c r="L95" s="26"/>
       <c r="M95" s="25"/>
       <c r="N95" s="26"/>
-      <c r="O95" s="30"/>
+      <c r="O95" s="28"/>
       <c r="P95" s="29"/>
       <c r="Q95" s="29"/>
       <c r="R95" s="29"/>
-      <c r="S95" s="30">
-        <f>SUM(S2:S94)</f>
-        <v>-91</v>
-      </c>
+      <c r="S95" s="25"/>
       <c r="T95" s="26"/>
       <c r="U95" s="24"/>
       <c r="V95" s="44">
-        <f>C95+F95+H95+J95+P95+R95+S95+M95+E95</f>
-        <v>80510</v>
+        <f t="shared" si="5"/>
+        <v>580</v>
+      </c>
+      <c r="X95" s="31"/>
+      <c r="Y95" s="31"/>
+      <c r="AA95" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
-      <c r="K96" s="41"/>
+      <c r="B96" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" s="38">
+        <f>SUM(C2:C95)</f>
+        <v>81301</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="30">
+        <f>SUM(S2:S95)</f>
+        <v>-91</v>
+      </c>
+      <c r="T96" s="26"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="44">
+        <f>C96+F96+H96+J96+P96+R96+S96+M96+E96</f>
+        <v>81210</v>
+      </c>
     </row>
     <row r="97" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K97" s="41"/>
@@ -6039,7 +6079,9 @@
     <row r="245" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K245" s="41"/>
     </row>
-    <row r="246" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K246" s="41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\Projeto Honorarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hillebrande\Documents\Project\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BFADFD-C984-4C82-BDF9-B8D6B522B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8493672C-F0E1-450C-BBA8-D72BD012778B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="honorario" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1160,9 +1160,6 @@
     <xf numFmtId="17" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1193,6 +1190,13 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1502,16 +1506,16 @@
   <dimension ref="A1:AA246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA93" sqref="AA93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
@@ -1525,14 +1529,14 @@
     <col min="16" max="16" width="3" style="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="41" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="28" max="105" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1598,7 +1602,7 @@
       <c r="U1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="42" t="s">
         <v>167</v>
       </c>
       <c r="W1" s="22" t="s">
@@ -1613,7 +1617,7 @@
       <c r="Z1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="45" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1647,7 +1651,7 @@
       <c r="S2" s="25"/>
       <c r="T2" s="26"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="44">
+      <c r="V2" s="43">
         <f>C2+E2+G2+I2+K2+M2+O2+Q2+S2</f>
         <v>706</v>
       </c>
@@ -1684,12 +1688,12 @@
       <c r="S3" s="25"/>
       <c r="T3" s="26"/>
       <c r="U3" s="24"/>
-      <c r="V3" s="44">
+      <c r="V3" s="43">
         <v>2118</v>
       </c>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
-      <c r="AA3" t="s">
+      <c r="AA3" s="46" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1723,7 +1727,7 @@
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
       <c r="U4" s="24"/>
-      <c r="V4" s="44">
+      <c r="V4" s="43">
         <f t="shared" ref="V4:V35" si="0">C4+E4+G4+I4+K4+M4+O4+Q4+S4</f>
         <v>320</v>
       </c>
@@ -1732,7 +1736,7 @@
       <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="46" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1766,7 +1770,7 @@
       <c r="S5" s="25"/>
       <c r="T5" s="26"/>
       <c r="U5" s="24"/>
-      <c r="V5" s="44">
+      <c r="V5" s="43">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>172</v>
       </c>
       <c r="Y5" s="31"/>
-      <c r="AA5" t="s">
+      <c r="AA5" s="46" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1808,13 +1812,13 @@
       <c r="S6" s="25"/>
       <c r="T6" s="26"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="44">
+      <c r="V6" s="43">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
-      <c r="AA6" t="s">
+      <c r="AA6" s="46" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1848,7 +1852,7 @@
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="24"/>
-      <c r="V7" s="44">
+      <c r="V7" s="43">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -1857,7 +1861,7 @@
       <c r="Z7" t="s">
         <v>172</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="46" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1891,13 +1895,13 @@
       <c r="S8" s="25"/>
       <c r="T8" s="26"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="44">
+      <c r="V8" s="43">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
-      <c r="AA8" t="s">
+      <c r="AA8" s="46" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1931,7 +1935,7 @@
       <c r="S9" s="25"/>
       <c r="T9" s="26"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="44">
+      <c r="V9" s="43">
         <f t="shared" si="0"/>
         <v>1095</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>172</v>
       </c>
       <c r="Y9" s="31"/>
-      <c r="AA9" t="s">
+      <c r="AA9" s="46" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1974,7 +1978,7 @@
       <c r="S10" s="25"/>
       <c r="T10" s="26"/>
       <c r="U10" s="24"/>
-      <c r="V10" s="44">
+      <c r="V10" s="43">
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>172</v>
       </c>
       <c r="Y10" s="31"/>
-      <c r="AA10" t="s">
+      <c r="AA10" s="46" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2017,7 +2021,7 @@
       <c r="S11" s="25"/>
       <c r="T11" s="26"/>
       <c r="U11" s="24"/>
-      <c r="V11" s="44">
+      <c r="V11" s="43">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>172</v>
       </c>
       <c r="Y11" s="31"/>
-      <c r="AA11" t="s">
+      <c r="AA11" s="46" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2060,7 +2064,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="26"/>
       <c r="U12" s="24"/>
-      <c r="V12" s="44">
+      <c r="V12" s="43">
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
@@ -2069,7 +2073,7 @@
       <c r="Z12" t="s">
         <v>172</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="46" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2104,7 +2108,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="24"/>
-      <c r="V13" s="44">
+      <c r="V13" s="43">
         <f t="shared" si="0"/>
         <v>423</v>
       </c>
@@ -2113,7 +2117,7 @@
       <c r="Z13" t="s">
         <v>172</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="46" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2148,7 +2152,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="26"/>
       <c r="U14" s="24"/>
-      <c r="V14" s="44">
+      <c r="V14" s="43">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
@@ -2157,7 +2161,7 @@
       <c r="Z14" t="s">
         <v>172</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="46" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2196,7 +2200,7 @@
       <c r="U15" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="V15" s="44">
+      <c r="V15" s="43">
         <f t="shared" si="0"/>
         <v>1422</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>172</v>
       </c>
       <c r="Y15" s="31"/>
-      <c r="AA15" t="s">
+      <c r="AA15" s="46" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2242,7 +2246,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="26"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="44">
+      <c r="V16" s="43">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
@@ -2251,7 +2255,7 @@
       <c r="Z16" t="s">
         <v>172</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AA16" s="46" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2286,7 +2290,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="44">
+      <c r="V17" s="43">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -2295,7 +2299,7 @@
       <c r="Z17" t="s">
         <v>172</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="46" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2330,13 +2334,13 @@
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
       <c r="U18" s="24"/>
-      <c r="V18" s="44">
+      <c r="V18" s="43">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="X18" s="31"/>
       <c r="Y18" s="31"/>
-      <c r="AA18" t="s">
+      <c r="AA18" s="46" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2371,7 +2375,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="26"/>
       <c r="U19" s="24"/>
-      <c r="V19" s="44">
+      <c r="V19" s="43">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>172</v>
       </c>
       <c r="Y19" s="31"/>
-      <c r="AA19" t="s">
+      <c r="AA19" s="46" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2414,7 +2418,7 @@
       <c r="S20" s="25"/>
       <c r="T20" s="26"/>
       <c r="U20" s="24"/>
-      <c r="V20" s="44">
+      <c r="V20" s="43">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>172</v>
       </c>
       <c r="Y20" s="31"/>
-      <c r="AA20" t="s">
+      <c r="AA20" s="46" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2457,13 +2461,13 @@
       <c r="S21" s="25"/>
       <c r="T21" s="33"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="44">
+      <c r="V21" s="43">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
-      <c r="AA21" t="s">
+      <c r="AA21" s="46" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2497,13 +2501,13 @@
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
       <c r="U22" s="24"/>
-      <c r="V22" s="44">
+      <c r="V22" s="43">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
-      <c r="AA22" t="s">
+      <c r="AA22" s="46" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2538,7 +2542,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="29"/>
       <c r="U23" s="24"/>
-      <c r="V23" s="44">
+      <c r="V23" s="43">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
@@ -2546,7 +2550,7 @@
       <c r="Y23" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="46" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2581,7 +2585,7 @@
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
       <c r="U24" s="24"/>
-      <c r="V24" s="44">
+      <c r="V24" s="43">
         <f t="shared" si="0"/>
         <v>2118</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>172</v>
       </c>
       <c r="Y24" s="31"/>
-      <c r="AA24" t="s">
+      <c r="AA24" s="46" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2624,13 +2628,13 @@
       <c r="S25" s="25"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="44">
+      <c r="V25" s="43">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
-      <c r="AA25" t="s">
+      <c r="AA25" s="46" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2665,7 +2669,7 @@
       <c r="S26" s="25"/>
       <c r="T26" s="26"/>
       <c r="U26" s="24"/>
-      <c r="V26" s="44">
+      <c r="V26" s="43">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
@@ -2706,7 +2710,7 @@
       <c r="S27" s="25"/>
       <c r="T27" s="26"/>
       <c r="U27" s="24"/>
-      <c r="V27" s="44">
+      <c r="V27" s="43">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>172</v>
       </c>
       <c r="Y27" s="31"/>
-      <c r="AA27" t="s">
+      <c r="AA27" s="46" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2749,13 +2753,13 @@
       <c r="S28" s="25"/>
       <c r="T28" s="26"/>
       <c r="U28" s="24"/>
-      <c r="V28" s="44">
+      <c r="V28" s="43">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
-      <c r="AA28" t="s">
+      <c r="AA28" s="46" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2790,13 +2794,13 @@
       <c r="S29" s="25"/>
       <c r="T29" s="26"/>
       <c r="U29" s="24"/>
-      <c r="V29" s="44">
+      <c r="V29" s="43">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
-      <c r="AA29" t="s">
+      <c r="AA29" s="46" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2831,13 +2835,13 @@
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
       <c r="U30" s="24"/>
-      <c r="V30" s="44">
+      <c r="V30" s="43">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
-      <c r="AA30" t="s">
+      <c r="AA30" s="46" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2872,7 +2876,7 @@
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
       <c r="U31" s="24"/>
-      <c r="V31" s="44">
+      <c r="V31" s="43">
         <f t="shared" si="0"/>
         <v>2118</v>
       </c>
@@ -2881,7 +2885,7 @@
       <c r="Z31" t="s">
         <v>172</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA31" s="46" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2916,7 +2920,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="44">
+      <c r="V32" s="43">
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
@@ -2925,7 +2929,7 @@
       <c r="Z32" t="s">
         <v>172</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AA32" s="46" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2960,13 +2964,13 @@
       <c r="S33" s="25"/>
       <c r="T33" s="26"/>
       <c r="U33" s="24"/>
-      <c r="V33" s="44">
+      <c r="V33" s="43">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
-      <c r="AA33" t="s">
+      <c r="AA33" s="46" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3001,13 +3005,13 @@
       <c r="S34" s="25"/>
       <c r="T34" s="26"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="44">
+      <c r="V34" s="43">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
-      <c r="AA34" t="s">
+      <c r="AA34" s="46" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3042,13 +3046,13 @@
       <c r="S35" s="25"/>
       <c r="T35" s="26"/>
       <c r="U35" s="24"/>
-      <c r="V35" s="44">
+      <c r="V35" s="43">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
-      <c r="AA35" s="34" t="s">
+      <c r="AA35" s="47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3083,7 +3087,7 @@
       <c r="S36" s="25"/>
       <c r="T36" s="26"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="44">
+      <c r="V36" s="43">
         <f t="shared" ref="V36:V67" si="3">C36+E36+G36+I36+K36+M36+O36+Q36+S36</f>
         <v>1412</v>
       </c>
@@ -3092,7 +3096,7 @@
       <c r="Z36" t="s">
         <v>172</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AA36" s="46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3127,7 +3131,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="26"/>
       <c r="U37" s="24"/>
-      <c r="V37" s="44">
+      <c r="V37" s="43">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
@@ -3136,7 +3140,7 @@
       <c r="Z37" t="s">
         <v>172</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AA37" s="46" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3171,13 +3175,13 @@
       <c r="S38" s="25"/>
       <c r="T38" s="26"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="44">
+      <c r="V38" s="43">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
-      <c r="AA38" t="s">
+      <c r="AA38" s="46" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3216,7 +3220,7 @@
       <c r="U39" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V39" s="44">
+      <c r="V39" s="43">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>172</v>
       </c>
       <c r="Y39" s="31"/>
-      <c r="AA39" t="s">
+      <c r="AA39" s="46" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3233,7 +3237,7 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>219</v>
       </c>
       <c r="C40" s="25">
@@ -3259,13 +3263,13 @@
       <c r="S40" s="25"/>
       <c r="T40" s="26"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="44">
+      <c r="V40" s="43">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
-      <c r="AA40" t="s">
+      <c r="AA40" s="46" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3300,13 +3304,13 @@
       <c r="S41" s="25"/>
       <c r="T41" s="26"/>
       <c r="U41" s="24"/>
-      <c r="V41" s="44">
+      <c r="V41" s="43">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
-      <c r="AA41" t="s">
+      <c r="AA41" s="46" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3345,7 +3349,7 @@
       <c r="U42" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="V42" s="44">
+      <c r="V42" s="43">
         <f t="shared" si="3"/>
         <v>2964</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>172</v>
       </c>
       <c r="Y42" s="31"/>
-      <c r="AA42" t="s">
+      <c r="AA42" s="46" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3362,7 +3366,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="25">
@@ -3388,13 +3392,13 @@
       <c r="S43" s="25"/>
       <c r="T43" s="26"/>
       <c r="U43" s="24"/>
-      <c r="V43" s="44">
+      <c r="V43" s="43">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
-      <c r="AA43" t="s">
+      <c r="AA43" s="46" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3429,13 +3433,13 @@
       <c r="S44" s="25"/>
       <c r="T44" s="27"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="44">
+      <c r="V44" s="43">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X44" s="31"/>
       <c r="Y44" s="31"/>
-      <c r="AA44" t="s">
+      <c r="AA44" s="46" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3474,13 +3478,13 @@
       <c r="U45" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="V45" s="44">
+      <c r="V45" s="43">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="X45" s="31"/>
       <c r="Y45" s="31"/>
-      <c r="AA45" t="s">
+      <c r="AA45" s="46" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3515,7 +3519,7 @@
       <c r="S46" s="25"/>
       <c r="T46" s="26"/>
       <c r="U46" s="24"/>
-      <c r="V46" s="44">
+      <c r="V46" s="43">
         <f t="shared" si="3"/>
         <v>2118</v>
       </c>
@@ -3524,7 +3528,7 @@
       <c r="Z46" t="s">
         <v>172</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AA46" s="46" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3559,7 +3563,7 @@
       <c r="S47" s="25"/>
       <c r="T47" s="26"/>
       <c r="U47" s="24"/>
-      <c r="V47" s="44">
+      <c r="V47" s="43">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
@@ -3599,7 +3603,7 @@
       <c r="S48" s="25"/>
       <c r="T48" s="26"/>
       <c r="U48" s="24"/>
-      <c r="V48" s="44">
+      <c r="V48" s="43">
         <f t="shared" si="3"/>
         <v>1412</v>
       </c>
@@ -3607,7 +3611,7 @@
         <v>172</v>
       </c>
       <c r="Y48" s="31"/>
-      <c r="AA48" t="s">
+      <c r="AA48" s="46" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3642,13 +3646,13 @@
       <c r="S49" s="25"/>
       <c r="T49" s="26"/>
       <c r="U49" s="24"/>
-      <c r="V49" s="44">
+      <c r="V49" s="43">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
-      <c r="AA49" t="s">
+      <c r="AA49" s="46" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3683,13 +3687,13 @@
       <c r="S50" s="25"/>
       <c r="T50" s="26"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="44">
+      <c r="V50" s="43">
         <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
-      <c r="AA50" t="s">
+      <c r="AA50" s="46" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3724,7 +3728,7 @@
       <c r="S51" s="25"/>
       <c r="T51" s="26"/>
       <c r="U51" s="24"/>
-      <c r="V51" s="44">
+      <c r="V51" s="43">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
@@ -3764,13 +3768,13 @@
       <c r="S52" s="25"/>
       <c r="T52" s="26"/>
       <c r="U52" s="24"/>
-      <c r="V52" s="44">
+      <c r="V52" s="43">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
       <c r="X52" s="31"/>
       <c r="Y52" s="31"/>
-      <c r="AA52" t="s">
+      <c r="AA52" s="46" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3809,7 +3813,7 @@
       <c r="U53" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="V53" s="44">
+      <c r="V53" s="43">
         <f t="shared" si="3"/>
         <v>1422</v>
       </c>
@@ -3817,7 +3821,7 @@
         <v>172</v>
       </c>
       <c r="Y53" s="31"/>
-      <c r="AA53" t="s">
+      <c r="AA53" s="46" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3852,13 +3856,13 @@
       <c r="S54" s="25"/>
       <c r="T54" s="26"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="44">
+      <c r="V54" s="43">
         <f t="shared" si="3"/>
         <v>1130</v>
       </c>
       <c r="X54" s="31"/>
       <c r="Y54" s="31"/>
-      <c r="AA54" t="s">
+      <c r="AA54" s="46" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3893,7 +3897,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="26"/>
       <c r="U55" s="24"/>
-      <c r="V55" s="44">
+      <c r="V55" s="43">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>172</v>
       </c>
       <c r="Y55" s="31"/>
-      <c r="AA55" t="s">
+      <c r="AA55" s="46" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3936,7 +3940,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="26"/>
       <c r="U56" s="24"/>
-      <c r="V56" s="44">
+      <c r="V56" s="43">
         <f t="shared" si="3"/>
         <v>2118</v>
       </c>
@@ -3945,7 +3949,7 @@
       <c r="Z56" t="s">
         <v>172</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AA56" s="46" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3980,7 +3984,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="26"/>
       <c r="U57" s="24"/>
-      <c r="V57" s="44">
+      <c r="V57" s="43">
         <f t="shared" si="3"/>
         <v>1412</v>
       </c>
@@ -3988,7 +3992,7 @@
       <c r="Y57" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AA57" s="46" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4023,7 +4027,7 @@
       <c r="S58" s="25"/>
       <c r="T58" s="26"/>
       <c r="U58" s="24"/>
-      <c r="V58" s="44">
+      <c r="V58" s="43">
         <f t="shared" si="3"/>
         <v>1412</v>
       </c>
@@ -4031,7 +4035,7 @@
       <c r="Y58" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AA58" s="46" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4066,13 +4070,13 @@
       <c r="S59" s="25"/>
       <c r="T59" s="26"/>
       <c r="U59" s="24"/>
-      <c r="V59" s="44">
+      <c r="V59" s="43">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
-      <c r="AA59" t="s">
+      <c r="AA59" s="46" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4107,13 +4111,13 @@
       <c r="S60" s="25"/>
       <c r="T60" s="26"/>
       <c r="U60" s="24"/>
-      <c r="V60" s="44">
+      <c r="V60" s="43">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="X60" s="31"/>
       <c r="Y60" s="31"/>
-      <c r="AA60" t="s">
+      <c r="AA60" s="46" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4148,7 +4152,7 @@
       <c r="S61" s="25"/>
       <c r="T61" s="26"/>
       <c r="U61" s="24"/>
-      <c r="V61" s="44">
+      <c r="V61" s="43">
         <f t="shared" si="3"/>
         <v>890</v>
       </c>
@@ -4189,7 +4193,7 @@
       <c r="S62" s="25"/>
       <c r="T62" s="27"/>
       <c r="U62" s="24"/>
-      <c r="V62" s="44">
+      <c r="V62" s="43">
         <f t="shared" si="3"/>
         <v>2824</v>
       </c>
@@ -4198,7 +4202,7 @@
       <c r="Z62" t="s">
         <v>172</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AA62" s="46" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4233,7 +4237,7 @@
       <c r="S63" s="25"/>
       <c r="T63" s="26"/>
       <c r="U63" s="24"/>
-      <c r="V63" s="44">
+      <c r="V63" s="43">
         <f t="shared" si="3"/>
         <v>529</v>
       </c>
@@ -4242,7 +4246,7 @@
       <c r="Z63" t="s">
         <v>172</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AA63" s="46" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4277,7 +4281,7 @@
       <c r="S64" s="25"/>
       <c r="T64" s="26"/>
       <c r="U64" s="24"/>
-      <c r="V64" s="44">
+      <c r="V64" s="43">
         <f t="shared" si="3"/>
         <v>4236</v>
       </c>
@@ -4286,7 +4290,7 @@
       <c r="Z64" t="s">
         <v>172</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AA64" s="46" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4321,13 +4325,13 @@
       <c r="S65" s="25"/>
       <c r="T65" s="26"/>
       <c r="U65" s="24"/>
-      <c r="V65" s="44">
+      <c r="V65" s="43">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
-      <c r="AA65" t="s">
+      <c r="AA65" s="46" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4366,13 +4370,13 @@
       <c r="U66" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="V66" s="44">
+      <c r="V66" s="43">
         <f t="shared" si="3"/>
         <v>1492</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
-      <c r="AA66" t="s">
+      <c r="AA66" s="46" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4407,13 +4411,13 @@
       <c r="S67" s="25"/>
       <c r="T67" s="26"/>
       <c r="U67" s="24"/>
-      <c r="V67" s="44">
+      <c r="V67" s="43">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
-      <c r="AA67" t="s">
+      <c r="AA67" s="46" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4448,7 +4452,7 @@
       <c r="S68" s="25"/>
       <c r="T68" s="26"/>
       <c r="U68" s="24"/>
-      <c r="V68" s="44">
+      <c r="V68" s="43">
         <f t="shared" ref="V68:V95" si="5">C68+E68+G68+I68+K68+M68+O68+Q68+S68</f>
         <v>280</v>
       </c>
@@ -4457,7 +4461,7 @@
       <c r="Z68" t="s">
         <v>172</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AA68" s="46" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4492,13 +4496,13 @@
       <c r="S69" s="25"/>
       <c r="T69" s="26"/>
       <c r="U69" s="24"/>
-      <c r="V69" s="44">
+      <c r="V69" s="43">
         <f t="shared" si="5"/>
         <v>353</v>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
-      <c r="AA69" t="s">
+      <c r="AA69" s="46" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4533,7 +4537,7 @@
       <c r="S70" s="25"/>
       <c r="T70" s="26"/>
       <c r="U70" s="24"/>
-      <c r="V70" s="44">
+      <c r="V70" s="43">
         <f t="shared" si="5"/>
         <v>706</v>
       </c>
@@ -4542,7 +4546,7 @@
       <c r="Z70" t="s">
         <v>172</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AA70" s="46" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4577,13 +4581,13 @@
       <c r="S71" s="25"/>
       <c r="T71" s="26"/>
       <c r="U71" s="24"/>
-      <c r="V71" s="44">
+      <c r="V71" s="43">
         <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
-      <c r="AA71" t="s">
+      <c r="AA71" s="46" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4618,13 +4622,13 @@
       <c r="S72" s="25"/>
       <c r="T72" s="26"/>
       <c r="U72" s="24"/>
-      <c r="V72" s="44">
+      <c r="V72" s="43">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
-      <c r="AA72" t="s">
+      <c r="AA72" s="46" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4659,13 +4663,13 @@
       <c r="S73" s="25"/>
       <c r="T73" s="26"/>
       <c r="U73" s="24"/>
-      <c r="V73" s="44">
+      <c r="V73" s="43">
         <f t="shared" si="5"/>
         <v>926</v>
       </c>
       <c r="X73" s="31"/>
       <c r="Y73" s="31"/>
-      <c r="AA73" t="s">
+      <c r="AA73" s="46" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4700,13 +4704,13 @@
       <c r="S74" s="25"/>
       <c r="T74" s="26"/>
       <c r="U74" s="24"/>
-      <c r="V74" s="44">
+      <c r="V74" s="43">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="X74" s="31"/>
       <c r="Y74" s="31"/>
-      <c r="AA74" t="s">
+      <c r="AA74" s="46" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4741,7 +4745,7 @@
       <c r="S75" s="25"/>
       <c r="T75" s="26"/>
       <c r="U75" s="24"/>
-      <c r="V75" s="44">
+      <c r="V75" s="43">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>172</v>
       </c>
       <c r="Y75" s="31"/>
-      <c r="AA75" t="s">
+      <c r="AA75" s="46" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4784,7 +4788,7 @@
       <c r="S76" s="25"/>
       <c r="T76" s="26"/>
       <c r="U76" s="24"/>
-      <c r="V76" s="44">
+      <c r="V76" s="43">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>172</v>
       </c>
       <c r="Y76" s="31"/>
-      <c r="AA76" t="s">
+      <c r="AA76" s="46" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4827,7 +4831,7 @@
       <c r="S77" s="25"/>
       <c r="T77" s="26"/>
       <c r="U77" s="24"/>
-      <c r="V77" s="44">
+      <c r="V77" s="43">
         <f t="shared" si="5"/>
         <v>390</v>
       </c>
@@ -4836,7 +4840,7 @@
       <c r="Z77" t="s">
         <v>172</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AA77" s="46" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4871,13 +4875,13 @@
       <c r="S78" s="25"/>
       <c r="T78" s="26"/>
       <c r="U78" s="24"/>
-      <c r="V78" s="44">
+      <c r="V78" s="43">
         <f t="shared" si="5"/>
         <v>706</v>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
-      <c r="AA78" t="s">
+      <c r="AA78" s="46" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4912,7 +4916,7 @@
       <c r="S79" s="25"/>
       <c r="T79" s="26"/>
       <c r="U79" s="24"/>
-      <c r="V79" s="44">
+      <c r="V79" s="43">
         <f t="shared" si="5"/>
         <v>706</v>
       </c>
@@ -4921,7 +4925,7 @@
       <c r="Z79" t="s">
         <v>172</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AA79" s="46" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4956,7 +4960,7 @@
       <c r="S80" s="25"/>
       <c r="T80" s="26"/>
       <c r="U80" s="24"/>
-      <c r="V80" s="44">
+      <c r="V80" s="43">
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
@@ -4965,7 +4969,7 @@
       <c r="Z80" t="s">
         <v>172</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AA80" s="46" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5000,13 +5004,13 @@
       <c r="S81" s="25"/>
       <c r="T81" s="26"/>
       <c r="U81" s="24"/>
-      <c r="V81" s="44">
+      <c r="V81" s="43">
         <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="X81" s="31"/>
       <c r="Y81" s="31"/>
-      <c r="AA81" t="s">
+      <c r="AA81" s="46" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5041,7 +5045,7 @@
       <c r="S82" s="25"/>
       <c r="T82" s="26"/>
       <c r="U82" s="24"/>
-      <c r="V82" s="44">
+      <c r="V82" s="43">
         <f t="shared" si="5"/>
         <v>706</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>172</v>
       </c>
       <c r="Y82" s="31"/>
-      <c r="AA82" t="s">
+      <c r="AA82" s="46" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5084,13 +5088,13 @@
       <c r="S83" s="25"/>
       <c r="T83" s="26"/>
       <c r="U83" s="24"/>
-      <c r="V83" s="44">
+      <c r="V83" s="43">
         <f t="shared" si="5"/>
         <v>1130</v>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
-      <c r="AA83" t="s">
+      <c r="AA83" s="46" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5125,7 +5129,7 @@
       <c r="S84" s="25"/>
       <c r="T84" s="26"/>
       <c r="U84" s="24"/>
-      <c r="V84" s="44">
+      <c r="V84" s="43">
         <f t="shared" si="5"/>
         <v>2118</v>
       </c>
@@ -5134,7 +5138,7 @@
       <c r="Z84" t="s">
         <v>172</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AA84" s="46" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5169,7 +5173,7 @@
       <c r="S85" s="25"/>
       <c r="T85" s="26"/>
       <c r="U85" s="24"/>
-      <c r="V85" s="44">
+      <c r="V85" s="43">
         <f t="shared" si="5"/>
         <v>1130</v>
       </c>
@@ -5177,7 +5181,7 @@
         <v>172</v>
       </c>
       <c r="Y85" s="31"/>
-      <c r="AA85" t="s">
+      <c r="AA85" s="46" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5212,13 +5216,13 @@
       <c r="S86" s="25"/>
       <c r="T86" s="26"/>
       <c r="U86" s="24"/>
-      <c r="V86" s="44">
+      <c r="V86" s="43">
         <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="X86" s="31"/>
       <c r="Y86" s="31"/>
-      <c r="AA86" t="s">
+      <c r="AA86" s="46" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5253,13 +5257,13 @@
       <c r="S87" s="25"/>
       <c r="T87" s="26"/>
       <c r="U87" s="24"/>
-      <c r="V87" s="44">
+      <c r="V87" s="43">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="X87" s="31"/>
       <c r="Y87" s="31"/>
-      <c r="AA87" t="s">
+      <c r="AA87" s="46" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5294,13 +5298,13 @@
       <c r="S88" s="25"/>
       <c r="T88" s="26"/>
       <c r="U88" s="24"/>
-      <c r="V88" s="44">
+      <c r="V88" s="43">
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="X88" s="31"/>
       <c r="Y88" s="31"/>
-      <c r="AA88" t="s">
+      <c r="AA88" s="46" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5335,13 +5339,13 @@
       <c r="S89" s="25"/>
       <c r="T89" s="26"/>
       <c r="U89" s="24"/>
-      <c r="V89" s="44">
+      <c r="V89" s="43">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="X89" s="31"/>
       <c r="Y89" s="31"/>
-      <c r="AA89" t="s">
+      <c r="AA89" s="46" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5376,13 +5380,13 @@
       <c r="S90" s="25"/>
       <c r="T90" s="26"/>
       <c r="U90" s="24"/>
-      <c r="V90" s="44">
+      <c r="V90" s="43">
         <f t="shared" si="5"/>
         <v>706</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
-      <c r="AA90" t="s">
+      <c r="AA90" s="46" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5417,7 +5421,7 @@
       <c r="S91" s="25"/>
       <c r="T91" s="26"/>
       <c r="U91" s="24"/>
-      <c r="V91" s="44">
+      <c r="V91" s="43">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
@@ -5426,7 +5430,7 @@
       <c r="Z91" t="s">
         <v>172</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="AA91" s="46" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5461,13 +5465,13 @@
       <c r="S92" s="25"/>
       <c r="T92" s="26"/>
       <c r="U92" s="24"/>
-      <c r="V92" s="44">
+      <c r="V92" s="43">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
       <c r="X92" s="31"/>
       <c r="Y92" s="31"/>
-      <c r="AA92" t="s">
+      <c r="AA92" s="46" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5502,13 +5506,13 @@
       <c r="S93" s="25"/>
       <c r="T93" s="26"/>
       <c r="U93" s="24"/>
-      <c r="V93" s="44">
+      <c r="V93" s="43">
         <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="X93" s="31"/>
       <c r="Y93" s="31"/>
-      <c r="AA93" t="s">
+      <c r="AA93" s="46" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5543,7 +5547,7 @@
       <c r="S94" s="25"/>
       <c r="T94" s="26"/>
       <c r="U94" s="24"/>
-      <c r="V94" s="44">
+      <c r="V94" s="43">
         <f t="shared" si="5"/>
         <v>1130</v>
       </c>
@@ -5552,7 +5556,7 @@
       <c r="Z94" t="s">
         <v>172</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AA94" s="46" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5587,22 +5591,22 @@
       <c r="S95" s="25"/>
       <c r="T95" s="26"/>
       <c r="U95" s="24"/>
-      <c r="V95" s="44">
+      <c r="V95" s="43">
         <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="X95" s="31"/>
       <c r="Y95" s="31"/>
-      <c r="AA95" t="s">
+      <c r="AA95" s="46" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="C96" s="38">
+      <c r="C96" s="37">
         <f>SUM(C2:C95)</f>
         <v>81301</v>
       </c>
@@ -5627,460 +5631,460 @@
       </c>
       <c r="T96" s="26"/>
       <c r="U96" s="24"/>
-      <c r="V96" s="44">
+      <c r="V96" s="43">
         <f>C96+F96+H96+J96+P96+R96+S96+M96+E96</f>
         <v>81210</v>
       </c>
     </row>
     <row r="97" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K97" s="41"/>
+      <c r="K97" s="40"/>
     </row>
     <row r="98" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K98" s="41"/>
+      <c r="K98" s="40"/>
     </row>
     <row r="99" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K99" s="41"/>
+      <c r="K99" s="40"/>
     </row>
     <row r="100" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K100" s="41"/>
+      <c r="K100" s="40"/>
     </row>
     <row r="101" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K101" s="41"/>
+      <c r="K101" s="40"/>
     </row>
     <row r="102" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K102" s="41"/>
+      <c r="K102" s="40"/>
     </row>
     <row r="103" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K103" s="41"/>
+      <c r="K103" s="40"/>
     </row>
     <row r="104" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K104" s="41"/>
+      <c r="K104" s="40"/>
     </row>
     <row r="105" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K105" s="41"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K106" s="41"/>
+      <c r="K106" s="40"/>
     </row>
     <row r="107" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K107" s="41"/>
+      <c r="K107" s="40"/>
     </row>
     <row r="108" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K108" s="41"/>
+      <c r="K108" s="40"/>
     </row>
     <row r="109" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K109" s="41"/>
+      <c r="K109" s="40"/>
     </row>
     <row r="110" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K110" s="41"/>
+      <c r="K110" s="40"/>
     </row>
     <row r="111" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K111" s="41"/>
+      <c r="K111" s="40"/>
     </row>
     <row r="112" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K112" s="41"/>
+      <c r="K112" s="40"/>
     </row>
     <row r="113" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K113" s="41"/>
+      <c r="K113" s="40"/>
     </row>
     <row r="114" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K114" s="41"/>
+      <c r="K114" s="40"/>
     </row>
     <row r="115" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K115" s="41"/>
+      <c r="K115" s="40"/>
     </row>
     <row r="116" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K116" s="41"/>
+      <c r="K116" s="40"/>
     </row>
     <row r="117" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K117" s="41"/>
+      <c r="K117" s="40"/>
     </row>
     <row r="118" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K118" s="41"/>
+      <c r="K118" s="40"/>
     </row>
     <row r="119" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K119" s="41"/>
+      <c r="K119" s="40"/>
     </row>
     <row r="120" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K120" s="41"/>
+      <c r="K120" s="40"/>
     </row>
     <row r="121" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K121" s="41"/>
+      <c r="K121" s="40"/>
     </row>
     <row r="122" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K122" s="41"/>
+      <c r="K122" s="40"/>
     </row>
     <row r="123" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K123" s="41"/>
+      <c r="K123" s="40"/>
     </row>
     <row r="124" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K124" s="41"/>
+      <c r="K124" s="40"/>
     </row>
     <row r="125" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K125" s="41"/>
+      <c r="K125" s="40"/>
     </row>
     <row r="126" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K126" s="41"/>
+      <c r="K126" s="40"/>
     </row>
     <row r="127" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K127" s="41"/>
+      <c r="K127" s="40"/>
     </row>
     <row r="128" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K128" s="41"/>
+      <c r="K128" s="40"/>
     </row>
     <row r="129" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K129" s="41"/>
+      <c r="K129" s="40"/>
     </row>
     <row r="130" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K130" s="41"/>
+      <c r="K130" s="40"/>
     </row>
     <row r="131" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K131" s="41"/>
+      <c r="K131" s="40"/>
     </row>
     <row r="132" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K132" s="41"/>
+      <c r="K132" s="40"/>
     </row>
     <row r="133" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K133" s="41"/>
+      <c r="K133" s="40"/>
     </row>
     <row r="134" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K134" s="41"/>
+      <c r="K134" s="40"/>
     </row>
     <row r="135" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K135" s="41"/>
+      <c r="K135" s="40"/>
     </row>
     <row r="136" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K136" s="41"/>
+      <c r="K136" s="40"/>
     </row>
     <row r="137" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K137" s="41"/>
+      <c r="K137" s="40"/>
     </row>
     <row r="138" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K138" s="41"/>
+      <c r="K138" s="40"/>
     </row>
     <row r="139" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K139" s="41"/>
+      <c r="K139" s="40"/>
     </row>
     <row r="140" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K140" s="41"/>
+      <c r="K140" s="40"/>
     </row>
     <row r="141" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K141" s="41"/>
+      <c r="K141" s="40"/>
     </row>
     <row r="142" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K142" s="41"/>
+      <c r="K142" s="40"/>
     </row>
     <row r="143" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K143" s="41"/>
+      <c r="K143" s="40"/>
     </row>
     <row r="144" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K144" s="41"/>
+      <c r="K144" s="40"/>
     </row>
     <row r="145" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K145" s="41"/>
+      <c r="K145" s="40"/>
     </row>
     <row r="146" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K146" s="41"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K147" s="41"/>
+      <c r="K147" s="40"/>
     </row>
     <row r="148" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K148" s="41"/>
+      <c r="K148" s="40"/>
     </row>
     <row r="149" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K149" s="41"/>
+      <c r="K149" s="40"/>
     </row>
     <row r="150" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K150" s="41"/>
+      <c r="K150" s="40"/>
     </row>
     <row r="151" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K151" s="41"/>
+      <c r="K151" s="40"/>
     </row>
     <row r="152" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K152" s="41"/>
+      <c r="K152" s="40"/>
     </row>
     <row r="153" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K153" s="41"/>
+      <c r="K153" s="40"/>
     </row>
     <row r="154" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K154" s="41"/>
+      <c r="K154" s="40"/>
     </row>
     <row r="155" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K155" s="41"/>
+      <c r="K155" s="40"/>
     </row>
     <row r="156" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K156" s="41"/>
+      <c r="K156" s="40"/>
     </row>
     <row r="157" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K157" s="41"/>
+      <c r="K157" s="40"/>
     </row>
     <row r="158" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K158" s="41"/>
+      <c r="K158" s="40"/>
     </row>
     <row r="159" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K159" s="41"/>
+      <c r="K159" s="40"/>
     </row>
     <row r="160" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K160" s="41"/>
+      <c r="K160" s="40"/>
     </row>
     <row r="161" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K161" s="41"/>
+      <c r="K161" s="40"/>
     </row>
     <row r="162" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K162" s="41"/>
+      <c r="K162" s="40"/>
     </row>
     <row r="163" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K163" s="41"/>
+      <c r="K163" s="40"/>
     </row>
     <row r="164" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K164" s="41"/>
+      <c r="K164" s="40"/>
     </row>
     <row r="165" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K165" s="41"/>
+      <c r="K165" s="40"/>
     </row>
     <row r="166" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K166" s="41"/>
+      <c r="K166" s="40"/>
     </row>
     <row r="167" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K167" s="41"/>
+      <c r="K167" s="40"/>
     </row>
     <row r="168" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K168" s="41"/>
+      <c r="K168" s="40"/>
     </row>
     <row r="169" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K169" s="41"/>
+      <c r="K169" s="40"/>
     </row>
     <row r="170" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K170" s="41"/>
+      <c r="K170" s="40"/>
     </row>
     <row r="171" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K171" s="41"/>
+      <c r="K171" s="40"/>
     </row>
     <row r="172" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K172" s="41"/>
+      <c r="K172" s="40"/>
     </row>
     <row r="173" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K173" s="41"/>
+      <c r="K173" s="40"/>
     </row>
     <row r="174" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K174" s="41"/>
+      <c r="K174" s="40"/>
     </row>
     <row r="175" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K175" s="41"/>
+      <c r="K175" s="40"/>
     </row>
     <row r="176" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K176" s="41"/>
+      <c r="K176" s="40"/>
     </row>
     <row r="177" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K177" s="41"/>
+      <c r="K177" s="40"/>
     </row>
     <row r="178" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K178" s="41"/>
+      <c r="K178" s="40"/>
     </row>
     <row r="179" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K179" s="41"/>
+      <c r="K179" s="40"/>
     </row>
     <row r="180" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K180" s="41"/>
+      <c r="K180" s="40"/>
     </row>
     <row r="181" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K181" s="41"/>
+      <c r="K181" s="40"/>
     </row>
     <row r="182" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K182" s="41"/>
+      <c r="K182" s="40"/>
     </row>
     <row r="183" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K183" s="41"/>
+      <c r="K183" s="40"/>
     </row>
     <row r="184" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K184" s="41"/>
+      <c r="K184" s="40"/>
     </row>
     <row r="185" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K185" s="41"/>
+      <c r="K185" s="40"/>
     </row>
     <row r="186" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K186" s="41"/>
+      <c r="K186" s="40"/>
     </row>
     <row r="187" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K187" s="41"/>
+      <c r="K187" s="40"/>
     </row>
     <row r="188" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K188" s="41"/>
+      <c r="K188" s="40"/>
     </row>
     <row r="189" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K189" s="41"/>
+      <c r="K189" s="40"/>
     </row>
     <row r="190" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K190" s="41"/>
+      <c r="K190" s="40"/>
     </row>
     <row r="191" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K191" s="41"/>
+      <c r="K191" s="40"/>
     </row>
     <row r="192" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K192" s="41"/>
+      <c r="K192" s="40"/>
     </row>
     <row r="193" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K193" s="41"/>
+      <c r="K193" s="40"/>
     </row>
     <row r="194" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K194" s="41"/>
+      <c r="K194" s="40"/>
     </row>
     <row r="195" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K195" s="41"/>
+      <c r="K195" s="40"/>
     </row>
     <row r="196" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K196" s="41"/>
+      <c r="K196" s="40"/>
     </row>
     <row r="197" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K197" s="41"/>
+      <c r="K197" s="40"/>
     </row>
     <row r="198" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K198" s="41"/>
+      <c r="K198" s="40"/>
     </row>
     <row r="199" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K199" s="41"/>
+      <c r="K199" s="40"/>
     </row>
     <row r="200" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K200" s="41"/>
+      <c r="K200" s="40"/>
     </row>
     <row r="201" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K201" s="41"/>
+      <c r="K201" s="40"/>
     </row>
     <row r="202" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K202" s="41"/>
+      <c r="K202" s="40"/>
     </row>
     <row r="203" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K203" s="41"/>
+      <c r="K203" s="40"/>
     </row>
     <row r="204" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K204" s="41"/>
+      <c r="K204" s="40"/>
     </row>
     <row r="205" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K205" s="41"/>
+      <c r="K205" s="40"/>
     </row>
     <row r="206" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K206" s="41"/>
+      <c r="K206" s="40"/>
     </row>
     <row r="207" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K207" s="41"/>
+      <c r="K207" s="40"/>
     </row>
     <row r="208" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K208" s="41"/>
+      <c r="K208" s="40"/>
     </row>
     <row r="209" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K209" s="41"/>
+      <c r="K209" s="40"/>
     </row>
     <row r="210" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K210" s="41"/>
+      <c r="K210" s="40"/>
     </row>
     <row r="211" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K211" s="41"/>
+      <c r="K211" s="40"/>
     </row>
     <row r="212" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K212" s="41"/>
+      <c r="K212" s="40"/>
     </row>
     <row r="213" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K213" s="41"/>
+      <c r="K213" s="40"/>
     </row>
     <row r="214" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K214" s="41"/>
+      <c r="K214" s="40"/>
     </row>
     <row r="215" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K215" s="41"/>
+      <c r="K215" s="40"/>
     </row>
     <row r="216" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K216" s="41"/>
+      <c r="K216" s="40"/>
     </row>
     <row r="217" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K217" s="41"/>
+      <c r="K217" s="40"/>
     </row>
     <row r="218" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K218" s="41"/>
+      <c r="K218" s="40"/>
     </row>
     <row r="219" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K219" s="41"/>
+      <c r="K219" s="40"/>
     </row>
     <row r="220" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K220" s="41"/>
+      <c r="K220" s="40"/>
     </row>
     <row r="221" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K221" s="41"/>
+      <c r="K221" s="40"/>
     </row>
     <row r="222" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K222" s="41"/>
+      <c r="K222" s="40"/>
     </row>
     <row r="223" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K223" s="41"/>
+      <c r="K223" s="40"/>
     </row>
     <row r="224" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K224" s="41"/>
+      <c r="K224" s="40"/>
     </row>
     <row r="225" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K225" s="41"/>
+      <c r="K225" s="40"/>
     </row>
     <row r="226" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K226" s="41"/>
+      <c r="K226" s="40"/>
     </row>
     <row r="227" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K227" s="41"/>
+      <c r="K227" s="40"/>
     </row>
     <row r="228" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K228" s="41"/>
+      <c r="K228" s="40"/>
     </row>
     <row r="229" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K229" s="41"/>
+      <c r="K229" s="40"/>
     </row>
     <row r="230" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K230" s="41"/>
+      <c r="K230" s="40"/>
     </row>
     <row r="231" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K231" s="41"/>
+      <c r="K231" s="40"/>
     </row>
     <row r="232" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K232" s="41"/>
+      <c r="K232" s="40"/>
     </row>
     <row r="233" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K233" s="41"/>
+      <c r="K233" s="40"/>
     </row>
     <row r="234" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K234" s="41"/>
+      <c r="K234" s="40"/>
     </row>
     <row r="235" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K235" s="41"/>
+      <c r="K235" s="40"/>
     </row>
     <row r="236" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K236" s="41"/>
+      <c r="K236" s="40"/>
     </row>
     <row r="237" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K237" s="41"/>
+      <c r="K237" s="40"/>
     </row>
     <row r="238" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K238" s="41"/>
+      <c r="K238" s="40"/>
     </row>
     <row r="239" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K239" s="41"/>
+      <c r="K239" s="40"/>
     </row>
     <row r="240" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K240" s="41"/>
+      <c r="K240" s="40"/>
     </row>
     <row r="241" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K241" s="41"/>
+      <c r="K241" s="40"/>
     </row>
     <row r="242" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K242" s="41"/>
+      <c r="K242" s="40"/>
     </row>
     <row r="243" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K243" s="41"/>
+      <c r="K243" s="40"/>
     </row>
     <row r="244" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K244" s="41"/>
+      <c r="K244" s="40"/>
     </row>
     <row r="245" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K245" s="41"/>
+      <c r="K245" s="40"/>
     </row>
     <row r="246" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K246" s="41"/>
+      <c r="K246" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hillebrande\Documents\Project\Office-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8493672C-F0E1-450C-BBA8-D72BD012778B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8291E-9AF8-4F9C-9879-68FFF17C546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="honorario" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="282">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -1505,9 +1505,9 @@
   </sheetPr>
   <dimension ref="A1:AA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2194,7 @@
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
       <c r="S15" s="25">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="T15" s="26"/>
       <c r="U15" s="24" t="s">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="V15" s="43">
         <f t="shared" si="0"/>
-        <v>1422</v>
+        <v>1492</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>188</v>
@@ -3343,7 +3343,7 @@
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
       <c r="S42" s="25">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="24" t="s">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="V42" s="43">
         <f t="shared" si="3"/>
-        <v>2964</v>
+        <v>2944</v>
       </c>
       <c r="X42" s="32" t="s">
         <v>172</v>
@@ -3806,16 +3806,12 @@
       <c r="P53" s="26"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
-      <c r="S53" s="25">
-        <v>10</v>
-      </c>
+      <c r="S53" s="25"/>
       <c r="T53" s="26"/>
-      <c r="U53" s="24" t="s">
-        <v>187</v>
-      </c>
+      <c r="U53" s="24"/>
       <c r="V53" s="43">
         <f t="shared" si="3"/>
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="X53" s="32" t="s">
         <v>172</v>
@@ -4363,16 +4359,12 @@
       <c r="P66" s="26"/>
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
-      <c r="S66" s="25">
-        <v>80</v>
-      </c>
+      <c r="S66" s="25"/>
       <c r="T66" s="26"/>
-      <c r="U66" s="24" t="s">
-        <v>187</v>
-      </c>
+      <c r="U66" s="24"/>
       <c r="V66" s="43">
         <f t="shared" si="3"/>
-        <v>1492</v>
+        <v>1412</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
@@ -5627,13 +5619,13 @@
       <c r="R96" s="29"/>
       <c r="S96" s="30">
         <f>SUM(S2:S95)</f>
-        <v>-91</v>
+        <v>-131</v>
       </c>
       <c r="T96" s="26"/>
       <c r="U96" s="24"/>
       <c r="V96" s="43">
         <f>C96+F96+H96+J96+P96+R96+S96+M96+E96</f>
-        <v>81210</v>
+        <v>81170</v>
       </c>
     </row>
     <row r="97" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8291E-9AF8-4F9C-9879-68FFF17C546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145D701-9994-4D68-A0CF-ADBB0C5F4FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="277">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -545,12 +545,6 @@
     <t>sim</t>
   </si>
   <si>
-    <t>AMB DISTRIBUIDORA DE MED. E PROD. HOSP. LTDA</t>
-  </si>
-  <si>
-    <t>37.885.137/0001-80</t>
-  </si>
-  <si>
     <t>34.638.212/0001-10</t>
   </si>
   <si>
@@ -563,9 +557,6 @@
     <t>16.825.489/0001-70</t>
   </si>
   <si>
-    <t>AMH REP. E INTERMEDIIAÇÃO DE NEGOCIOS LTDA</t>
-  </si>
-  <si>
     <t>46.403.149.0001/12</t>
   </si>
   <si>
@@ -623,9 +614,6 @@
     <t>14.205.754/0001-92</t>
   </si>
   <si>
-    <t>05.911.861/0001-45</t>
-  </si>
-  <si>
     <t>03.445.885/0001-20</t>
   </si>
   <si>
@@ -770,9 +758,6 @@
     <t>03.164.692/0001-00</t>
   </si>
   <si>
-    <t>36.380.446/0001-36</t>
-  </si>
-  <si>
     <t>30.994.779/0001-79</t>
   </si>
   <si>
@@ -821,9 +806,6 @@
     <t>48.459.134/0001-00</t>
   </si>
   <si>
-    <t>02.283.218/0001-26</t>
-  </si>
-  <si>
     <t>36.473.412/0001-96</t>
   </si>
   <si>
@@ -870,6 +852,9 @@
   </si>
   <si>
     <t>57.808.017/0001-97</t>
+  </si>
+  <si>
+    <t>AMH REP. E INTERMEDIAÇÃO DE NEGOCIOS LTDA</t>
   </si>
 </sst>
 </file>
@@ -1505,14 +1490,14 @@
   </sheetPr>
   <dimension ref="A1:AA246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="39" bestFit="1" customWidth="1"/>
@@ -1652,7 +1637,7 @@
       <c r="T2" s="26"/>
       <c r="U2" s="24"/>
       <c r="V2" s="43">
-        <f>C2+E2+G2+I2+K2+M2+O2+Q2+S2</f>
+        <f t="shared" ref="V2:V32" si="0">C2+E2+G2+I2+K2+M2+O2+Q2+S2</f>
         <v>706</v>
       </c>
       <c r="X2" s="31"/>
@@ -1661,12 +1646,14 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" t="s">
-        <v>173</v>
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="25">
-        <v>2118</v>
+        <v>320</v>
       </c>
       <c r="D3" s="26">
         <v>45566</v>
@@ -1689,23 +1676,27 @@
       <c r="T3" s="26"/>
       <c r="U3" s="24"/>
       <c r="V3" s="43">
-        <v>2118</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
+      <c r="Z3" t="s">
+        <v>172</v>
+      </c>
       <c r="AA3" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="25">
-        <v>320</v>
+        <v>1150</v>
       </c>
       <c r="D4" s="26">
         <v>45566</v>
@@ -1721,40 +1712,39 @@
       <c r="M4" s="25"/>
       <c r="N4" s="26"/>
       <c r="O4" s="28"/>
-      <c r="P4" s="26"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
       <c r="U4" s="24"/>
       <c r="V4" s="43">
-        <f t="shared" ref="V4:V35" si="0">C4+E4+G4+I4+K4+M4+O4+Q4+S4</f>
-        <v>320</v>
-      </c>
-      <c r="X4" s="31"/>
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y4" s="31"/>
-      <c r="Z4" t="s">
-        <v>172</v>
-      </c>
       <c r="AA4" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="25">
-        <v>1150</v>
+        <v>310</v>
       </c>
       <c r="D5" s="26">
         <v>45566</v>
       </c>
       <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1772,41 +1762,39 @@
       <c r="U5" s="24"/>
       <c r="V5" s="43">
         <f t="shared" si="0"/>
-        <v>1150</v>
-      </c>
-      <c r="X5" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
       <c r="AA5" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="25">
-        <v>310</v>
+        <v>990</v>
       </c>
       <c r="D6" s="26">
         <v>45566</v>
       </c>
       <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
       <c r="M6" s="25"/>
       <c r="N6" s="26"/>
       <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="25"/>
@@ -1814,23 +1802,26 @@
       <c r="U6" s="24"/>
       <c r="V6" s="43">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>990</v>
       </c>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
+      <c r="Z6" t="s">
+        <v>172</v>
+      </c>
       <c r="AA6" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="C7" s="25">
-        <v>990</v>
+        <v>353</v>
       </c>
       <c r="D7" s="26">
         <v>45566</v>
@@ -1840,7 +1831,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="29"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="25"/>
       <c r="L7" s="26"/>
       <c r="M7" s="25"/>
@@ -1849,31 +1840,32 @@
       <c r="P7" s="26"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="25"/>
+      <c r="S7" s="25">
+        <v>-153</v>
+      </c>
       <c r="T7" s="26"/>
-      <c r="U7" s="24"/>
+      <c r="U7" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="V7" s="43">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>200</v>
       </c>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
-      <c r="Z7" t="s">
-        <v>172</v>
-      </c>
       <c r="AA7" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="C8" s="25">
-        <v>353</v>
+        <v>1095</v>
       </c>
       <c r="D8" s="26">
         <v>45566</v>
@@ -1889,7 +1881,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="26"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="25"/>
@@ -1897,23 +1889,26 @@
       <c r="U8" s="24"/>
       <c r="V8" s="43">
         <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-      <c r="X8" s="31"/>
+        <v>1095</v>
+      </c>
+      <c r="X8" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y8" s="31"/>
       <c r="AA8" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
-        <v>7</v>
+        <f t="shared" ref="A9:A20" si="1">A8+1</f>
+        <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="25">
-        <v>1095</v>
+        <v>1412</v>
       </c>
       <c r="D9" s="26">
         <v>45566</v>
@@ -1929,7 +1924,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="29"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
       <c r="S9" s="25"/>
@@ -1937,26 +1932,26 @@
       <c r="U9" s="24"/>
       <c r="V9" s="43">
         <f t="shared" si="0"/>
-        <v>1095</v>
+        <v>1412</v>
       </c>
       <c r="X9" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Y9" s="31"/>
       <c r="AA9" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
-        <f t="shared" ref="A10:A21" si="1">A9+1</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="25">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D10" s="26">
         <v>45566</v>
@@ -1980,26 +1975,26 @@
       <c r="U10" s="24"/>
       <c r="V10" s="43">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="X10" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Y10" s="31"/>
       <c r="AA10" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="25">
-        <v>706</v>
+        <v>1170</v>
       </c>
       <c r="D11" s="26">
         <v>45566</v>
@@ -2015,7 +2010,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="26"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
       <c r="S11" s="25"/>
@@ -2023,26 +2018,27 @@
       <c r="U11" s="24"/>
       <c r="V11" s="43">
         <f t="shared" si="0"/>
-        <v>706</v>
-      </c>
-      <c r="X11" s="32" t="s">
+        <v>1170</v>
+      </c>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" t="s">
         <v>172</v>
       </c>
-      <c r="Y11" s="31"/>
       <c r="AA11" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="25">
-        <v>1170</v>
+        <v>423</v>
       </c>
       <c r="D12" s="26">
         <v>45566</v>
@@ -2052,7 +2048,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="25"/>
       <c r="L12" s="26"/>
       <c r="M12" s="25"/>
@@ -2066,7 +2062,7 @@
       <c r="U12" s="24"/>
       <c r="V12" s="43">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>423</v>
       </c>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
@@ -2074,29 +2070,29 @@
         <v>172</v>
       </c>
       <c r="AA12" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="25">
-        <v>423</v>
+        <v>353</v>
       </c>
       <c r="D13" s="26">
         <v>45566</v>
       </c>
       <c r="E13" s="25"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="29"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
       <c r="M13" s="25"/>
@@ -2110,7 +2106,7 @@
       <c r="U13" s="24"/>
       <c r="V13" s="43">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>353</v>
       </c>
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
@@ -2118,25 +2114,25 @@
         <v>172</v>
       </c>
       <c r="AA13" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="25">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D14" s="26">
         <v>45566</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2149,18 +2145,24 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="29"/>
-      <c r="S14" s="25"/>
+      <c r="S14" s="25">
+        <v>80</v>
+      </c>
       <c r="T14" s="26"/>
-      <c r="U14" s="24"/>
+      <c r="U14" s="24" t="s">
+        <v>184</v>
+      </c>
       <c r="V14" s="43">
         <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-      <c r="X14" s="31"/>
+        <v>1492</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y14" s="31"/>
-      <c r="Z14" t="s">
-        <v>172</v>
-      </c>
       <c r="AA14" s="46" t="s">
         <v>186</v>
       </c>
@@ -2168,13 +2170,13 @@
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="C15" s="25">
-        <v>1412</v>
+        <v>290</v>
       </c>
       <c r="D15" s="26">
         <v>45566</v>
@@ -2193,38 +2195,32 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
-      <c r="S15" s="25">
-        <v>80</v>
-      </c>
+      <c r="S15" s="25"/>
       <c r="T15" s="26"/>
-      <c r="U15" s="24" t="s">
-        <v>187</v>
-      </c>
+      <c r="U15" s="24"/>
       <c r="V15" s="43">
         <f t="shared" si="0"/>
-        <v>1492</v>
-      </c>
-      <c r="W15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA15" s="46" t="s">
         <v>188</v>
-      </c>
-      <c r="X15" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y15" s="31"/>
-      <c r="AA15" s="46" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="C16" s="25">
-        <v>290</v>
+        <v>990</v>
       </c>
       <c r="D16" s="26">
         <v>45566</v>
@@ -2240,7 +2236,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="25"/>
@@ -2248,7 +2244,7 @@
       <c r="U16" s="24"/>
       <c r="V16" s="43">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>990</v>
       </c>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
@@ -2256,25 +2252,25 @@
         <v>172</v>
       </c>
       <c r="AA16" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="25">
-        <v>990</v>
+        <v>320</v>
       </c>
       <c r="D17" s="26">
         <v>45566</v>
       </c>
       <c r="E17" s="25"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
@@ -2284,7 +2280,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="26"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="25"/>
@@ -2292,33 +2288,30 @@
       <c r="U17" s="24"/>
       <c r="V17" s="43">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>320</v>
       </c>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
-      <c r="Z17" t="s">
-        <v>172</v>
-      </c>
       <c r="AA17" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="25">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="D18" s="26">
         <v>45566</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
@@ -2328,7 +2321,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
+      <c r="P18" s="26"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="25"/>
@@ -2336,24 +2329,26 @@
       <c r="U18" s="24"/>
       <c r="V18" s="43">
         <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="X18" s="31"/>
+        <v>650</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y18" s="31"/>
       <c r="AA18" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="25">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="D19" s="26">
         <v>45566</v>
@@ -2369,7 +2364,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="26"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="26"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
       <c r="S19" s="25"/>
@@ -2377,23 +2372,23 @@
       <c r="U19" s="24"/>
       <c r="V19" s="43">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="X19" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Y19" s="31"/>
       <c r="AA19" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="C20" s="25">
         <v>706</v>
@@ -2416,36 +2411,33 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="26"/>
+      <c r="T20" s="33"/>
       <c r="U20" s="24"/>
       <c r="V20" s="43">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="X20" s="32" t="s">
-        <v>172</v>
-      </c>
+      <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
       <c r="AA20" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="C21" s="25">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="D21" s="26">
         <v>45566</v>
       </c>
       <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
@@ -2455,37 +2447,35 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="33"/>
+      <c r="T21" s="26"/>
       <c r="U21" s="24"/>
       <c r="V21" s="43">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
       <c r="AA21" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>20</v>
-      </c>
+      <c r="A22" s="23"/>
       <c r="B22" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" s="25">
-        <v>750</v>
+        <v>2118</v>
       </c>
       <c r="D22" s="26">
         <v>45566</v>
       </c>
       <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
@@ -2495,7 +2485,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="26"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="25"/>
@@ -2503,24 +2493,23 @@
       <c r="U22" s="24"/>
       <c r="V22" s="43">
         <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="X22" s="31"/>
+        <v>2118</v>
+      </c>
+      <c r="X22" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y22" s="31"/>
       <c r="AA22" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <f t="shared" ref="A23:A54" si="2">A22+1</f>
-        <v>21</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="25">
-        <v>706</v>
+        <v>400</v>
       </c>
       <c r="D23" s="26">
         <v>45566</v>
@@ -2536,34 +2525,29 @@
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="26"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
       <c r="S23" s="25"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="24"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
       <c r="V23" s="43">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>400</v>
       </c>
       <c r="X23" s="31"/>
-      <c r="Y23" s="32" t="s">
-        <v>172</v>
-      </c>
+      <c r="Y23" s="31"/>
       <c r="AA23" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
+      <c r="A24" s="23"/>
       <c r="B24" s="24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C24" s="25">
-        <v>2118</v>
+        <v>420</v>
       </c>
       <c r="D24" s="26">
         <v>45566</v>
@@ -2579,7 +2563,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="29"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="25"/>
@@ -2587,32 +2571,29 @@
       <c r="U24" s="24"/>
       <c r="V24" s="43">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>420</v>
       </c>
       <c r="X24" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Y24" s="31"/>
       <c r="AA24" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
+      <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C25" s="25">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="D25" s="26">
         <v>45566</v>
       </c>
       <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
@@ -2627,33 +2608,30 @@
       <c r="R25" s="29"/>
       <c r="S25" s="25"/>
       <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="43">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
       <c r="AA25" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
+      <c r="A26" s="23"/>
       <c r="B26" s="24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C26" s="25">
-        <v>480</v>
+        <v>353</v>
       </c>
       <c r="D26" s="26">
         <v>45566</v>
       </c>
       <c r="E26" s="25"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -2671,24 +2649,21 @@
       <c r="U26" s="24"/>
       <c r="V26" s="43">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>353</v>
       </c>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
-      <c r="Z26" t="s">
-        <v>172</v>
+      <c r="AA26" s="46" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
+      <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C27" s="25">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="D27" s="26">
         <v>45566</v>
@@ -2712,26 +2687,21 @@
       <c r="U27" s="24"/>
       <c r="V27" s="43">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="X27" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
       <c r="AA27" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
+      <c r="A28" s="23"/>
       <c r="B28" s="24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C28" s="25">
-        <v>353</v>
+        <v>2118</v>
       </c>
       <c r="D28" s="26">
         <v>45566</v>
@@ -2741,13 +2711,13 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="27"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="25"/>
       <c r="L28" s="26"/>
       <c r="M28" s="25"/>
       <c r="N28" s="26"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="25"/>
@@ -2755,30 +2725,30 @@
       <c r="U28" s="24"/>
       <c r="V28" s="43">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>2118</v>
       </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
+      <c r="Z28" t="s">
+        <v>172</v>
+      </c>
       <c r="AA28" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
+      <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C29" s="25">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D29" s="26">
         <v>45566</v>
       </c>
       <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
@@ -2788,7 +2758,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="26"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="29"/>
+      <c r="P29" s="26"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="25"/>
@@ -2796,30 +2766,30 @@
       <c r="U29" s="24"/>
       <c r="V29" s="43">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
+      <c r="Z29" t="s">
+        <v>172</v>
+      </c>
       <c r="AA29" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
+      <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C30" s="25">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="D30" s="26">
         <v>45566</v>
       </c>
       <c r="E30" s="25"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
@@ -2829,7 +2799,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="26"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="26"/>
+      <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="25"/>
@@ -2837,24 +2807,21 @@
       <c r="U30" s="24"/>
       <c r="V30" s="43">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
       <c r="AA30" s="46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="C31" s="25">
-        <v>2118</v>
+        <v>706</v>
       </c>
       <c r="D31" s="26">
         <v>45566</v>
@@ -2870,7 +2837,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="26"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="26"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
       <c r="S31" s="25"/>
@@ -2878,27 +2845,21 @@
       <c r="U31" s="24"/>
       <c r="V31" s="43">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>706</v>
       </c>
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
-      <c r="Z31" t="s">
-        <v>172</v>
-      </c>
       <c r="AA31" s="46" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+      <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="C32" s="25">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D32" s="26">
         <v>45566</v>
@@ -2908,13 +2869,13 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="27"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="25"/>
       <c r="L32" s="26"/>
       <c r="M32" s="25"/>
       <c r="N32" s="26"/>
       <c r="O32" s="28"/>
-      <c r="P32" s="26"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
       <c r="S32" s="25"/>
@@ -2922,33 +2883,27 @@
       <c r="U32" s="24"/>
       <c r="V32" s="43">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
-      <c r="Z32" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA32" s="46" t="s">
-        <v>207</v>
+      <c r="AA32" s="47" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
+      <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="C33" s="25">
-        <v>405</v>
+        <v>1412</v>
       </c>
       <c r="D33" s="26">
         <v>45566</v>
       </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
@@ -2965,35 +2920,35 @@
       <c r="T33" s="26"/>
       <c r="U33" s="24"/>
       <c r="V33" s="43">
-        <f t="shared" si="0"/>
-        <v>405</v>
+        <f t="shared" ref="V33:V64" si="2">C33+E33+G33+I33+K33+M33+O33+Q33+S33</f>
+        <v>1412</v>
       </c>
       <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
+      <c r="Z33" t="s">
+        <v>172</v>
+      </c>
       <c r="AA33" s="46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
+      <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="C34" s="25">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="D34" s="26">
         <v>45566</v>
       </c>
       <c r="E34" s="25"/>
-      <c r="F34" s="27"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="29"/>
+      <c r="J34" s="27"/>
       <c r="K34" s="25"/>
       <c r="L34" s="26"/>
       <c r="M34" s="25"/>
@@ -3006,22 +2961,22 @@
       <c r="T34" s="26"/>
       <c r="U34" s="24"/>
       <c r="V34" s="43">
-        <f t="shared" si="0"/>
-        <v>706</v>
+        <f t="shared" si="2"/>
+        <v>353</v>
       </c>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
+      <c r="Z34" t="s">
+        <v>172</v>
+      </c>
       <c r="AA34" s="46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
+      <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="C35" s="25">
         <v>353</v>
@@ -3030,11 +2985,11 @@
         <v>45566</v>
       </c>
       <c r="E35" s="25"/>
-      <c r="F35" s="27"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="29"/>
+      <c r="J35" s="27"/>
       <c r="K35" s="25"/>
       <c r="L35" s="26"/>
       <c r="M35" s="25"/>
@@ -3047,31 +3002,28 @@
       <c r="T35" s="26"/>
       <c r="U35" s="24"/>
       <c r="V35" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>353</v>
       </c>
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
-      <c r="AA35" s="47" t="s">
+      <c r="AA35" s="46" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
+      <c r="A36" s="23"/>
       <c r="B36" s="24" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="C36" s="25">
-        <v>1412</v>
+        <v>205</v>
       </c>
       <c r="D36" s="26">
         <v>45566</v>
       </c>
       <c r="E36" s="25"/>
-      <c r="F36" s="27"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
@@ -3084,32 +3036,32 @@
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
-      <c r="S36" s="25"/>
+      <c r="S36" s="25">
+        <v>-125</v>
+      </c>
       <c r="T36" s="26"/>
-      <c r="U36" s="24"/>
+      <c r="U36" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="V36" s="43">
-        <f t="shared" ref="V36:V67" si="3">C36+E36+G36+I36+K36+M36+O36+Q36+S36</f>
-        <v>1412</v>
-      </c>
-      <c r="X36" s="31"/>
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="X36" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y36" s="31"/>
-      <c r="Z36" t="s">
-        <v>172</v>
-      </c>
       <c r="AA36" s="46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>57</v>
+      <c r="A37" s="23"/>
+      <c r="B37" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="C37" s="25">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="D37" s="26">
         <v>45566</v>
@@ -3132,34 +3084,28 @@
       <c r="T37" s="26"/>
       <c r="U37" s="24"/>
       <c r="V37" s="43">
-        <f t="shared" si="3"/>
-        <v>353</v>
+        <f t="shared" si="2"/>
+        <v>706</v>
       </c>
       <c r="X37" s="31"/>
       <c r="Y37" s="31"/>
-      <c r="Z37" t="s">
-        <v>172</v>
-      </c>
       <c r="AA37" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
+      <c r="A38" s="23"/>
       <c r="B38" s="24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C38" s="25">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="D38" s="26">
         <v>45566</v>
       </c>
       <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -3176,31 +3122,28 @@
       <c r="T38" s="26"/>
       <c r="U38" s="24"/>
       <c r="V38" s="43">
-        <f t="shared" si="3"/>
-        <v>353</v>
+        <f t="shared" si="2"/>
+        <v>706</v>
       </c>
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="AA38" s="46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
+      <c r="A39" s="23"/>
       <c r="B39" s="24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C39" s="25">
-        <v>205</v>
+        <v>2824</v>
       </c>
       <c r="D39" s="26">
         <v>45566</v>
       </c>
       <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
@@ -3210,19 +3153,19 @@
       <c r="M39" s="25"/>
       <c r="N39" s="26"/>
       <c r="O39" s="28"/>
-      <c r="P39" s="29"/>
+      <c r="P39" s="26"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
       <c r="S39" s="25">
-        <v>-125</v>
+        <v>120</v>
       </c>
       <c r="T39" s="26"/>
       <c r="U39" s="24" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="V39" s="43">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>2944</v>
       </c>
       <c r="X39" s="32" t="s">
         <v>172</v>
@@ -3233,12 +3176,9 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>219</v>
+      <c r="A40" s="23"/>
+      <c r="B40" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="C40" s="25">
         <v>706</v>
@@ -3247,7 +3187,7 @@
         <v>45566</v>
       </c>
       <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
@@ -3264,22 +3204,19 @@
       <c r="T40" s="26"/>
       <c r="U40" s="24"/>
       <c r="V40" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
       <c r="AA40" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
+      <c r="A41" s="23"/>
       <c r="B41" s="24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C41" s="25">
         <v>706</v>
@@ -3298,32 +3235,29 @@
       <c r="M41" s="25"/>
       <c r="N41" s="26"/>
       <c r="O41" s="28"/>
-      <c r="P41" s="29"/>
+      <c r="P41" s="26"/>
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
       <c r="S41" s="25"/>
-      <c r="T41" s="26"/>
+      <c r="T41" s="27"/>
       <c r="U41" s="24"/>
       <c r="V41" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
       <c r="AA41" s="46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>65</v>
-      </c>
       <c r="C42" s="25">
-        <v>2824</v>
+        <v>706</v>
       </c>
       <c r="D42" s="26">
         <v>45566</v>
@@ -3343,34 +3277,29 @@
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
       <c r="S42" s="25">
-        <v>120</v>
-      </c>
-      <c r="T42" s="26"/>
+        <v>-206</v>
+      </c>
+      <c r="T42" s="27"/>
       <c r="U42" s="24" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="V42" s="43">
-        <f t="shared" si="3"/>
-        <v>2944</v>
-      </c>
-      <c r="X42" s="32" t="s">
-        <v>172</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
       <c r="AA42" s="46" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>66</v>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="25">
-        <v>706</v>
+        <v>2118</v>
       </c>
       <c r="D43" s="26">
         <v>45566</v>
@@ -3386,38 +3315,38 @@
       <c r="M43" s="25"/>
       <c r="N43" s="26"/>
       <c r="O43" s="28"/>
-      <c r="P43" s="29"/>
+      <c r="P43" s="26"/>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
       <c r="S43" s="25"/>
       <c r="T43" s="26"/>
       <c r="U43" s="24"/>
       <c r="V43" s="43">
-        <f t="shared" si="3"/>
-        <v>706</v>
+        <f t="shared" si="2"/>
+        <v>2118</v>
       </c>
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
+      <c r="Z43" t="s">
+        <v>172</v>
+      </c>
       <c r="AA43" s="46" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
+      <c r="A44" s="23"/>
       <c r="B44" s="24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C44" s="25">
-        <v>706</v>
+        <v>170</v>
       </c>
       <c r="D44" s="26">
         <v>45566</v>
       </c>
       <c r="E44" s="25"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
@@ -3431,34 +3360,30 @@
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="25"/>
-      <c r="T44" s="27"/>
+      <c r="T44" s="26"/>
       <c r="U44" s="24"/>
       <c r="V44" s="43">
-        <f t="shared" si="3"/>
-        <v>706</v>
-      </c>
-      <c r="X44" s="31"/>
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="X44" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y44" s="31"/>
-      <c r="AA44" s="46" t="s">
+    </row>
+    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>225</v>
-      </c>
       <c r="C45" s="25">
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="D45" s="26">
         <v>45566</v>
       </c>
       <c r="E45" s="25"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
@@ -3471,39 +3396,34 @@
       <c r="P45" s="26"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
-      <c r="S45" s="25">
-        <v>-206</v>
-      </c>
-      <c r="T45" s="27"/>
-      <c r="U45" s="24" t="s">
-        <v>217</v>
-      </c>
+      <c r="S45" s="25"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="24"/>
       <c r="V45" s="43">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="X45" s="31"/>
+        <f t="shared" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="X45" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y45" s="31"/>
       <c r="AA45" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
+      <c r="A46" s="23"/>
       <c r="B46" s="24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C46" s="25">
-        <v>2118</v>
+        <v>353</v>
       </c>
       <c r="D46" s="26">
         <v>45566</v>
       </c>
       <c r="E46" s="25"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
@@ -3520,38 +3440,32 @@
       <c r="T46" s="26"/>
       <c r="U46" s="24"/>
       <c r="V46" s="43">
-        <f t="shared" si="3"/>
-        <v>2118</v>
+        <f t="shared" si="2"/>
+        <v>353</v>
       </c>
       <c r="X46" s="31"/>
       <c r="Y46" s="31"/>
-      <c r="Z46" t="s">
-        <v>172</v>
-      </c>
       <c r="AA46" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
+      <c r="A47" s="23"/>
       <c r="B47" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C47" s="25">
-        <v>170</v>
+        <v>1412</v>
       </c>
       <c r="D47" s="26">
         <v>45566</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="27"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="25"/>
       <c r="L47" s="26"/>
       <c r="M47" s="25"/>
@@ -3564,30 +3478,28 @@
       <c r="T47" s="26"/>
       <c r="U47" s="24"/>
       <c r="V47" s="43">
-        <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="X47" s="32" t="s">
-        <v>172</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
+      <c r="AA47" s="46" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="48" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
+      <c r="A48" s="23"/>
       <c r="B48" s="24" t="s">
         <v>228</v>
       </c>
       <c r="C48" s="25">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D48" s="26">
         <v>45566</v>
       </c>
       <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
@@ -3604,24 +3516,18 @@
       <c r="T48" s="26"/>
       <c r="U48" s="24"/>
       <c r="V48" s="43">
-        <f t="shared" si="3"/>
-        <v>1412</v>
-      </c>
-      <c r="X48" s="32" t="s">
+        <f t="shared" si="2"/>
+        <v>706</v>
+      </c>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="Y48" s="31"/>
-      <c r="AA48" s="46" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="49" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
+      <c r="A49" s="23"/>
       <c r="B49" s="24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C49" s="25">
         <v>353</v>
@@ -3647,22 +3553,19 @@
       <c r="T49" s="26"/>
       <c r="U49" s="24"/>
       <c r="V49" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>353</v>
       </c>
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
       <c r="AA49" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
+      <c r="A50" s="23"/>
       <c r="B50" s="24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C50" s="25">
         <v>1412</v>
@@ -3675,7 +3578,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="29"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="25"/>
       <c r="L50" s="26"/>
       <c r="M50" s="25"/>
@@ -3688,25 +3591,24 @@
       <c r="T50" s="26"/>
       <c r="U50" s="24"/>
       <c r="V50" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1412</v>
       </c>
-      <c r="X50" s="31"/>
+      <c r="X50" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y50" s="31"/>
       <c r="AA50" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
+      <c r="A51" s="23"/>
       <c r="B51" s="24" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="C51" s="25">
-        <v>706</v>
+        <v>1130</v>
       </c>
       <c r="D51" s="26">
         <v>45566</v>
@@ -3729,30 +3631,28 @@
       <c r="T51" s="26"/>
       <c r="U51" s="24"/>
       <c r="V51" s="43">
-        <f t="shared" si="3"/>
-        <v>706</v>
+        <f t="shared" si="2"/>
+        <v>1130</v>
       </c>
       <c r="X51" s="31"/>
-      <c r="Y51" s="32" t="s">
-        <v>172</v>
+      <c r="Y51" s="31"/>
+      <c r="AA51" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
+      <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C52" s="25">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="D52" s="26">
         <v>45566</v>
       </c>
       <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
@@ -3769,25 +3669,24 @@
       <c r="T52" s="26"/>
       <c r="U52" s="24"/>
       <c r="V52" s="43">
-        <f t="shared" si="3"/>
-        <v>353</v>
-      </c>
-      <c r="X52" s="31"/>
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="X52" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y52" s="31"/>
       <c r="AA52" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
+      <c r="A53" s="23"/>
       <c r="B53" s="24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C53" s="25">
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="D53" s="26">
         <v>45566</v>
@@ -3810,27 +3709,25 @@
       <c r="T53" s="26"/>
       <c r="U53" s="24"/>
       <c r="V53" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>2118</v>
+      </c>
+      <c r="X53" s="31"/>
+      <c r="Y53" s="31"/>
+      <c r="Z53" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA53" s="46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="25">
         <v>1412</v>
-      </c>
-      <c r="X53" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y53" s="31"/>
-      <c r="AA53" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="25">
-        <v>1130</v>
       </c>
       <c r="D54" s="26">
         <v>45566</v>
@@ -3853,25 +3750,24 @@
       <c r="T54" s="26"/>
       <c r="U54" s="24"/>
       <c r="V54" s="43">
-        <f t="shared" si="3"/>
-        <v>1130</v>
+        <f t="shared" si="2"/>
+        <v>1412</v>
       </c>
       <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
+      <c r="Y54" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="AA54" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
-        <f t="shared" ref="A55:A86" si="4">A54+1</f>
-        <v>53</v>
-      </c>
+      <c r="A55" s="23"/>
       <c r="B55" s="24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C55" s="25">
-        <v>580</v>
+        <v>1412</v>
       </c>
       <c r="D55" s="26">
         <v>45566</v>
@@ -3894,27 +3790,24 @@
       <c r="T55" s="26"/>
       <c r="U55" s="24"/>
       <c r="V55" s="43">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="X55" s="32" t="s">
+        <f t="shared" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="X55" s="31"/>
+      <c r="Y55" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="Y55" s="31"/>
       <c r="AA55" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
+      <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C56" s="25">
-        <v>2118</v>
+        <v>600</v>
       </c>
       <c r="D56" s="26">
         <v>45566</v>
@@ -3937,28 +3830,22 @@
       <c r="T56" s="26"/>
       <c r="U56" s="24"/>
       <c r="V56" s="43">
-        <f t="shared" si="3"/>
-        <v>2118</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="X56" s="31"/>
       <c r="Y56" s="31"/>
-      <c r="Z56" t="s">
-        <v>172</v>
-      </c>
       <c r="AA56" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
+      <c r="A57" s="23"/>
       <c r="B57" s="24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C57" s="25">
-        <v>1412</v>
+        <v>250</v>
       </c>
       <c r="D57" s="26">
         <v>45566</v>
@@ -3981,27 +3868,22 @@
       <c r="T57" s="26"/>
       <c r="U57" s="24"/>
       <c r="V57" s="43">
-        <f t="shared" si="3"/>
-        <v>1412</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="X57" s="31"/>
-      <c r="Y57" s="32" t="s">
-        <v>172</v>
-      </c>
+      <c r="Y57" s="31"/>
       <c r="AA57" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
+      <c r="A58" s="23"/>
       <c r="B58" s="24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C58" s="25">
-        <v>1412</v>
+        <v>890</v>
       </c>
       <c r="D58" s="26">
         <v>45566</v>
@@ -4011,40 +3893,35 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="27"/>
+      <c r="J58" s="29"/>
       <c r="K58" s="25"/>
       <c r="L58" s="26"/>
       <c r="M58" s="25"/>
       <c r="N58" s="26"/>
       <c r="O58" s="28"/>
-      <c r="P58" s="26"/>
+      <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="25"/>
       <c r="T58" s="26"/>
       <c r="U58" s="24"/>
       <c r="V58" s="43">
-        <f t="shared" si="3"/>
-        <v>1412</v>
+        <f t="shared" si="2"/>
+        <v>890</v>
       </c>
       <c r="X58" s="31"/>
-      <c r="Y58" s="32" t="s">
+      <c r="Y58" s="31"/>
+      <c r="Z58" t="s">
         <v>172</v>
       </c>
-      <c r="AA58" s="46" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="59" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
+      <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C59" s="25">
-        <v>600</v>
+        <v>2824</v>
       </c>
       <c r="D59" s="26">
         <v>45566</v>
@@ -4060,32 +3937,32 @@
       <c r="M59" s="25"/>
       <c r="N59" s="26"/>
       <c r="O59" s="28"/>
-      <c r="P59" s="26"/>
+      <c r="P59" s="29"/>
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
       <c r="S59" s="25"/>
-      <c r="T59" s="26"/>
+      <c r="T59" s="27"/>
       <c r="U59" s="24"/>
       <c r="V59" s="43">
-        <f t="shared" si="3"/>
-        <v>600</v>
+        <f t="shared" si="2"/>
+        <v>2824</v>
       </c>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
+      <c r="Z59" t="s">
+        <v>172</v>
+      </c>
       <c r="AA59" s="46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
-        <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
+      <c r="A60" s="23"/>
       <c r="B60" s="24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C60" s="25">
-        <v>250</v>
+        <v>529</v>
       </c>
       <c r="D60" s="26">
         <v>45566</v>
@@ -4101,32 +3978,32 @@
       <c r="M60" s="25"/>
       <c r="N60" s="26"/>
       <c r="O60" s="28"/>
-      <c r="P60" s="26"/>
+      <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
       <c r="S60" s="25"/>
       <c r="T60" s="26"/>
       <c r="U60" s="24"/>
       <c r="V60" s="43">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>529</v>
       </c>
       <c r="X60" s="31"/>
       <c r="Y60" s="31"/>
+      <c r="Z60" t="s">
+        <v>172</v>
+      </c>
       <c r="AA60" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
+      <c r="A61" s="23"/>
       <c r="B61" s="24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C61" s="25">
-        <v>890</v>
+        <v>4236</v>
       </c>
       <c r="D61" s="26">
         <v>45566</v>
@@ -4136,38 +4013,38 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="29"/>
+      <c r="J61" s="27"/>
       <c r="K61" s="25"/>
       <c r="L61" s="26"/>
       <c r="M61" s="25"/>
       <c r="N61" s="26"/>
       <c r="O61" s="28"/>
-      <c r="P61" s="29"/>
+      <c r="P61" s="26"/>
       <c r="Q61" s="29"/>
       <c r="R61" s="29"/>
       <c r="S61" s="25"/>
       <c r="T61" s="26"/>
       <c r="U61" s="24"/>
       <c r="V61" s="43">
-        <f t="shared" si="3"/>
-        <v>890</v>
+        <f t="shared" si="2"/>
+        <v>4236</v>
       </c>
       <c r="X61" s="31"/>
       <c r="Y61" s="31"/>
       <c r="Z61" t="s">
         <v>172</v>
       </c>
+      <c r="AA61" s="46" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="62" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
+      <c r="A62" s="23"/>
       <c r="B62" s="24" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="C62" s="25">
-        <v>2824</v>
+        <v>706</v>
       </c>
       <c r="D62" s="26">
         <v>45566</v>
@@ -4183,35 +4060,29 @@
       <c r="M62" s="25"/>
       <c r="N62" s="26"/>
       <c r="O62" s="28"/>
-      <c r="P62" s="29"/>
+      <c r="P62" s="26"/>
       <c r="Q62" s="29"/>
       <c r="R62" s="29"/>
       <c r="S62" s="25"/>
-      <c r="T62" s="27"/>
+      <c r="T62" s="26"/>
       <c r="U62" s="24"/>
       <c r="V62" s="43">
-        <f t="shared" si="3"/>
-        <v>2824</v>
+        <f t="shared" si="2"/>
+        <v>706</v>
       </c>
       <c r="X62" s="31"/>
       <c r="Y62" s="31"/>
-      <c r="Z62" t="s">
-        <v>172</v>
-      </c>
       <c r="AA62" s="46" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
+      <c r="A63" s="23"/>
       <c r="B63" s="24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C63" s="25">
-        <v>529</v>
+        <v>1412</v>
       </c>
       <c r="D63" s="26">
         <v>45566</v>
@@ -4221,41 +4092,35 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="27"/>
+      <c r="J63" s="29"/>
       <c r="K63" s="25"/>
       <c r="L63" s="26"/>
       <c r="M63" s="25"/>
       <c r="N63" s="26"/>
       <c r="O63" s="28"/>
-      <c r="P63" s="29"/>
+      <c r="P63" s="26"/>
       <c r="Q63" s="29"/>
       <c r="R63" s="29"/>
       <c r="S63" s="25"/>
       <c r="T63" s="26"/>
       <c r="U63" s="24"/>
       <c r="V63" s="43">
-        <f t="shared" si="3"/>
-        <v>529</v>
+        <f t="shared" si="2"/>
+        <v>1412</v>
       </c>
       <c r="X63" s="31"/>
       <c r="Y63" s="31"/>
-      <c r="Z63" t="s">
-        <v>172</v>
-      </c>
       <c r="AA63" s="46" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
+      <c r="A64" s="23"/>
       <c r="B64" s="24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C64" s="25">
-        <v>4236</v>
+        <v>280</v>
       </c>
       <c r="D64" s="26">
         <v>45566</v>
@@ -4278,8 +4143,8 @@
       <c r="T64" s="26"/>
       <c r="U64" s="24"/>
       <c r="V64" s="43">
-        <f t="shared" si="3"/>
-        <v>4236</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="X64" s="31"/>
       <c r="Y64" s="31"/>
@@ -4291,15 +4156,12 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
+      <c r="A65" s="23"/>
       <c r="B65" s="24" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="C65" s="25">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="D65" s="26">
         <v>45566</v>
@@ -4315,32 +4177,29 @@
       <c r="M65" s="25"/>
       <c r="N65" s="26"/>
       <c r="O65" s="28"/>
-      <c r="P65" s="26"/>
+      <c r="P65" s="29"/>
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
       <c r="S65" s="25"/>
       <c r="T65" s="26"/>
       <c r="U65" s="24"/>
       <c r="V65" s="43">
-        <f t="shared" si="3"/>
-        <v>706</v>
+        <f t="shared" ref="V65:V90" si="3">C65+E65+G65+I65+K65+M65+O65+Q65+S65</f>
+        <v>353</v>
       </c>
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
       <c r="AA65" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="C66" s="25">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D66" s="26">
         <v>45566</v>
@@ -4356,7 +4215,7 @@
       <c r="M66" s="25"/>
       <c r="N66" s="26"/>
       <c r="O66" s="28"/>
-      <c r="P66" s="26"/>
+      <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
       <c r="S66" s="25"/>
@@ -4364,24 +4223,24 @@
       <c r="U66" s="24"/>
       <c r="V66" s="43">
         <f t="shared" si="3"/>
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
+      <c r="Z66" t="s">
+        <v>172</v>
+      </c>
       <c r="AA66" s="46" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
+      <c r="A67" s="23"/>
       <c r="B67" s="24" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C67" s="25">
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="D67" s="26">
         <v>45566</v>
@@ -4397,7 +4256,7 @@
       <c r="M67" s="25"/>
       <c r="N67" s="26"/>
       <c r="O67" s="28"/>
-      <c r="P67" s="26"/>
+      <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
       <c r="S67" s="25"/>
@@ -4405,7 +4264,7 @@
       <c r="U67" s="24"/>
       <c r="V67" s="43">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
@@ -4414,15 +4273,12 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
+      <c r="A68" s="23"/>
       <c r="B68" s="24" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C68" s="25">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D68" s="26">
         <v>45566</v>
@@ -4445,28 +4301,22 @@
       <c r="T68" s="26"/>
       <c r="U68" s="24"/>
       <c r="V68" s="43">
-        <f t="shared" ref="V68:V95" si="5">C68+E68+G68+I68+K68+M68+O68+Q68+S68</f>
-        <v>280</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
-      <c r="Z68" t="s">
-        <v>172</v>
-      </c>
       <c r="AA68" s="46" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
+      <c r="A69" s="23"/>
       <c r="B69" s="24" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C69" s="25">
-        <v>353</v>
+        <v>926</v>
       </c>
       <c r="D69" s="26">
         <v>45566</v>
@@ -4482,15 +4332,15 @@
       <c r="M69" s="25"/>
       <c r="N69" s="26"/>
       <c r="O69" s="28"/>
-      <c r="P69" s="29"/>
+      <c r="P69" s="26"/>
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="25"/>
       <c r="T69" s="26"/>
       <c r="U69" s="24"/>
       <c r="V69" s="43">
-        <f t="shared" si="5"/>
-        <v>353</v>
+        <f t="shared" si="3"/>
+        <v>926</v>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
@@ -4499,15 +4349,12 @@
       </c>
     </row>
     <row r="70" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
+      <c r="A70" s="23"/>
       <c r="B70" s="24" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="C70" s="25">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="D70" s="26">
         <v>45566</v>
@@ -4530,28 +4377,22 @@
       <c r="T70" s="26"/>
       <c r="U70" s="24"/>
       <c r="V70" s="43">
-        <f t="shared" si="5"/>
-        <v>706</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="X70" s="31"/>
       <c r="Y70" s="31"/>
-      <c r="Z70" t="s">
-        <v>172</v>
-      </c>
       <c r="AA70" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
+      <c r="A71" s="23"/>
       <c r="B71" s="24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C71" s="25">
-        <v>1412</v>
+        <v>400</v>
       </c>
       <c r="D71" s="26">
         <v>45566</v>
@@ -4567,32 +4408,31 @@
       <c r="M71" s="25"/>
       <c r="N71" s="26"/>
       <c r="O71" s="28"/>
-      <c r="P71" s="29"/>
+      <c r="P71" s="26"/>
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="25"/>
       <c r="T71" s="26"/>
       <c r="U71" s="24"/>
       <c r="V71" s="43">
-        <f t="shared" si="5"/>
-        <v>1412</v>
-      </c>
-      <c r="X71" s="31"/>
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="X71" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y71" s="31"/>
       <c r="AA71" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
+      <c r="A72" s="23"/>
       <c r="B72" s="24" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C72" s="25">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D72" s="26">
         <v>45566</v>
@@ -4602,38 +4442,37 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="27"/>
+      <c r="J72" s="29"/>
       <c r="K72" s="25"/>
       <c r="L72" s="26"/>
       <c r="M72" s="25"/>
       <c r="N72" s="26"/>
       <c r="O72" s="28"/>
-      <c r="P72" s="26"/>
+      <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
       <c r="R72" s="29"/>
       <c r="S72" s="25"/>
       <c r="T72" s="26"/>
       <c r="U72" s="24"/>
       <c r="V72" s="43">
-        <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="X72" s="31"/>
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="X72" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y72" s="31"/>
       <c r="AA72" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
+      <c r="A73" s="23"/>
       <c r="B73" s="24" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C73" s="25">
-        <v>926</v>
+        <v>390</v>
       </c>
       <c r="D73" s="26">
         <v>45566</v>
@@ -4649,42 +4488,42 @@
       <c r="M73" s="25"/>
       <c r="N73" s="26"/>
       <c r="O73" s="28"/>
-      <c r="P73" s="26"/>
+      <c r="P73" s="29"/>
       <c r="Q73" s="29"/>
       <c r="R73" s="29"/>
       <c r="S73" s="25"/>
       <c r="T73" s="26"/>
       <c r="U73" s="24"/>
       <c r="V73" s="43">
-        <f t="shared" si="5"/>
-        <v>926</v>
+        <f t="shared" si="3"/>
+        <v>390</v>
       </c>
       <c r="X73" s="31"/>
       <c r="Y73" s="31"/>
+      <c r="Z73" t="s">
+        <v>172</v>
+      </c>
       <c r="AA73" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
+      <c r="A74" s="23"/>
       <c r="B74" s="24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C74" s="25">
-        <v>250</v>
+        <v>706</v>
       </c>
       <c r="D74" s="26">
         <v>45566</v>
       </c>
       <c r="E74" s="25"/>
-      <c r="F74" s="27"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="29"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="25"/>
       <c r="L74" s="26"/>
       <c r="M74" s="25"/>
@@ -4697,31 +4536,28 @@
       <c r="T74" s="26"/>
       <c r="U74" s="24"/>
       <c r="V74" s="43">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>706</v>
       </c>
       <c r="X74" s="31"/>
       <c r="Y74" s="31"/>
       <c r="AA74" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
-        <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
+      <c r="A75" s="23"/>
       <c r="B75" s="24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C75" s="25">
-        <v>400</v>
+        <v>706</v>
       </c>
       <c r="D75" s="26">
         <v>45566</v>
       </c>
       <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
+      <c r="F75" s="27"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
@@ -4731,44 +4567,42 @@
       <c r="M75" s="25"/>
       <c r="N75" s="26"/>
       <c r="O75" s="28"/>
-      <c r="P75" s="26"/>
+      <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
       <c r="R75" s="29"/>
       <c r="S75" s="25"/>
       <c r="T75" s="26"/>
       <c r="U75" s="24"/>
       <c r="V75" s="43">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="X75" s="32" t="s">
+        <f t="shared" si="3"/>
+        <v>706</v>
+      </c>
+      <c r="X75" s="31"/>
+      <c r="Y75" s="31"/>
+      <c r="Z75" t="s">
         <v>172</v>
       </c>
-      <c r="Y75" s="31"/>
       <c r="AA75" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
-        <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
+      <c r="A76" s="23"/>
       <c r="B76" s="24" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C76" s="25">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="D76" s="26">
         <v>45566</v>
       </c>
       <c r="E76" s="25"/>
-      <c r="F76" s="27"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="29"/>
+      <c r="J76" s="27"/>
       <c r="K76" s="25"/>
       <c r="L76" s="26"/>
       <c r="M76" s="25"/>
@@ -4781,33 +4615,31 @@
       <c r="T76" s="26"/>
       <c r="U76" s="24"/>
       <c r="V76" s="43">
-        <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="X76" s="32" t="s">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="X76" s="31"/>
+      <c r="Y76" s="31"/>
+      <c r="Z76" t="s">
         <v>172</v>
       </c>
-      <c r="Y76" s="31"/>
       <c r="AA76" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="24" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>119</v>
-      </c>
       <c r="C77" s="25">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="D77" s="26">
         <v>45566</v>
       </c>
       <c r="E77" s="25"/>
-      <c r="F77" s="27"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
@@ -4824,34 +4656,28 @@
       <c r="T77" s="26"/>
       <c r="U77" s="24"/>
       <c r="V77" s="43">
-        <f t="shared" si="5"/>
-        <v>390</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
-      <c r="Z77" t="s">
-        <v>172</v>
-      </c>
       <c r="AA77" s="46" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
-        <f t="shared" si="4"/>
-        <v>76</v>
-      </c>
+      <c r="A78" s="23"/>
       <c r="B78" s="24" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C78" s="25">
-        <v>706</v>
+        <v>1130</v>
       </c>
       <c r="D78" s="26">
         <v>45566</v>
       </c>
       <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
@@ -4868,8 +4694,8 @@
       <c r="T78" s="26"/>
       <c r="U78" s="24"/>
       <c r="V78" s="43">
-        <f t="shared" si="5"/>
-        <v>706</v>
+        <f t="shared" si="3"/>
+        <v>1130</v>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
@@ -4878,15 +4704,12 @@
       </c>
     </row>
     <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
-        <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
+      <c r="A79" s="23"/>
       <c r="B79" s="24" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C79" s="25">
-        <v>706</v>
+        <v>2118</v>
       </c>
       <c r="D79" s="26">
         <v>45566</v>
@@ -4909,8 +4732,8 @@
       <c r="T79" s="26"/>
       <c r="U79" s="24"/>
       <c r="V79" s="43">
-        <f t="shared" si="5"/>
-        <v>706</v>
+        <f t="shared" si="3"/>
+        <v>2118</v>
       </c>
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
@@ -4922,21 +4745,18 @@
       </c>
     </row>
     <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
+      <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C80" s="25">
-        <v>450</v>
+        <v>1130</v>
       </c>
       <c r="D80" s="26">
         <v>45566</v>
       </c>
       <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
@@ -4946,41 +4766,37 @@
       <c r="M80" s="25"/>
       <c r="N80" s="26"/>
       <c r="O80" s="28"/>
-      <c r="P80" s="29"/>
+      <c r="P80" s="26"/>
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="25"/>
       <c r="T80" s="26"/>
       <c r="U80" s="24"/>
       <c r="V80" s="43">
-        <f t="shared" si="5"/>
-        <v>450</v>
-      </c>
-      <c r="X80" s="31"/>
+        <f t="shared" si="3"/>
+        <v>1130</v>
+      </c>
+      <c r="X80" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y80" s="31"/>
-      <c r="Z80" t="s">
-        <v>172</v>
-      </c>
       <c r="AA80" s="46" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
+      <c r="A81" s="23"/>
       <c r="B81" s="24" t="s">
         <v>263</v>
       </c>
       <c r="C81" s="25">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="D81" s="26">
         <v>45566</v>
       </c>
       <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
@@ -4990,15 +4806,15 @@
       <c r="M81" s="25"/>
       <c r="N81" s="26"/>
       <c r="O81" s="28"/>
-      <c r="P81" s="29"/>
+      <c r="P81" s="26"/>
       <c r="Q81" s="29"/>
       <c r="R81" s="29"/>
       <c r="S81" s="25"/>
       <c r="T81" s="26"/>
       <c r="U81" s="24"/>
       <c r="V81" s="43">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>580</v>
       </c>
       <c r="X81" s="31"/>
       <c r="Y81" s="31"/>
@@ -5007,15 +4823,12 @@
       </c>
     </row>
     <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
+      <c r="A82" s="23"/>
       <c r="B82" s="24" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C82" s="25">
-        <v>706</v>
+        <v>360</v>
       </c>
       <c r="D82" s="26">
         <v>45566</v>
@@ -5025,46 +4838,41 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="27"/>
+      <c r="J82" s="29"/>
       <c r="K82" s="25"/>
       <c r="L82" s="26"/>
       <c r="M82" s="25"/>
       <c r="N82" s="26"/>
       <c r="O82" s="28"/>
-      <c r="P82" s="26"/>
+      <c r="P82" s="29"/>
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
       <c r="S82" s="25"/>
       <c r="T82" s="26"/>
       <c r="U82" s="24"/>
       <c r="V82" s="43">
-        <f t="shared" si="5"/>
-        <v>706</v>
-      </c>
-      <c r="X82" s="32" t="s">
-        <v>172</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
       <c r="AA82" s="46" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
+      <c r="A83" s="23"/>
       <c r="B83" s="24" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C83" s="25">
-        <v>1130</v>
+        <v>230</v>
       </c>
       <c r="D83" s="26">
         <v>45566</v>
       </c>
       <c r="E83" s="25"/>
-      <c r="F83" s="27"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
@@ -5074,15 +4882,15 @@
       <c r="M83" s="25"/>
       <c r="N83" s="26"/>
       <c r="O83" s="28"/>
-      <c r="P83" s="29"/>
+      <c r="P83" s="26"/>
       <c r="Q83" s="29"/>
       <c r="R83" s="29"/>
       <c r="S83" s="25"/>
       <c r="T83" s="26"/>
       <c r="U83" s="24"/>
       <c r="V83" s="43">
-        <f t="shared" si="5"/>
-        <v>1130</v>
+        <f t="shared" si="3"/>
+        <v>230</v>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
@@ -5091,15 +4899,12 @@
       </c>
     </row>
     <row r="84" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
+      <c r="A84" s="23"/>
       <c r="B84" s="24" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C84" s="25">
-        <v>2118</v>
+        <v>900</v>
       </c>
       <c r="D84" s="26">
         <v>45566</v>
@@ -5115,35 +4920,29 @@
       <c r="M84" s="25"/>
       <c r="N84" s="26"/>
       <c r="O84" s="28"/>
-      <c r="P84" s="29"/>
+      <c r="P84" s="26"/>
       <c r="Q84" s="29"/>
       <c r="R84" s="29"/>
       <c r="S84" s="25"/>
       <c r="T84" s="26"/>
       <c r="U84" s="24"/>
       <c r="V84" s="43">
-        <f t="shared" si="5"/>
-        <v>2118</v>
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
-      <c r="Z84" t="s">
-        <v>172</v>
-      </c>
       <c r="AA84" s="46" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
+      <c r="A85" s="23"/>
       <c r="B85" s="24" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C85" s="25">
-        <v>1130</v>
+        <v>706</v>
       </c>
       <c r="D85" s="26">
         <v>45566</v>
@@ -5166,33 +4965,28 @@
       <c r="T85" s="26"/>
       <c r="U85" s="24"/>
       <c r="V85" s="43">
-        <f t="shared" si="5"/>
-        <v>1130</v>
-      </c>
-      <c r="X85" s="32" t="s">
-        <v>172</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>706</v>
+      </c>
+      <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
       <c r="AA85" s="46" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
-        <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
+      <c r="A86" s="23"/>
       <c r="B86" s="24" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="C86" s="25">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="D86" s="26">
         <v>45566</v>
       </c>
       <c r="E86" s="25"/>
-      <c r="F86" s="27"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
@@ -5202,42 +4996,42 @@
       <c r="M86" s="25"/>
       <c r="N86" s="26"/>
       <c r="O86" s="28"/>
-      <c r="P86" s="26"/>
+      <c r="P86" s="29"/>
       <c r="Q86" s="29"/>
       <c r="R86" s="29"/>
       <c r="S86" s="25"/>
       <c r="T86" s="26"/>
       <c r="U86" s="24"/>
       <c r="V86" s="43">
-        <f t="shared" si="5"/>
-        <v>580</v>
+        <f t="shared" si="3"/>
+        <v>350</v>
       </c>
       <c r="X86" s="31"/>
       <c r="Y86" s="31"/>
+      <c r="Z86" t="s">
+        <v>172</v>
+      </c>
       <c r="AA86" s="46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
-        <f t="shared" ref="A87:A95" si="6">A86+1</f>
-        <v>85</v>
-      </c>
+      <c r="A87" s="23"/>
       <c r="B87" s="24" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="C87" s="25">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="D87" s="26">
         <v>45566</v>
       </c>
       <c r="E87" s="25"/>
-      <c r="F87" s="27"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="29"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="25"/>
       <c r="L87" s="26"/>
       <c r="M87" s="25"/>
@@ -5250,31 +5044,28 @@
       <c r="T87" s="26"/>
       <c r="U87" s="24"/>
       <c r="V87" s="43">
-        <f t="shared" si="5"/>
-        <v>360</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="X87" s="31"/>
       <c r="Y87" s="31"/>
       <c r="AA87" s="46" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
-        <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
+      <c r="A88" s="23"/>
       <c r="B88" s="24" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C88" s="25">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="D88" s="26">
         <v>45566</v>
       </c>
       <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
@@ -5284,32 +5075,29 @@
       <c r="M88" s="25"/>
       <c r="N88" s="26"/>
       <c r="O88" s="28"/>
-      <c r="P88" s="26"/>
+      <c r="P88" s="29"/>
       <c r="Q88" s="29"/>
       <c r="R88" s="29"/>
       <c r="S88" s="25"/>
       <c r="T88" s="26"/>
       <c r="U88" s="24"/>
       <c r="V88" s="43">
-        <f t="shared" si="5"/>
-        <v>230</v>
+        <f t="shared" si="3"/>
+        <v>580</v>
       </c>
       <c r="X88" s="31"/>
       <c r="Y88" s="31"/>
       <c r="AA88" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
+      <c r="A89" s="23"/>
       <c r="B89" s="24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C89" s="25">
-        <v>900</v>
+        <v>1130</v>
       </c>
       <c r="D89" s="26">
         <v>45566</v>
@@ -5325,38 +5113,38 @@
       <c r="M89" s="25"/>
       <c r="N89" s="26"/>
       <c r="O89" s="28"/>
-      <c r="P89" s="26"/>
+      <c r="P89" s="29"/>
       <c r="Q89" s="29"/>
       <c r="R89" s="29"/>
       <c r="S89" s="25"/>
       <c r="T89" s="26"/>
       <c r="U89" s="24"/>
       <c r="V89" s="43">
-        <f t="shared" si="5"/>
-        <v>900</v>
+        <f t="shared" si="3"/>
+        <v>1130</v>
       </c>
       <c r="X89" s="31"/>
       <c r="Y89" s="31"/>
+      <c r="Z89" t="s">
+        <v>172</v>
+      </c>
       <c r="AA89" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
+      <c r="A90" s="23"/>
       <c r="B90" s="24" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C90" s="25">
-        <v>706</v>
+        <v>580</v>
       </c>
       <c r="D90" s="26">
         <v>45566</v>
       </c>
       <c r="E90" s="25"/>
-      <c r="F90" s="27"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
@@ -5366,267 +5154,72 @@
       <c r="M90" s="25"/>
       <c r="N90" s="26"/>
       <c r="O90" s="28"/>
-      <c r="P90" s="26"/>
+      <c r="P90" s="29"/>
       <c r="Q90" s="29"/>
       <c r="R90" s="29"/>
       <c r="S90" s="25"/>
       <c r="T90" s="26"/>
       <c r="U90" s="24"/>
       <c r="V90" s="43">
-        <f t="shared" si="5"/>
-        <v>706</v>
+        <f t="shared" si="3"/>
+        <v>580</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="AA90" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="25">
-        <v>350</v>
-      </c>
-      <c r="D91" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="37">
+        <f>SUM(C2:C90)</f>
+        <v>76585</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="26"/>
       <c r="I91" s="25"/>
       <c r="J91" s="27"/>
-      <c r="K91" s="25"/>
+      <c r="K91" s="30"/>
       <c r="L91" s="26"/>
       <c r="M91" s="25"/>
       <c r="N91" s="26"/>
-      <c r="O91" s="28"/>
+      <c r="O91" s="30"/>
       <c r="P91" s="29"/>
       <c r="Q91" s="29"/>
       <c r="R91" s="29"/>
-      <c r="S91" s="25"/>
+      <c r="S91" s="30">
+        <f>SUM(S2:S90)</f>
+        <v>-284</v>
+      </c>
       <c r="T91" s="26"/>
       <c r="U91" s="24"/>
       <c r="V91" s="43">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="X91" s="31"/>
-      <c r="Y91" s="31"/>
-      <c r="Z91" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA91" s="46" t="s">
-        <v>275</v>
+        <f>C91+F91+H91+J91+P91+R91+S91+M91+E91</f>
+        <v>76301</v>
       </c>
     </row>
     <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="C92" s="25">
-        <v>700</v>
-      </c>
-      <c r="D92" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="24"/>
-      <c r="V92" s="43">
-        <f t="shared" si="5"/>
-        <v>700</v>
-      </c>
-      <c r="X92" s="31"/>
-      <c r="Y92" s="31"/>
-      <c r="AA92" s="46" t="s">
-        <v>281</v>
-      </c>
+      <c r="A92" s="23"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="25">
-        <v>580</v>
-      </c>
-      <c r="D93" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="28"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="24"/>
-      <c r="V93" s="43">
-        <f t="shared" si="5"/>
-        <v>580</v>
-      </c>
-      <c r="X93" s="31"/>
-      <c r="Y93" s="31"/>
-      <c r="AA93" s="46" t="s">
-        <v>276</v>
-      </c>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="25">
-        <v>1130</v>
-      </c>
-      <c r="D94" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E94" s="25"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="26"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="43">
-        <f t="shared" si="5"/>
-        <v>1130</v>
-      </c>
-      <c r="X94" s="31"/>
-      <c r="Y94" s="31"/>
-      <c r="Z94" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA94" s="46" t="s">
-        <v>277</v>
-      </c>
+      <c r="K94" s="40"/>
     </row>
     <row r="95" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" s="25">
-        <v>580</v>
-      </c>
-      <c r="D95" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="25"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="25"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="24"/>
-      <c r="V95" s="43">
-        <f t="shared" si="5"/>
-        <v>580</v>
-      </c>
-      <c r="X95" s="31"/>
-      <c r="Y95" s="31"/>
-      <c r="AA95" s="46" t="s">
-        <v>278</v>
-      </c>
+      <c r="K95" s="40"/>
     </row>
     <row r="96" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="C96" s="37">
-        <f>SUM(C2:C95)</f>
-        <v>81301</v>
-      </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="25"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="30">
-        <f>SUM(S2:S95)</f>
-        <v>-131</v>
-      </c>
-      <c r="T96" s="26"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="43">
-        <f>C96+F96+H96+J96+P96+R96+S96+M96+E96</f>
-        <v>81170</v>
-      </c>
+      <c r="K96" s="40"/>
     </row>
     <row r="97" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K97" s="40"/>
@@ -6063,21 +5656,11 @@
     <row r="241" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K241" s="40"/>
     </row>
-    <row r="242" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K242" s="40"/>
-    </row>
-    <row r="243" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K243" s="40"/>
-    </row>
-    <row r="244" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K244" s="40"/>
-    </row>
-    <row r="245" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K245" s="40"/>
-    </row>
-    <row r="246" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K246" s="40"/>
-    </row>
+    <row r="242" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145D701-9994-4D68-A0CF-ADBB0C5F4FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009230BF-E1D0-4CD8-9303-9F919589A52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="278">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>AMH REP. E INTERMEDIAÇÃO DE NEGOCIOS LTDA</t>
+  </si>
+  <si>
+    <t>ALTERACAO</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1494,8 @@
   <dimension ref="A1:AA246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,12 +3943,16 @@
       <c r="P59" s="29"/>
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
-      <c r="S59" s="25"/>
+      <c r="S59" s="25">
+        <v>1200</v>
+      </c>
       <c r="T59" s="27"/>
-      <c r="U59" s="24"/>
+      <c r="U59" s="24" t="s">
+        <v>277</v>
+      </c>
       <c r="V59" s="43">
         <f t="shared" si="2"/>
-        <v>2824</v>
+        <v>4024</v>
       </c>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
@@ -5196,13 +5203,13 @@
       <c r="R91" s="29"/>
       <c r="S91" s="30">
         <f>SUM(S2:S90)</f>
-        <v>-284</v>
+        <v>916</v>
       </c>
       <c r="T91" s="26"/>
       <c r="U91" s="24"/>
       <c r="V91" s="43">
         <f>C91+F91+H91+J91+P91+R91+S91+M91+E91</f>
-        <v>76301</v>
+        <v>77501</v>
       </c>
     </row>
     <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009230BF-E1D0-4CD8-9303-9F919589A52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0780A-3ED3-4888-AEAB-97B06A405B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="281">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -858,6 +858,15 @@
   </si>
   <si>
     <t>ALTERACAO</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>tem cpf</t>
+  </si>
+  <si>
+    <t>733.342.789.72</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1186,6 +1195,7 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,11 +1501,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA246"/>
+  <dimension ref="A1:AC246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S60" sqref="S60"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1538,7 @@
     <col min="28" max="105" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
         <v>147</v>
@@ -1608,8 +1618,14 @@
       <c r="AA1" s="45" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1691,7 +1707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1733,7 +1749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -1773,7 +1789,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -1816,7 +1832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -1860,7 +1876,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -1902,7 +1918,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <f t="shared" ref="A9:A20" si="1">A8+1</f>
         <v>8</v>
@@ -1945,7 +1961,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1988,7 +2004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2032,7 +2048,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2076,7 +2092,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2120,7 +2136,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2170,7 +2186,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2214,7 +2230,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3527,7 +3543,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="24" t="s">
         <v>80</v>
@@ -3565,7 +3581,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24" t="s">
         <v>82</v>
@@ -3605,7 +3621,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24" t="s">
         <v>83</v>
@@ -3643,7 +3659,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
         <v>85</v>
@@ -3683,7 +3699,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="24" t="s">
         <v>86</v>
@@ -3724,7 +3740,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24" t="s">
         <v>88</v>
@@ -3764,7 +3780,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="24" t="s">
         <v>89</v>
@@ -3804,7 +3820,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
         <v>90</v>
@@ -3842,7 +3858,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="24" t="s">
         <v>91</v>
@@ -3880,7 +3896,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="24" t="s">
         <v>92</v>
@@ -3905,20 +3921,30 @@
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
-      <c r="S58" s="25"/>
+      <c r="S58" s="25">
+        <v>600</v>
+      </c>
       <c r="T58" s="26"/>
-      <c r="U58" s="24"/>
+      <c r="U58" s="24" t="s">
+        <v>277</v>
+      </c>
       <c r="V58" s="43">
         <f t="shared" si="2"/>
-        <v>890</v>
+        <v>1490</v>
       </c>
       <c r="X58" s="31"/>
       <c r="Y58" s="31"/>
       <c r="Z58" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB58" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
         <v>93</v>
@@ -3944,7 +3970,7 @@
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
       <c r="S59" s="25">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T59" s="27"/>
       <c r="U59" s="24" t="s">
@@ -3952,7 +3978,7 @@
       </c>
       <c r="V59" s="43">
         <f t="shared" si="2"/>
-        <v>4024</v>
+        <v>3424</v>
       </c>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
@@ -3963,7 +3989,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="24" t="s">
         <v>95</v>
@@ -4004,7 +4030,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="24" t="s">
         <v>97</v>
@@ -4045,7 +4071,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24" t="s">
         <v>241</v>
@@ -4083,7 +4109,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="24" t="s">
         <v>100</v>
@@ -4121,7 +4147,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="24" t="s">
         <v>103</v>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0780A-3ED3-4888-AEAB-97B06A405B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120A0366-77A7-4E91-8675-1BAD7EB7A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,6 +1179,14 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1188,14 +1196,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1503,9 +1503,9 @@
   </sheetPr>
   <dimension ref="A1:AC246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC56" sqref="AC56"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W87" sqref="W87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,11 +1530,11 @@
     <col min="19" max="19" width="12.140625" style="41" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="28" max="105" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1600,7 +1600,7 @@
       <c r="U1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="46" t="s">
         <v>167</v>
       </c>
       <c r="W1" s="22" t="s">
@@ -1615,7 +1615,7 @@
       <c r="Z1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="42" t="s">
         <v>171</v>
       </c>
       <c r="AB1" s="16" t="s">
@@ -1655,7 +1655,7 @@
       <c r="S2" s="25"/>
       <c r="T2" s="26"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="43">
+      <c r="V2" s="47">
         <f t="shared" ref="V2:V32" si="0">C2+E2+G2+I2+K2+M2+O2+Q2+S2</f>
         <v>706</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="S3" s="25"/>
       <c r="T3" s="26"/>
       <c r="U3" s="24"/>
-      <c r="V3" s="43">
+      <c r="V3" s="47">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="Z3" t="s">
         <v>172</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AA3" s="43" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
       <c r="U4" s="24"/>
-      <c r="V4" s="43">
+      <c r="V4" s="47">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>172</v>
       </c>
       <c r="Y4" s="31"/>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="43" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1779,13 +1779,13 @@
       <c r="S5" s="25"/>
       <c r="T5" s="26"/>
       <c r="U5" s="24"/>
-      <c r="V5" s="43">
+      <c r="V5" s="47">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
-      <c r="AA5" s="46" t="s">
+      <c r="AA5" s="43" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       <c r="S6" s="25"/>
       <c r="T6" s="26"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="43">
+      <c r="V6" s="47">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="Z6" t="s">
         <v>172</v>
       </c>
-      <c r="AA6" s="46" t="s">
+      <c r="AA6" s="43" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1866,13 +1866,13 @@
       <c r="U7" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="47">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
-      <c r="AA7" s="46" t="s">
+      <c r="AA7" s="43" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       <c r="S8" s="25"/>
       <c r="T8" s="26"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="43">
+      <c r="V8" s="47">
         <f t="shared" si="0"/>
         <v>1095</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>172</v>
       </c>
       <c r="Y8" s="31"/>
-      <c r="AA8" s="46" t="s">
+      <c r="AA8" s="43" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="S9" s="25"/>
       <c r="T9" s="26"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="43">
+      <c r="V9" s="47">
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>172</v>
       </c>
       <c r="Y9" s="31"/>
-      <c r="AA9" s="46" t="s">
+      <c r="AA9" s="43" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="S10" s="25"/>
       <c r="T10" s="26"/>
       <c r="U10" s="24"/>
-      <c r="V10" s="43">
+      <c r="V10" s="47">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>172</v>
       </c>
       <c r="Y10" s="31"/>
-      <c r="AA10" s="46" t="s">
+      <c r="AA10" s="43" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       <c r="S11" s="25"/>
       <c r="T11" s="26"/>
       <c r="U11" s="24"/>
-      <c r="V11" s="43">
+      <c r="V11" s="47">
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="Z11" t="s">
         <v>172</v>
       </c>
-      <c r="AA11" s="46" t="s">
+      <c r="AA11" s="43" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="26"/>
       <c r="U12" s="24"/>
-      <c r="V12" s="43">
+      <c r="V12" s="47">
         <f t="shared" si="0"/>
         <v>423</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="Z12" t="s">
         <v>172</v>
       </c>
-      <c r="AA12" s="46" t="s">
+      <c r="AA12" s="43" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="24"/>
-      <c r="V13" s="43">
+      <c r="V13" s="47">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="Z13" t="s">
         <v>172</v>
       </c>
-      <c r="AA13" s="46" t="s">
+      <c r="AA13" s="43" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="U14" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="V14" s="43">
+      <c r="V14" s="47">
         <f t="shared" si="0"/>
         <v>1492</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>172</v>
       </c>
       <c r="Y14" s="31"/>
-      <c r="AA14" s="46" t="s">
+      <c r="AA14" s="43" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
       <c r="U15" s="24"/>
-      <c r="V15" s="43">
+      <c r="V15" s="47">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="Z15" t="s">
         <v>172</v>
       </c>
-      <c r="AA15" s="46" t="s">
+      <c r="AA15" s="43" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="S16" s="25"/>
       <c r="T16" s="26"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="43">
+      <c r="V16" s="47">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="Z16" t="s">
         <v>172</v>
       </c>
-      <c r="AA16" s="46" t="s">
+      <c r="AA16" s="43" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2305,13 +2305,13 @@
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="43">
+      <c r="V17" s="47">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
-      <c r="AA17" s="46" t="s">
+      <c r="AA17" s="43" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
       <c r="U18" s="24"/>
-      <c r="V18" s="43">
+      <c r="V18" s="47">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>172</v>
       </c>
       <c r="Y18" s="31"/>
-      <c r="AA18" s="46" t="s">
+      <c r="AA18" s="43" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="26"/>
       <c r="U19" s="24"/>
-      <c r="V19" s="43">
+      <c r="V19" s="47">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>172</v>
       </c>
       <c r="Y19" s="31"/>
-      <c r="AA19" s="46" t="s">
+      <c r="AA19" s="43" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2432,13 +2432,13 @@
       <c r="S20" s="25"/>
       <c r="T20" s="33"/>
       <c r="U20" s="24"/>
-      <c r="V20" s="43">
+      <c r="V20" s="47">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
-      <c r="AA20" s="46" t="s">
+      <c r="AA20" s="43" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2472,13 +2472,13 @@
       <c r="S21" s="25"/>
       <c r="T21" s="26"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="43">
+      <c r="V21" s="47">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
-      <c r="AA21" s="46" t="s">
+      <c r="AA21" s="43" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
       <c r="U22" s="24"/>
-      <c r="V22" s="43">
+      <c r="V22" s="47">
         <f t="shared" si="0"/>
         <v>2118</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>172</v>
       </c>
       <c r="Y22" s="31"/>
-      <c r="AA22" s="46" t="s">
+      <c r="AA22" s="43" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2550,13 +2550,13 @@
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
-      <c r="V23" s="43">
+      <c r="V23" s="47">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="X23" s="31"/>
       <c r="Y23" s="31"/>
-      <c r="AA23" s="46" t="s">
+      <c r="AA23" s="43" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
       <c r="U24" s="24"/>
-      <c r="V24" s="43">
+      <c r="V24" s="47">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>172</v>
       </c>
       <c r="Y24" s="31"/>
-      <c r="AA24" s="46" t="s">
+      <c r="AA24" s="43" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2628,13 +2628,13 @@
       <c r="S25" s="25"/>
       <c r="T25" s="26"/>
       <c r="U25" s="24"/>
-      <c r="V25" s="43">
+      <c r="V25" s="47">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
-      <c r="AA25" s="46" t="s">
+      <c r="AA25" s="43" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2666,13 +2666,13 @@
       <c r="S26" s="25"/>
       <c r="T26" s="26"/>
       <c r="U26" s="24"/>
-      <c r="V26" s="43">
+      <c r="V26" s="47">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
-      <c r="AA26" s="46" t="s">
+      <c r="AA26" s="43" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2704,13 +2704,13 @@
       <c r="S27" s="25"/>
       <c r="T27" s="26"/>
       <c r="U27" s="24"/>
-      <c r="V27" s="43">
+      <c r="V27" s="47">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
-      <c r="AA27" s="46" t="s">
+      <c r="AA27" s="43" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       <c r="S28" s="25"/>
       <c r="T28" s="26"/>
       <c r="U28" s="24"/>
-      <c r="V28" s="43">
+      <c r="V28" s="47">
         <f t="shared" si="0"/>
         <v>2118</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="Z28" t="s">
         <v>172</v>
       </c>
-      <c r="AA28" s="46" t="s">
+      <c r="AA28" s="43" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       <c r="S29" s="25"/>
       <c r="T29" s="26"/>
       <c r="U29" s="24"/>
-      <c r="V29" s="43">
+      <c r="V29" s="47">
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="Z29" t="s">
         <v>172</v>
       </c>
-      <c r="AA29" s="46" t="s">
+      <c r="AA29" s="43" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2824,13 +2824,13 @@
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
       <c r="U30" s="24"/>
-      <c r="V30" s="43">
+      <c r="V30" s="47">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
-      <c r="AA30" s="46" t="s">
+      <c r="AA30" s="43" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2862,13 +2862,13 @@
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
       <c r="U31" s="24"/>
-      <c r="V31" s="43">
+      <c r="V31" s="47">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
-      <c r="AA31" s="46" t="s">
+      <c r="AA31" s="43" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2900,13 +2900,13 @@
       <c r="S32" s="25"/>
       <c r="T32" s="26"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="43">
+      <c r="V32" s="47">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
-      <c r="AA32" s="47" t="s">
+      <c r="AA32" s="44" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="S33" s="25"/>
       <c r="T33" s="26"/>
       <c r="U33" s="24"/>
-      <c r="V33" s="43">
+      <c r="V33" s="47">
         <f t="shared" ref="V33:V64" si="2">C33+E33+G33+I33+K33+M33+O33+Q33+S33</f>
         <v>1412</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="Z33" t="s">
         <v>172</v>
       </c>
-      <c r="AA33" s="46" t="s">
+      <c r="AA33" s="43" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="26"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="43">
+      <c r="V34" s="47">
         <f t="shared" si="2"/>
         <v>353</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="Z34" t="s">
         <v>172</v>
       </c>
-      <c r="AA34" s="46" t="s">
+      <c r="AA34" s="43" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3020,13 +3020,13 @@
       <c r="S35" s="25"/>
       <c r="T35" s="26"/>
       <c r="U35" s="24"/>
-      <c r="V35" s="43">
+      <c r="V35" s="47">
         <f t="shared" si="2"/>
         <v>353</v>
       </c>
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
-      <c r="AA35" s="46" t="s">
+      <c r="AA35" s="43" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="U36" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="V36" s="43">
+      <c r="V36" s="47">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>172</v>
       </c>
       <c r="Y36" s="31"/>
-      <c r="AA36" s="46" t="s">
+      <c r="AA36" s="43" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3102,13 +3102,13 @@
       <c r="S37" s="25"/>
       <c r="T37" s="26"/>
       <c r="U37" s="24"/>
-      <c r="V37" s="43">
+      <c r="V37" s="47">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="X37" s="31"/>
       <c r="Y37" s="31"/>
-      <c r="AA37" s="46" t="s">
+      <c r="AA37" s="43" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3140,13 +3140,13 @@
       <c r="S38" s="25"/>
       <c r="T38" s="26"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="43">
+      <c r="V38" s="47">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
-      <c r="AA38" s="46" t="s">
+      <c r="AA38" s="43" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       <c r="U39" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="V39" s="43">
+      <c r="V39" s="47">
         <f t="shared" si="2"/>
         <v>2944</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>172</v>
       </c>
       <c r="Y39" s="31"/>
-      <c r="AA39" s="46" t="s">
+      <c r="AA39" s="43" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3222,13 +3222,13 @@
       <c r="S40" s="25"/>
       <c r="T40" s="26"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="43">
+      <c r="V40" s="47">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
-      <c r="AA40" s="46" t="s">
+      <c r="AA40" s="43" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3260,13 +3260,13 @@
       <c r="S41" s="25"/>
       <c r="T41" s="27"/>
       <c r="U41" s="24"/>
-      <c r="V41" s="43">
+      <c r="V41" s="47">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
-      <c r="AA41" s="46" t="s">
+      <c r="AA41" s="43" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3302,13 +3302,13 @@
       <c r="U42" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="V42" s="43">
+      <c r="V42" s="47">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
-      <c r="AA42" s="46" t="s">
+      <c r="AA42" s="43" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="26"/>
       <c r="U43" s="24"/>
-      <c r="V43" s="43">
+      <c r="V43" s="47">
         <f t="shared" si="2"/>
         <v>2118</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="Z43" t="s">
         <v>172</v>
       </c>
-      <c r="AA43" s="46" t="s">
+      <c r="AA43" s="43" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="26"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="43">
+      <c r="V44" s="47">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="26"/>
       <c r="U45" s="24"/>
-      <c r="V45" s="43">
+      <c r="V45" s="47">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>172</v>
       </c>
       <c r="Y45" s="31"/>
-      <c r="AA45" s="46" t="s">
+      <c r="AA45" s="43" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3458,13 +3458,13 @@
       <c r="S46" s="25"/>
       <c r="T46" s="26"/>
       <c r="U46" s="24"/>
-      <c r="V46" s="43">
+      <c r="V46" s="47">
         <f t="shared" si="2"/>
         <v>353</v>
       </c>
       <c r="X46" s="31"/>
       <c r="Y46" s="31"/>
-      <c r="AA46" s="46" t="s">
+      <c r="AA46" s="43" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3496,13 +3496,13 @@
       <c r="S47" s="25"/>
       <c r="T47" s="26"/>
       <c r="U47" s="24"/>
-      <c r="V47" s="43">
+      <c r="V47" s="47">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
-      <c r="AA47" s="46" t="s">
+      <c r="AA47" s="43" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       <c r="S48" s="25"/>
       <c r="T48" s="26"/>
       <c r="U48" s="24"/>
-      <c r="V48" s="43">
+      <c r="V48" s="47">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
@@ -3571,13 +3571,13 @@
       <c r="S49" s="25"/>
       <c r="T49" s="26"/>
       <c r="U49" s="24"/>
-      <c r="V49" s="43">
+      <c r="V49" s="47">
         <f t="shared" si="2"/>
         <v>353</v>
       </c>
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
-      <c r="AA49" s="46" t="s">
+      <c r="AA49" s="43" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       <c r="S50" s="25"/>
       <c r="T50" s="26"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="43">
+      <c r="V50" s="47">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>172</v>
       </c>
       <c r="Y50" s="31"/>
-      <c r="AA50" s="46" t="s">
+      <c r="AA50" s="43" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3649,13 +3649,13 @@
       <c r="S51" s="25"/>
       <c r="T51" s="26"/>
       <c r="U51" s="24"/>
-      <c r="V51" s="43">
+      <c r="V51" s="47">
         <f t="shared" si="2"/>
         <v>1130</v>
       </c>
       <c r="X51" s="31"/>
       <c r="Y51" s="31"/>
-      <c r="AA51" s="46" t="s">
+      <c r="AA51" s="43" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       <c r="S52" s="25"/>
       <c r="T52" s="26"/>
       <c r="U52" s="24"/>
-      <c r="V52" s="43">
+      <c r="V52" s="47">
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>172</v>
       </c>
       <c r="Y52" s="31"/>
-      <c r="AA52" s="46" t="s">
+      <c r="AA52" s="43" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="26"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="43">
+      <c r="V53" s="47">
         <f t="shared" si="2"/>
         <v>2118</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="Z53" t="s">
         <v>172</v>
       </c>
-      <c r="AA53" s="46" t="s">
+      <c r="AA53" s="43" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="26"/>
       <c r="U54" s="24"/>
-      <c r="V54" s="43">
+      <c r="V54" s="47">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="Y54" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AA54" s="46" t="s">
+      <c r="AA54" s="43" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="26"/>
       <c r="U55" s="24"/>
-      <c r="V55" s="43">
+      <c r="V55" s="47">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="Y55" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AA55" s="46" t="s">
+      <c r="AA55" s="43" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3848,13 +3848,13 @@
       <c r="S56" s="25"/>
       <c r="T56" s="26"/>
       <c r="U56" s="24"/>
-      <c r="V56" s="43">
+      <c r="V56" s="47">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="X56" s="31"/>
       <c r="Y56" s="31"/>
-      <c r="AA56" s="46" t="s">
+      <c r="AA56" s="43" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3886,13 +3886,13 @@
       <c r="S57" s="25"/>
       <c r="T57" s="26"/>
       <c r="U57" s="24"/>
-      <c r="V57" s="43">
+      <c r="V57" s="47">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="X57" s="31"/>
       <c r="Y57" s="31"/>
-      <c r="AA57" s="46" t="s">
+      <c r="AA57" s="43" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       <c r="U58" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="V58" s="43">
+      <c r="V58" s="47">
         <f t="shared" si="2"/>
         <v>1490</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="Z58" t="s">
         <v>172</v>
       </c>
-      <c r="AB58" s="48" t="s">
+      <c r="AB58" s="45" t="s">
         <v>280</v>
       </c>
       <c r="AC58" t="s">
@@ -3976,7 +3976,7 @@
       <c r="U59" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="V59" s="43">
+      <c r="V59" s="47">
         <f t="shared" si="2"/>
         <v>3424</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="Z59" t="s">
         <v>172</v>
       </c>
-      <c r="AA59" s="46" t="s">
+      <c r="AA59" s="43" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       <c r="S60" s="25"/>
       <c r="T60" s="26"/>
       <c r="U60" s="24"/>
-      <c r="V60" s="43">
+      <c r="V60" s="47">
         <f t="shared" si="2"/>
         <v>529</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="Z60" t="s">
         <v>172</v>
       </c>
-      <c r="AA60" s="46" t="s">
+      <c r="AA60" s="43" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       <c r="S61" s="25"/>
       <c r="T61" s="26"/>
       <c r="U61" s="24"/>
-      <c r="V61" s="43">
+      <c r="V61" s="47">
         <f t="shared" si="2"/>
         <v>4236</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="Z61" t="s">
         <v>172</v>
       </c>
-      <c r="AA61" s="46" t="s">
+      <c r="AA61" s="43" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4099,13 +4099,13 @@
       <c r="S62" s="25"/>
       <c r="T62" s="26"/>
       <c r="U62" s="24"/>
-      <c r="V62" s="43">
+      <c r="V62" s="47">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="X62" s="31"/>
       <c r="Y62" s="31"/>
-      <c r="AA62" s="46" t="s">
+      <c r="AA62" s="43" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4137,13 +4137,13 @@
       <c r="S63" s="25"/>
       <c r="T63" s="26"/>
       <c r="U63" s="24"/>
-      <c r="V63" s="43">
+      <c r="V63" s="47">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
       <c r="X63" s="31"/>
       <c r="Y63" s="31"/>
-      <c r="AA63" s="46" t="s">
+      <c r="AA63" s="43" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       <c r="S64" s="25"/>
       <c r="T64" s="26"/>
       <c r="U64" s="24"/>
-      <c r="V64" s="43">
+      <c r="V64" s="47">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="Z64" t="s">
         <v>172</v>
       </c>
-      <c r="AA64" s="46" t="s">
+      <c r="AA64" s="43" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4216,13 +4216,13 @@
       <c r="S65" s="25"/>
       <c r="T65" s="26"/>
       <c r="U65" s="24"/>
-      <c r="V65" s="43">
+      <c r="V65" s="47">
         <f t="shared" ref="V65:V90" si="3">C65+E65+G65+I65+K65+M65+O65+Q65+S65</f>
         <v>353</v>
       </c>
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
-      <c r="AA65" s="46" t="s">
+      <c r="AA65" s="43" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       <c r="S66" s="25"/>
       <c r="T66" s="26"/>
       <c r="U66" s="24"/>
-      <c r="V66" s="43">
+      <c r="V66" s="47">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="Z66" t="s">
         <v>172</v>
       </c>
-      <c r="AA66" s="46" t="s">
+      <c r="AA66" s="43" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4295,13 +4295,13 @@
       <c r="S67" s="25"/>
       <c r="T67" s="26"/>
       <c r="U67" s="24"/>
-      <c r="V67" s="43">
+      <c r="V67" s="47">
         <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
-      <c r="AA67" s="46" t="s">
+      <c r="AA67" s="43" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4333,13 +4333,13 @@
       <c r="S68" s="25"/>
       <c r="T68" s="26"/>
       <c r="U68" s="24"/>
-      <c r="V68" s="43">
+      <c r="V68" s="47">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
-      <c r="AA68" s="46" t="s">
+      <c r="AA68" s="43" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4371,13 +4371,13 @@
       <c r="S69" s="25"/>
       <c r="T69" s="26"/>
       <c r="U69" s="24"/>
-      <c r="V69" s="43">
+      <c r="V69" s="47">
         <f t="shared" si="3"/>
         <v>926</v>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
-      <c r="AA69" s="46" t="s">
+      <c r="AA69" s="43" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4409,13 +4409,13 @@
       <c r="S70" s="25"/>
       <c r="T70" s="26"/>
       <c r="U70" s="24"/>
-      <c r="V70" s="43">
+      <c r="V70" s="47">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="X70" s="31"/>
       <c r="Y70" s="31"/>
-      <c r="AA70" s="46" t="s">
+      <c r="AA70" s="43" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       <c r="S71" s="25"/>
       <c r="T71" s="26"/>
       <c r="U71" s="24"/>
-      <c r="V71" s="43">
+      <c r="V71" s="47">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>172</v>
       </c>
       <c r="Y71" s="31"/>
-      <c r="AA71" s="46" t="s">
+      <c r="AA71" s="43" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       <c r="S72" s="25"/>
       <c r="T72" s="26"/>
       <c r="U72" s="24"/>
-      <c r="V72" s="43">
+      <c r="V72" s="47">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>172</v>
       </c>
       <c r="Y72" s="31"/>
-      <c r="AA72" s="46" t="s">
+      <c r="AA72" s="43" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="26"/>
       <c r="U73" s="24"/>
-      <c r="V73" s="43">
+      <c r="V73" s="47">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="Z73" t="s">
         <v>172</v>
       </c>
-      <c r="AA73" s="46" t="s">
+      <c r="AA73" s="43" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4568,13 +4568,13 @@
       <c r="S74" s="25"/>
       <c r="T74" s="26"/>
       <c r="U74" s="24"/>
-      <c r="V74" s="43">
+      <c r="V74" s="47">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X74" s="31"/>
       <c r="Y74" s="31"/>
-      <c r="AA74" s="46" t="s">
+      <c r="AA74" s="43" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       <c r="S75" s="25"/>
       <c r="T75" s="26"/>
       <c r="U75" s="24"/>
-      <c r="V75" s="43">
+      <c r="V75" s="47">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="Z75" t="s">
         <v>172</v>
       </c>
-      <c r="AA75" s="46" t="s">
+      <c r="AA75" s="43" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       <c r="S76" s="25"/>
       <c r="T76" s="26"/>
       <c r="U76" s="24"/>
-      <c r="V76" s="43">
+      <c r="V76" s="47">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
@@ -4656,7 +4656,7 @@
       <c r="Z76" t="s">
         <v>172</v>
       </c>
-      <c r="AA76" s="46" t="s">
+      <c r="AA76" s="43" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4688,13 +4688,13 @@
       <c r="S77" s="25"/>
       <c r="T77" s="26"/>
       <c r="U77" s="24"/>
-      <c r="V77" s="43">
+      <c r="V77" s="47">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
-      <c r="AA77" s="46" t="s">
+      <c r="AA77" s="43" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4726,13 +4726,13 @@
       <c r="S78" s="25"/>
       <c r="T78" s="26"/>
       <c r="U78" s="24"/>
-      <c r="V78" s="43">
+      <c r="V78" s="47">
         <f t="shared" si="3"/>
         <v>1130</v>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
-      <c r="AA78" s="46" t="s">
+      <c r="AA78" s="43" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       <c r="S79" s="25"/>
       <c r="T79" s="26"/>
       <c r="U79" s="24"/>
-      <c r="V79" s="43">
+      <c r="V79" s="47">
         <f t="shared" si="3"/>
         <v>2118</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="Z79" t="s">
         <v>172</v>
       </c>
-      <c r="AA79" s="46" t="s">
+      <c r="AA79" s="43" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       <c r="S80" s="25"/>
       <c r="T80" s="26"/>
       <c r="U80" s="24"/>
-      <c r="V80" s="43">
+      <c r="V80" s="47">
         <f t="shared" si="3"/>
         <v>1130</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>172</v>
       </c>
       <c r="Y80" s="31"/>
-      <c r="AA80" s="46" t="s">
+      <c r="AA80" s="43" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4845,13 +4845,13 @@
       <c r="S81" s="25"/>
       <c r="T81" s="26"/>
       <c r="U81" s="24"/>
-      <c r="V81" s="43">
+      <c r="V81" s="47">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="X81" s="31"/>
       <c r="Y81" s="31"/>
-      <c r="AA81" s="46" t="s">
+      <c r="AA81" s="43" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4883,13 +4883,13 @@
       <c r="S82" s="25"/>
       <c r="T82" s="26"/>
       <c r="U82" s="24"/>
-      <c r="V82" s="43">
+      <c r="V82" s="47">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
-      <c r="AA82" s="46" t="s">
+      <c r="AA82" s="43" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4921,13 +4921,13 @@
       <c r="S83" s="25"/>
       <c r="T83" s="26"/>
       <c r="U83" s="24"/>
-      <c r="V83" s="43">
+      <c r="V83" s="47">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
-      <c r="AA83" s="46" t="s">
+      <c r="AA83" s="43" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4959,13 +4959,13 @@
       <c r="S84" s="25"/>
       <c r="T84" s="26"/>
       <c r="U84" s="24"/>
-      <c r="V84" s="43">
+      <c r="V84" s="47">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
-      <c r="AA84" s="46" t="s">
+      <c r="AA84" s="43" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4997,13 +4997,13 @@
       <c r="S85" s="25"/>
       <c r="T85" s="26"/>
       <c r="U85" s="24"/>
-      <c r="V85" s="43">
+      <c r="V85" s="47">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
-      <c r="AA85" s="46" t="s">
+      <c r="AA85" s="43" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="26"/>
       <c r="U86" s="24"/>
-      <c r="V86" s="43">
+      <c r="V86" s="47">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="Z86" t="s">
         <v>172</v>
       </c>
-      <c r="AA86" s="46" t="s">
+      <c r="AA86" s="43" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5076,13 +5076,13 @@
       <c r="S87" s="25"/>
       <c r="T87" s="26"/>
       <c r="U87" s="24"/>
-      <c r="V87" s="43">
+      <c r="V87" s="47">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="X87" s="31"/>
       <c r="Y87" s="31"/>
-      <c r="AA87" s="46" t="s">
+      <c r="AA87" s="43" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5114,13 +5114,13 @@
       <c r="S88" s="25"/>
       <c r="T88" s="26"/>
       <c r="U88" s="24"/>
-      <c r="V88" s="43">
+      <c r="V88" s="47">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="X88" s="31"/>
       <c r="Y88" s="31"/>
-      <c r="AA88" s="46" t="s">
+      <c r="AA88" s="43" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       <c r="S89" s="25"/>
       <c r="T89" s="26"/>
       <c r="U89" s="24"/>
-      <c r="V89" s="43">
+      <c r="V89" s="47">
         <f t="shared" si="3"/>
         <v>1130</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="Z89" t="s">
         <v>172</v>
       </c>
-      <c r="AA89" s="46" t="s">
+      <c r="AA89" s="43" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5193,13 +5193,13 @@
       <c r="S90" s="25"/>
       <c r="T90" s="26"/>
       <c r="U90" s="24"/>
-      <c r="V90" s="43">
+      <c r="V90" s="47">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
-      <c r="AA90" s="46" t="s">
+      <c r="AA90" s="43" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="T91" s="26"/>
       <c r="U91" s="24"/>
-      <c r="V91" s="43">
+      <c r="V91" s="47">
         <f>C91+F91+H91+J91+P91+R91+S91+M91+E91</f>
         <v>77501</v>
       </c>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120A0366-77A7-4E91-8675-1BAD7EB7A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE043AD-DC15-419A-8E9D-E1A5A26D0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="283">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>733.342.789.72</t>
+  </si>
+  <si>
+    <t>CONDOMINIO INGLATERRA</t>
+  </si>
+  <si>
+    <t>05.911.861/0001-45</t>
   </si>
 </sst>
 </file>
@@ -1503,9 +1509,9 @@
   </sheetPr>
   <dimension ref="A1:AC246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W87" sqref="W87"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21:AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1662,7 @@
       <c r="T2" s="26"/>
       <c r="U2" s="24"/>
       <c r="V2" s="47">
-        <f t="shared" ref="V2:V32" si="0">C2+E2+G2+I2+K2+M2+O2+Q2+S2</f>
+        <f t="shared" ref="V2:V33" si="0">C2+E2+G2+I2+K2+M2+O2+Q2+S2</f>
         <v>706</v>
       </c>
       <c r="X2" s="31"/>
@@ -2485,16 +2491,16 @@
     <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="24" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="C22" s="25">
-        <v>2118</v>
+        <v>562.5</v>
       </c>
       <c r="D22" s="26">
         <v>45566</v>
       </c>
       <c r="E22" s="25"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
@@ -2504,7 +2510,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="25"/>
@@ -2512,29 +2518,29 @@
       <c r="U22" s="24"/>
       <c r="V22" s="47">
         <f t="shared" si="0"/>
-        <v>2118</v>
-      </c>
-      <c r="X22" s="32" t="s">
+        <v>562.5</v>
+      </c>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="Y22" s="31"/>
       <c r="AA22" s="43" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="25">
-        <v>400</v>
+        <v>2118</v>
       </c>
       <c r="D23" s="26">
         <v>45566</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
@@ -2549,30 +2555,32 @@
       <c r="R23" s="29"/>
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
+      <c r="U23" s="24"/>
       <c r="V23" s="47">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="X23" s="31"/>
+        <v>2118</v>
+      </c>
+      <c r="X23" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y23" s="31"/>
       <c r="AA23" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C24" s="25">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D24" s="26">
         <v>45566</v>
       </c>
       <c r="E24" s="25"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -2582,31 +2590,29 @@
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="26"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
-      <c r="U24" s="24"/>
+      <c r="U24" s="26"/>
       <c r="V24" s="47">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="X24" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
       <c r="AA24" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="25">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="D25" s="26">
         <v>45566</v>
@@ -2622,7 +2628,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="26"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="25"/>
@@ -2630,18 +2636,20 @@
       <c r="U25" s="24"/>
       <c r="V25" s="47">
         <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
-      <c r="X25" s="31"/>
+        <v>420</v>
+      </c>
+      <c r="X25" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y25" s="31"/>
       <c r="AA25" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="25">
         <v>353</v>
@@ -2650,7 +2658,7 @@
         <v>45566</v>
       </c>
       <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -2673,22 +2681,22 @@
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="AA26" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="25">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="D27" s="26">
         <v>45566</v>
       </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -2698,7 +2706,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="26"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="26"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="25"/>
@@ -2706,21 +2714,21 @@
       <c r="U27" s="24"/>
       <c r="V27" s="47">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
       <c r="AA27" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="25">
-        <v>2118</v>
+        <v>300</v>
       </c>
       <c r="D28" s="26">
         <v>45566</v>
@@ -2730,7 +2738,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="29"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="25"/>
       <c r="L28" s="26"/>
       <c r="M28" s="25"/>
@@ -2744,24 +2752,21 @@
       <c r="U28" s="24"/>
       <c r="V28" s="47">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>300</v>
       </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
-      <c r="Z28" t="s">
-        <v>172</v>
-      </c>
       <c r="AA28" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="25">
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="D29" s="26">
         <v>45566</v>
@@ -2771,7 +2776,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="27"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="25"/>
       <c r="L29" s="26"/>
       <c r="M29" s="25"/>
@@ -2785,7 +2790,7 @@
       <c r="U29" s="24"/>
       <c r="V29" s="47">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
@@ -2793,22 +2798,22 @@
         <v>172</v>
       </c>
       <c r="AA29" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="25">
-        <v>405</v>
+        <v>1412</v>
       </c>
       <c r="D30" s="26">
         <v>45566</v>
       </c>
       <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
@@ -2818,7 +2823,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="26"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="25"/>
@@ -2826,31 +2831,34 @@
       <c r="U30" s="24"/>
       <c r="V30" s="47">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>1412</v>
       </c>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
+      <c r="Z30" t="s">
+        <v>172</v>
+      </c>
       <c r="AA30" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="C31" s="25">
-        <v>706</v>
+        <v>405</v>
       </c>
       <c r="D31" s="26">
         <v>45566</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="29"/>
+      <c r="J31" s="27"/>
       <c r="K31" s="25"/>
       <c r="L31" s="26"/>
       <c r="M31" s="25"/>
@@ -2864,21 +2872,21 @@
       <c r="U31" s="24"/>
       <c r="V31" s="47">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>405</v>
       </c>
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
       <c r="AA31" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C32" s="25">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="D32" s="26">
         <v>45566</v>
@@ -2902,21 +2910,21 @@
       <c r="U32" s="24"/>
       <c r="V32" s="47">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
-      <c r="AA32" s="44" t="s">
-        <v>208</v>
+      <c r="AA32" s="43" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="25">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D33" s="26">
         <v>45566</v>
@@ -2926,7 +2934,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="25"/>
       <c r="L33" s="26"/>
       <c r="M33" s="25"/>
@@ -2939,31 +2947,28 @@
       <c r="T33" s="26"/>
       <c r="U33" s="24"/>
       <c r="V33" s="47">
-        <f t="shared" ref="V33:V64" si="2">C33+E33+G33+I33+K33+M33+O33+Q33+S33</f>
-        <v>1412</v>
+        <f t="shared" si="0"/>
+        <v>353</v>
       </c>
       <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
-      <c r="Z33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA33" s="43" t="s">
-        <v>210</v>
+      <c r="AA33" s="44" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="C34" s="25">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D34" s="26">
         <v>45566</v>
       </c>
       <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
@@ -2980,8 +2985,8 @@
       <c r="T34" s="26"/>
       <c r="U34" s="24"/>
       <c r="V34" s="47">
-        <f t="shared" si="2"/>
-        <v>353</v>
+        <f t="shared" ref="V34:V65" si="2">C34+E34+G34+I34+K34+M34+O34+Q34+S34</f>
+        <v>1412</v>
       </c>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
@@ -2989,13 +2994,13 @@
         <v>172</v>
       </c>
       <c r="AA34" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="25">
         <v>353</v>
@@ -3026,17 +3031,20 @@
       </c>
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
+      <c r="Z35" t="s">
+        <v>172</v>
+      </c>
       <c r="AA35" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="25">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="D36" s="26">
         <v>45566</v>
@@ -3055,32 +3063,26 @@
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
-      <c r="S36" s="25">
-        <v>-125</v>
-      </c>
+      <c r="S36" s="25"/>
       <c r="T36" s="26"/>
-      <c r="U36" s="24" t="s">
-        <v>213</v>
-      </c>
+      <c r="U36" s="24"/>
       <c r="V36" s="47">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="X36" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="X36" s="31"/>
       <c r="Y36" s="31"/>
       <c r="AA36" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="34" t="s">
-        <v>215</v>
+      <c r="B37" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="25">
-        <v>706</v>
+        <v>205</v>
       </c>
       <c r="D37" s="26">
         <v>45566</v>
@@ -3099,23 +3101,29 @@
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
-      <c r="S37" s="25"/>
+      <c r="S37" s="25">
+        <v>-125</v>
+      </c>
       <c r="T37" s="26"/>
-      <c r="U37" s="24"/>
+      <c r="U37" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="V37" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
-      </c>
-      <c r="X37" s="31"/>
+        <v>80</v>
+      </c>
+      <c r="X37" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y37" s="31"/>
       <c r="AA37" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="24" t="s">
-        <v>64</v>
+      <c r="B38" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="C38" s="25">
         <v>706</v>
@@ -3124,7 +3132,7 @@
         <v>45566</v>
       </c>
       <c r="E38" s="25"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -3147,16 +3155,16 @@
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="AA38" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="25">
-        <v>2824</v>
+        <v>706</v>
       </c>
       <c r="D39" s="26">
         <v>45566</v>
@@ -3172,35 +3180,29 @@
       <c r="M39" s="25"/>
       <c r="N39" s="26"/>
       <c r="O39" s="28"/>
-      <c r="P39" s="26"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
-      <c r="S39" s="25">
-        <v>120</v>
-      </c>
+      <c r="S39" s="25"/>
       <c r="T39" s="26"/>
-      <c r="U39" s="24" t="s">
-        <v>184</v>
-      </c>
+      <c r="U39" s="24"/>
       <c r="V39" s="47">
         <f t="shared" si="2"/>
-        <v>2944</v>
-      </c>
-      <c r="X39" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="X39" s="31"/>
       <c r="Y39" s="31"/>
       <c r="AA39" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="35" t="s">
-        <v>66</v>
+      <c r="B40" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C40" s="25">
-        <v>706</v>
+        <v>2824</v>
       </c>
       <c r="D40" s="26">
         <v>45566</v>
@@ -3216,26 +3218,32 @@
       <c r="M40" s="25"/>
       <c r="N40" s="26"/>
       <c r="O40" s="28"/>
-      <c r="P40" s="29"/>
+      <c r="P40" s="26"/>
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
-      <c r="S40" s="25"/>
+      <c r="S40" s="25">
+        <v>120</v>
+      </c>
       <c r="T40" s="26"/>
-      <c r="U40" s="24"/>
+      <c r="U40" s="24" t="s">
+        <v>184</v>
+      </c>
       <c r="V40" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
-      </c>
-      <c r="X40" s="31"/>
+        <v>2944</v>
+      </c>
+      <c r="X40" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y40" s="31"/>
       <c r="AA40" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
-      <c r="B41" s="24" t="s">
-        <v>68</v>
+      <c r="B41" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="C41" s="25">
         <v>706</v>
@@ -3254,11 +3262,11 @@
       <c r="M41" s="25"/>
       <c r="N41" s="26"/>
       <c r="O41" s="28"/>
-      <c r="P41" s="26"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
       <c r="S41" s="25"/>
-      <c r="T41" s="27"/>
+      <c r="T41" s="26"/>
       <c r="U41" s="24"/>
       <c r="V41" s="47">
         <f t="shared" si="2"/>
@@ -3267,13 +3275,13 @@
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
       <c r="AA41" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="24" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="C42" s="25">
         <v>706</v>
@@ -3295,30 +3303,26 @@
       <c r="P42" s="26"/>
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
-      <c r="S42" s="25">
-        <v>-206</v>
-      </c>
+      <c r="S42" s="25"/>
       <c r="T42" s="27"/>
-      <c r="U42" s="24" t="s">
-        <v>213</v>
-      </c>
+      <c r="U42" s="24"/>
       <c r="V42" s="47">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>706</v>
       </c>
       <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
       <c r="AA42" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="24" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="C43" s="25">
-        <v>2118</v>
+        <v>706</v>
       </c>
       <c r="D43" s="26">
         <v>45566</v>
@@ -3337,35 +3341,36 @@
       <c r="P43" s="26"/>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="24"/>
+      <c r="S43" s="25">
+        <v>-206</v>
+      </c>
+      <c r="T43" s="27"/>
+      <c r="U43" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="V43" s="47">
         <f t="shared" si="2"/>
-        <v>2118</v>
+        <v>500</v>
       </c>
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
-      <c r="Z43" t="s">
-        <v>172</v>
-      </c>
       <c r="AA43" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="25">
-        <v>170</v>
+        <v>2118</v>
       </c>
       <c r="D44" s="26">
         <v>45566</v>
       </c>
       <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
@@ -3383,20 +3388,24 @@
       <c r="U44" s="24"/>
       <c r="V44" s="47">
         <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="X44" s="32" t="s">
+        <v>2118</v>
+      </c>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" t="s">
         <v>172</v>
       </c>
-      <c r="Y44" s="31"/>
+      <c r="AA44" s="43" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="24" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="C45" s="25">
-        <v>1412</v>
+        <v>170</v>
       </c>
       <c r="D45" s="26">
         <v>45566</v>
@@ -3420,23 +3429,20 @@
       <c r="U45" s="24"/>
       <c r="V45" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>170</v>
       </c>
       <c r="X45" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Y45" s="31"/>
-      <c r="AA45" s="43" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="24" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="C46" s="25">
-        <v>353</v>
+        <v>1412</v>
       </c>
       <c r="D46" s="26">
         <v>45566</v>
@@ -3460,31 +3466,33 @@
       <c r="U46" s="24"/>
       <c r="V46" s="47">
         <f t="shared" si="2"/>
-        <v>353</v>
-      </c>
-      <c r="X46" s="31"/>
+        <v>1412</v>
+      </c>
+      <c r="X46" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y46" s="31"/>
       <c r="AA46" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="25">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D47" s="26">
         <v>45566</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="29"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="25"/>
       <c r="L47" s="26"/>
       <c r="M47" s="25"/>
@@ -3498,21 +3506,21 @@
       <c r="U47" s="24"/>
       <c r="V47" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
       <c r="AA47" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="24" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="C48" s="25">
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="D48" s="26">
         <v>45566</v>
@@ -3522,7 +3530,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="27"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="25"/>
       <c r="L48" s="26"/>
       <c r="M48" s="25"/>
@@ -3536,26 +3544,27 @@
       <c r="U48" s="24"/>
       <c r="V48" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1412</v>
       </c>
       <c r="X48" s="31"/>
-      <c r="Y48" s="32" t="s">
-        <v>172</v>
+      <c r="Y48" s="31"/>
+      <c r="AA48" s="43" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="24" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="C49" s="25">
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="D49" s="26">
         <v>45566</v>
       </c>
       <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
@@ -3573,27 +3582,26 @@
       <c r="U49" s="24"/>
       <c r="V49" s="47">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>706</v>
       </c>
       <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="AA49" s="43" t="s">
-        <v>229</v>
+      <c r="Y49" s="32" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="25">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D50" s="26">
         <v>45566</v>
       </c>
       <c r="E50" s="25"/>
-      <c r="F50" s="27"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
@@ -3611,23 +3619,21 @@
       <c r="U50" s="24"/>
       <c r="V50" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
-      </c>
-      <c r="X50" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
       <c r="AA50" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="25">
-        <v>1130</v>
+        <v>1412</v>
       </c>
       <c r="D51" s="26">
         <v>45566</v>
@@ -3651,21 +3657,23 @@
       <c r="U51" s="24"/>
       <c r="V51" s="47">
         <f t="shared" si="2"/>
-        <v>1130</v>
-      </c>
-      <c r="X51" s="31"/>
+        <v>1412</v>
+      </c>
+      <c r="X51" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y51" s="31"/>
       <c r="AA51" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="25">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D52" s="26">
         <v>45566</v>
@@ -3689,23 +3697,21 @@
       <c r="U52" s="24"/>
       <c r="V52" s="47">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="X52" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="X52" s="31"/>
       <c r="Y52" s="31"/>
       <c r="AA52" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" s="25">
-        <v>2118</v>
+        <v>580</v>
       </c>
       <c r="D53" s="26">
         <v>45566</v>
@@ -3729,24 +3735,23 @@
       <c r="U53" s="24"/>
       <c r="V53" s="47">
         <f t="shared" si="2"/>
-        <v>2118</v>
-      </c>
-      <c r="X53" s="31"/>
+        <v>580</v>
+      </c>
+      <c r="X53" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y53" s="31"/>
-      <c r="Z53" t="s">
-        <v>172</v>
-      </c>
       <c r="AA53" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="25">
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="D54" s="26">
         <v>45566</v>
@@ -3770,20 +3775,21 @@
       <c r="U54" s="24"/>
       <c r="V54" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X54" s="31"/>
-      <c r="Y54" s="32" t="s">
+      <c r="Y54" s="31"/>
+      <c r="Z54" t="s">
         <v>172</v>
       </c>
       <c r="AA54" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="25">
         <v>1412</v>
@@ -3817,16 +3823,16 @@
         <v>172</v>
       </c>
       <c r="AA55" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="25">
-        <v>600</v>
+        <v>1412</v>
       </c>
       <c r="D56" s="26">
         <v>45566</v>
@@ -3850,21 +3856,23 @@
       <c r="U56" s="24"/>
       <c r="V56" s="47">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1412</v>
       </c>
       <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
+      <c r="Y56" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="AA56" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="25">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="D57" s="26">
         <v>45566</v>
@@ -3888,21 +3896,21 @@
       <c r="U57" s="24"/>
       <c r="V57" s="47">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="X57" s="31"/>
       <c r="Y57" s="31"/>
       <c r="AA57" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="25">
-        <v>890</v>
+        <v>250</v>
       </c>
       <c r="D58" s="26">
         <v>45566</v>
@@ -3912,30 +3920,26 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="29"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="25"/>
       <c r="L58" s="26"/>
       <c r="M58" s="25"/>
       <c r="N58" s="26"/>
       <c r="O58" s="28"/>
-      <c r="P58" s="29"/>
+      <c r="P58" s="26"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
-      <c r="S58" s="25">
-        <v>600</v>
-      </c>
+      <c r="S58" s="25"/>
       <c r="T58" s="26"/>
-      <c r="U58" s="24" t="s">
-        <v>277</v>
-      </c>
+      <c r="U58" s="24"/>
       <c r="V58" s="47">
         <f t="shared" si="2"/>
-        <v>1490</v>
+        <v>250</v>
       </c>
       <c r="X58" s="31"/>
       <c r="Y58" s="31"/>
-      <c r="Z58" t="s">
-        <v>172</v>
+      <c r="AA58" s="43" t="s">
+        <v>237</v>
       </c>
       <c r="AB58" s="45" t="s">
         <v>280</v>
@@ -3947,10 +3951,10 @@
     <row r="59" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="25">
-        <v>2824</v>
+        <v>890</v>
       </c>
       <c r="D59" s="26">
         <v>45566</v>
@@ -3960,7 +3964,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="27"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="25"/>
       <c r="L59" s="26"/>
       <c r="M59" s="25"/>
@@ -3972,30 +3976,27 @@
       <c r="S59" s="25">
         <v>600</v>
       </c>
-      <c r="T59" s="27"/>
+      <c r="T59" s="26"/>
       <c r="U59" s="24" t="s">
         <v>277</v>
       </c>
       <c r="V59" s="47">
         <f t="shared" si="2"/>
-        <v>3424</v>
+        <v>1490</v>
       </c>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
       <c r="Z59" t="s">
         <v>172</v>
       </c>
-      <c r="AA59" s="43" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="60" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C60" s="25">
-        <v>529</v>
+        <v>2824</v>
       </c>
       <c r="D60" s="26">
         <v>45566</v>
@@ -4014,12 +4015,16 @@
       <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="24"/>
+      <c r="S60" s="25">
+        <v>600</v>
+      </c>
+      <c r="T60" s="27"/>
+      <c r="U60" s="24" t="s">
+        <v>277</v>
+      </c>
       <c r="V60" s="47">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>3424</v>
       </c>
       <c r="X60" s="31"/>
       <c r="Y60" s="31"/>
@@ -4027,16 +4032,16 @@
         <v>172</v>
       </c>
       <c r="AA60" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C61" s="25">
-        <v>4236</v>
+        <v>529</v>
       </c>
       <c r="D61" s="26">
         <v>45566</v>
@@ -4052,7 +4057,7 @@
       <c r="M61" s="25"/>
       <c r="N61" s="26"/>
       <c r="O61" s="28"/>
-      <c r="P61" s="26"/>
+      <c r="P61" s="29"/>
       <c r="Q61" s="29"/>
       <c r="R61" s="29"/>
       <c r="S61" s="25"/>
@@ -4060,7 +4065,7 @@
       <c r="U61" s="24"/>
       <c r="V61" s="47">
         <f t="shared" si="2"/>
-        <v>4236</v>
+        <v>529</v>
       </c>
       <c r="X61" s="31"/>
       <c r="Y61" s="31"/>
@@ -4068,16 +4073,16 @@
         <v>172</v>
       </c>
       <c r="AA61" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24" t="s">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="C62" s="25">
-        <v>706</v>
+        <v>4236</v>
       </c>
       <c r="D62" s="26">
         <v>45566</v>
@@ -4101,21 +4106,24 @@
       <c r="U62" s="24"/>
       <c r="V62" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>4236</v>
       </c>
       <c r="X62" s="31"/>
       <c r="Y62" s="31"/>
+      <c r="Z62" t="s">
+        <v>172</v>
+      </c>
       <c r="AA62" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="24" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="C63" s="25">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D63" s="26">
         <v>45566</v>
@@ -4125,7 +4133,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="29"/>
+      <c r="J63" s="27"/>
       <c r="K63" s="25"/>
       <c r="L63" s="26"/>
       <c r="M63" s="25"/>
@@ -4139,21 +4147,21 @@
       <c r="U63" s="24"/>
       <c r="V63" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="X63" s="31"/>
       <c r="Y63" s="31"/>
       <c r="AA63" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C64" s="25">
-        <v>280</v>
+        <v>1412</v>
       </c>
       <c r="D64" s="26">
         <v>45566</v>
@@ -4163,7 +4171,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="27"/>
+      <c r="J64" s="29"/>
       <c r="K64" s="25"/>
       <c r="L64" s="26"/>
       <c r="M64" s="25"/>
@@ -4177,24 +4185,21 @@
       <c r="U64" s="24"/>
       <c r="V64" s="47">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>1412</v>
       </c>
       <c r="X64" s="31"/>
       <c r="Y64" s="31"/>
-      <c r="Z64" t="s">
-        <v>172</v>
-      </c>
       <c r="AA64" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C65" s="25">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="D65" s="26">
         <v>45566</v>
@@ -4210,29 +4215,32 @@
       <c r="M65" s="25"/>
       <c r="N65" s="26"/>
       <c r="O65" s="28"/>
-      <c r="P65" s="29"/>
+      <c r="P65" s="26"/>
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
       <c r="S65" s="25"/>
       <c r="T65" s="26"/>
       <c r="U65" s="24"/>
       <c r="V65" s="47">
-        <f t="shared" ref="V65:V90" si="3">C65+E65+G65+I65+K65+M65+O65+Q65+S65</f>
-        <v>353</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
+      <c r="Z65" t="s">
+        <v>172</v>
+      </c>
       <c r="AA65" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="24" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C66" s="25">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="D66" s="26">
         <v>45566</v>
@@ -4242,7 +4250,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="29"/>
+      <c r="J66" s="27"/>
       <c r="K66" s="25"/>
       <c r="L66" s="26"/>
       <c r="M66" s="25"/>
@@ -4255,35 +4263,32 @@
       <c r="T66" s="26"/>
       <c r="U66" s="24"/>
       <c r="V66" s="47">
-        <f t="shared" si="3"/>
-        <v>706</v>
+        <f t="shared" ref="V66:V91" si="3">C66+E66+G66+I66+K66+M66+O66+Q66+S66</f>
+        <v>353</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
-      <c r="Z66" t="s">
-        <v>172</v>
-      </c>
       <c r="AA66" s="43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="24" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="C67" s="25">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D67" s="26">
         <v>45566</v>
       </c>
       <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="F67" s="27"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="27"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="25"/>
       <c r="L67" s="26"/>
       <c r="M67" s="25"/>
@@ -4297,27 +4302,30 @@
       <c r="U67" s="24"/>
       <c r="V67" s="47">
         <f t="shared" si="3"/>
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
+      <c r="Z67" t="s">
+        <v>172</v>
+      </c>
       <c r="AA67" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="25">
-        <v>300</v>
+        <v>1412</v>
       </c>
       <c r="D68" s="26">
         <v>45566</v>
       </c>
       <c r="E68" s="25"/>
-      <c r="F68" s="27"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
@@ -4327,7 +4335,7 @@
       <c r="M68" s="25"/>
       <c r="N68" s="26"/>
       <c r="O68" s="28"/>
-      <c r="P68" s="26"/>
+      <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
       <c r="R68" s="29"/>
       <c r="S68" s="25"/>
@@ -4335,21 +4343,21 @@
       <c r="U68" s="24"/>
       <c r="V68" s="47">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>1412</v>
       </c>
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
       <c r="AA68" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="25">
-        <v>926</v>
+        <v>300</v>
       </c>
       <c r="D69" s="26">
         <v>45566</v>
@@ -4373,21 +4381,21 @@
       <c r="U69" s="24"/>
       <c r="V69" s="47">
         <f t="shared" si="3"/>
-        <v>926</v>
+        <v>300</v>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
       <c r="AA69" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C70" s="25">
-        <v>250</v>
+        <v>926</v>
       </c>
       <c r="D70" s="26">
         <v>45566</v>
@@ -4397,13 +4405,13 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="29"/>
+      <c r="J70" s="27"/>
       <c r="K70" s="25"/>
       <c r="L70" s="26"/>
       <c r="M70" s="25"/>
       <c r="N70" s="26"/>
       <c r="O70" s="28"/>
-      <c r="P70" s="29"/>
+      <c r="P70" s="26"/>
       <c r="Q70" s="29"/>
       <c r="R70" s="29"/>
       <c r="S70" s="25"/>
@@ -4411,37 +4419,37 @@
       <c r="U70" s="24"/>
       <c r="V70" s="47">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>926</v>
       </c>
       <c r="X70" s="31"/>
       <c r="Y70" s="31"/>
       <c r="AA70" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="25">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D71" s="26">
         <v>45566</v>
       </c>
       <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="27"/>
+      <c r="J71" s="29"/>
       <c r="K71" s="25"/>
       <c r="L71" s="26"/>
       <c r="M71" s="25"/>
       <c r="N71" s="26"/>
       <c r="O71" s="28"/>
-      <c r="P71" s="26"/>
+      <c r="P71" s="29"/>
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="25"/>
@@ -4449,39 +4457,37 @@
       <c r="U71" s="24"/>
       <c r="V71" s="47">
         <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="X71" s="32" t="s">
-        <v>172</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="AA71" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="25">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D72" s="26">
         <v>45566</v>
       </c>
       <c r="E72" s="25"/>
-      <c r="F72" s="27"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="29"/>
+      <c r="J72" s="27"/>
       <c r="K72" s="25"/>
       <c r="L72" s="26"/>
       <c r="M72" s="25"/>
       <c r="N72" s="26"/>
       <c r="O72" s="28"/>
-      <c r="P72" s="29"/>
+      <c r="P72" s="26"/>
       <c r="Q72" s="29"/>
       <c r="R72" s="29"/>
       <c r="S72" s="25"/>
@@ -4489,23 +4495,23 @@
       <c r="U72" s="24"/>
       <c r="V72" s="47">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="X72" s="32" t="s">
         <v>172</v>
       </c>
       <c r="Y72" s="31"/>
       <c r="AA72" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" s="25">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="D73" s="26">
         <v>45566</v>
@@ -4515,7 +4521,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="27"/>
+      <c r="J73" s="29"/>
       <c r="K73" s="25"/>
       <c r="L73" s="26"/>
       <c r="M73" s="25"/>
@@ -4529,30 +4535,29 @@
       <c r="U73" s="24"/>
       <c r="V73" s="47">
         <f t="shared" si="3"/>
-        <v>390</v>
-      </c>
-      <c r="X73" s="31"/>
+        <v>250</v>
+      </c>
+      <c r="X73" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y73" s="31"/>
-      <c r="Z73" t="s">
-        <v>172</v>
-      </c>
       <c r="AA73" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="25">
-        <v>706</v>
+        <v>390</v>
       </c>
       <c r="D74" s="26">
         <v>45566</v>
       </c>
       <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
+      <c r="F74" s="27"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
@@ -4570,18 +4575,21 @@
       <c r="U74" s="24"/>
       <c r="V74" s="47">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>390</v>
       </c>
       <c r="X74" s="31"/>
       <c r="Y74" s="31"/>
+      <c r="Z74" t="s">
+        <v>172</v>
+      </c>
       <c r="AA74" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="25">
         <v>706</v>
@@ -4590,7 +4598,7 @@
         <v>45566</v>
       </c>
       <c r="E75" s="25"/>
-      <c r="F75" s="27"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
@@ -4612,26 +4620,23 @@
       </c>
       <c r="X75" s="31"/>
       <c r="Y75" s="31"/>
-      <c r="Z75" t="s">
-        <v>172</v>
-      </c>
       <c r="AA75" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" s="25">
-        <v>450</v>
+        <v>706</v>
       </c>
       <c r="D76" s="26">
         <v>45566</v>
       </c>
       <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
+      <c r="F76" s="27"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
@@ -4649,7 +4654,7 @@
       <c r="U76" s="24"/>
       <c r="V76" s="47">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>706</v>
       </c>
       <c r="X76" s="31"/>
       <c r="Y76" s="31"/>
@@ -4657,16 +4662,16 @@
         <v>172</v>
       </c>
       <c r="AA76" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="24" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="C77" s="25">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D77" s="26">
         <v>45566</v>
@@ -4690,27 +4695,30 @@
       <c r="U77" s="24"/>
       <c r="V77" s="47">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
+      <c r="Z77" t="s">
+        <v>172</v>
+      </c>
       <c r="AA77" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="24" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="C78" s="25">
-        <v>1130</v>
+        <v>500</v>
       </c>
       <c r="D78" s="26">
         <v>45566</v>
       </c>
       <c r="E78" s="25"/>
-      <c r="F78" s="27"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
@@ -4728,21 +4736,21 @@
       <c r="U78" s="24"/>
       <c r="V78" s="47">
         <f t="shared" si="3"/>
-        <v>1130</v>
+        <v>500</v>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
       <c r="AA78" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C79" s="25">
-        <v>2118</v>
+        <v>1130</v>
       </c>
       <c r="D79" s="26">
         <v>45566</v>
@@ -4766,24 +4774,21 @@
       <c r="U79" s="24"/>
       <c r="V79" s="47">
         <f t="shared" si="3"/>
-        <v>2118</v>
+        <v>1130</v>
       </c>
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
-      <c r="Z79" t="s">
-        <v>172</v>
-      </c>
       <c r="AA79" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C80" s="25">
-        <v>1130</v>
+        <v>2118</v>
       </c>
       <c r="D80" s="26">
         <v>45566</v>
@@ -4799,7 +4804,7 @@
       <c r="M80" s="25"/>
       <c r="N80" s="26"/>
       <c r="O80" s="28"/>
-      <c r="P80" s="26"/>
+      <c r="P80" s="29"/>
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="25"/>
@@ -4807,23 +4812,24 @@
       <c r="U80" s="24"/>
       <c r="V80" s="47">
         <f t="shared" si="3"/>
-        <v>1130</v>
-      </c>
-      <c r="X80" s="32" t="s">
+        <v>2118</v>
+      </c>
+      <c r="X80" s="31"/>
+      <c r="Y80" s="31"/>
+      <c r="Z80" t="s">
         <v>172</v>
       </c>
-      <c r="Y80" s="31"/>
       <c r="AA80" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="24" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="C81" s="25">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D81" s="26">
         <v>45566</v>
@@ -4847,21 +4853,23 @@
       <c r="U81" s="24"/>
       <c r="V81" s="47">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="X81" s="31"/>
+        <v>1130</v>
+      </c>
+      <c r="X81" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="Y81" s="31"/>
       <c r="AA81" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="24" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="C82" s="25">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="D82" s="26">
         <v>45566</v>
@@ -4871,13 +4879,13 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="29"/>
+      <c r="J82" s="27"/>
       <c r="K82" s="25"/>
       <c r="L82" s="26"/>
       <c r="M82" s="25"/>
       <c r="N82" s="26"/>
       <c r="O82" s="28"/>
-      <c r="P82" s="29"/>
+      <c r="P82" s="26"/>
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
       <c r="S82" s="25"/>
@@ -4885,37 +4893,37 @@
       <c r="U82" s="24"/>
       <c r="V82" s="47">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
       <c r="AA82" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="25">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="D83" s="26">
         <v>45566</v>
       </c>
       <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="F83" s="27"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="27"/>
+      <c r="J83" s="29"/>
       <c r="K83" s="25"/>
       <c r="L83" s="26"/>
       <c r="M83" s="25"/>
       <c r="N83" s="26"/>
       <c r="O83" s="28"/>
-      <c r="P83" s="26"/>
+      <c r="P83" s="29"/>
       <c r="Q83" s="29"/>
       <c r="R83" s="29"/>
       <c r="S83" s="25"/>
@@ -4923,27 +4931,27 @@
       <c r="U83" s="24"/>
       <c r="V83" s="47">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
       <c r="AA83" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="25">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="D84" s="26">
         <v>45566</v>
       </c>
       <c r="E84" s="25"/>
-      <c r="F84" s="27"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
@@ -4961,21 +4969,21 @@
       <c r="U84" s="24"/>
       <c r="V84" s="47">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="AA84" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C85" s="25">
-        <v>706</v>
+        <v>900</v>
       </c>
       <c r="D85" s="26">
         <v>45566</v>
@@ -4999,27 +5007,27 @@
       <c r="U85" s="24"/>
       <c r="V85" s="47">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>900</v>
       </c>
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
       <c r="AA85" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="25">
-        <v>350</v>
+        <v>706</v>
       </c>
       <c r="D86" s="26">
         <v>45566</v>
       </c>
       <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
@@ -5029,7 +5037,7 @@
       <c r="M86" s="25"/>
       <c r="N86" s="26"/>
       <c r="O86" s="28"/>
-      <c r="P86" s="29"/>
+      <c r="P86" s="26"/>
       <c r="Q86" s="29"/>
       <c r="R86" s="29"/>
       <c r="S86" s="25"/>
@@ -5037,24 +5045,21 @@
       <c r="U86" s="24"/>
       <c r="V86" s="47">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>706</v>
       </c>
       <c r="X86" s="31"/>
       <c r="Y86" s="31"/>
-      <c r="Z86" t="s">
-        <v>172</v>
-      </c>
       <c r="AA86" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="24" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="C87" s="25">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D87" s="26">
         <v>45566</v>
@@ -5078,27 +5083,30 @@
       <c r="U87" s="24"/>
       <c r="V87" s="47">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="X87" s="31"/>
       <c r="Y87" s="31"/>
+      <c r="Z87" t="s">
+        <v>172</v>
+      </c>
       <c r="AA87" s="43" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="24" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="C88" s="25">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="D88" s="26">
         <v>45566</v>
       </c>
       <c r="E88" s="25"/>
-      <c r="F88" s="27"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
@@ -5116,21 +5124,21 @@
       <c r="U88" s="24"/>
       <c r="V88" s="47">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="X88" s="31"/>
       <c r="Y88" s="31"/>
       <c r="AA88" s="43" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C89" s="25">
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="D89" s="26">
         <v>45566</v>
@@ -5154,30 +5162,27 @@
       <c r="U89" s="24"/>
       <c r="V89" s="47">
         <f t="shared" si="3"/>
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="X89" s="31"/>
       <c r="Y89" s="31"/>
-      <c r="Z89" t="s">
-        <v>172</v>
-      </c>
       <c r="AA89" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C90" s="25">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D90" s="26">
         <v>45566</v>
       </c>
       <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
+      <c r="F90" s="27"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
@@ -5195,52 +5200,89 @@
       <c r="U90" s="24"/>
       <c r="V90" s="47">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
+      <c r="Z90" t="s">
+        <v>172</v>
+      </c>
       <c r="AA90" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
-      <c r="B91" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" s="37">
-        <f>SUM(C2:C90)</f>
-        <v>76585</v>
-      </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="26"/>
+      <c r="B91" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="25">
+        <v>580</v>
+      </c>
+      <c r="D91" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="27"/>
-      <c r="K91" s="30"/>
+      <c r="K91" s="25"/>
       <c r="L91" s="26"/>
       <c r="M91" s="25"/>
       <c r="N91" s="26"/>
-      <c r="O91" s="30"/>
+      <c r="O91" s="28"/>
       <c r="P91" s="29"/>
       <c r="Q91" s="29"/>
       <c r="R91" s="29"/>
-      <c r="S91" s="30">
-        <f>SUM(S2:S90)</f>
-        <v>916</v>
-      </c>
+      <c r="S91" s="25"/>
       <c r="T91" s="26"/>
       <c r="U91" s="24"/>
       <c r="V91" s="47">
-        <f>C91+F91+H91+J91+P91+R91+S91+M91+E91</f>
-        <v>77501</v>
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="X91" s="31"/>
+      <c r="Y91" s="31"/>
+      <c r="AA91" s="43" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
-      <c r="K92" s="40"/>
+      <c r="B92" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="37">
+        <f>SUM(C2:C91)</f>
+        <v>77147.5</v>
+      </c>
+      <c r="D92" s="26"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="30">
+        <f>SUM(S2:S91)</f>
+        <v>916</v>
+      </c>
+      <c r="T92" s="26"/>
+      <c r="U92" s="24"/>
+      <c r="V92" s="47">
+        <f>C92+F92+H92+J92+P92+R92+S92+M92+E92</f>
+        <v>78063.5</v>
+      </c>
     </row>
     <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K93" s="40"/>
@@ -5689,7 +5731,9 @@
     <row r="241" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K241" s="40"/>
     </row>
-    <row r="242" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K242" s="40"/>
+    </row>
     <row r="243" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE043AD-DC15-419A-8E9D-E1A5A26D0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D185FB63-79B5-48AB-9B92-61B25899DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="282">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -855,9 +855,6 @@
   </si>
   <si>
     <t>AMH REP. E INTERMEDIAÇÃO DE NEGOCIOS LTDA</t>
-  </si>
-  <si>
-    <t>ALTERACAO</t>
   </si>
   <si>
     <t>CPF</t>
@@ -1509,9 +1506,9 @@
   </sheetPr>
   <dimension ref="A1:AC246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21:AA22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,10 +1622,10 @@
         <v>171</v>
       </c>
       <c r="AB1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC1" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1644,7 +1641,9 @@
       <c r="D2" s="26">
         <v>45566</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="25">
+        <v>353</v>
+      </c>
       <c r="F2" s="27"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
@@ -1663,7 +1662,7 @@
       <c r="U2" s="24"/>
       <c r="V2" s="47">
         <f t="shared" ref="V2:V33" si="0">C2+E2+G2+I2+K2+M2+O2+Q2+S2</f>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X2" s="31"/>
       <c r="Y2" s="32" t="s">
@@ -1683,7 +1682,9 @@
       <c r="D3" s="26">
         <v>45566</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25">
+        <v>160</v>
+      </c>
       <c r="F3" s="27"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -1702,7 +1703,7 @@
       <c r="U3" s="24"/>
       <c r="V3" s="47">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
@@ -1726,7 +1727,9 @@
       <c r="D4" s="26">
         <v>45566</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25">
+        <v>575</v>
+      </c>
       <c r="F4" s="27"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -1745,7 +1748,7 @@
       <c r="U4" s="24"/>
       <c r="V4" s="47">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>1725</v>
       </c>
       <c r="X4" s="32" t="s">
         <v>172</v>
@@ -1768,7 +1771,9 @@
       <c r="D5" s="26">
         <v>45566</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25">
+        <v>155</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -1787,7 +1792,7 @@
       <c r="U5" s="24"/>
       <c r="V5" s="47">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
@@ -1808,7 +1813,9 @@
       <c r="D6" s="26">
         <v>45566</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25">
+        <v>495</v>
+      </c>
       <c r="F6" s="27"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -1827,7 +1834,7 @@
       <c r="U6" s="24"/>
       <c r="V6" s="47">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>1485</v>
       </c>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
@@ -1851,7 +1858,9 @@
       <c r="D7" s="26">
         <v>45566</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F7" s="27"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -1874,7 +1883,7 @@
       </c>
       <c r="V7" s="47">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>376.5</v>
       </c>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
@@ -1895,7 +1904,9 @@
       <c r="D8" s="26">
         <v>45566</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25">
+        <v>547.5</v>
+      </c>
       <c r="F8" s="27"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1914,7 +1925,7 @@
       <c r="U8" s="24"/>
       <c r="V8" s="47">
         <f t="shared" si="0"/>
-        <v>1095</v>
+        <v>1642.5</v>
       </c>
       <c r="X8" s="32" t="s">
         <v>172</v>
@@ -1938,7 +1949,9 @@
       <c r="D9" s="26">
         <v>45566</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25">
+        <v>706</v>
+      </c>
       <c r="F9" s="27"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1957,7 +1970,7 @@
       <c r="U9" s="24"/>
       <c r="V9" s="47">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X9" s="32" t="s">
         <v>172</v>
@@ -1981,7 +1994,9 @@
       <c r="D10" s="26">
         <v>45566</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25">
+        <v>353</v>
+      </c>
       <c r="F10" s="27"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -2000,7 +2015,7 @@
       <c r="U10" s="24"/>
       <c r="V10" s="47">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X10" s="32" t="s">
         <v>172</v>
@@ -2024,7 +2039,9 @@
       <c r="D11" s="26">
         <v>45566</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25">
+        <v>585</v>
+      </c>
       <c r="F11" s="27"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -2043,7 +2060,7 @@
       <c r="U11" s="24"/>
       <c r="V11" s="47">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>1755</v>
       </c>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
@@ -2068,7 +2085,9 @@
       <c r="D12" s="26">
         <v>45566</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25">
+        <v>211.5</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -2087,7 +2106,7 @@
       <c r="U12" s="24"/>
       <c r="V12" s="47">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>634.5</v>
       </c>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
@@ -2112,7 +2131,9 @@
       <c r="D13" s="26">
         <v>45566</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -2131,7 +2152,7 @@
       <c r="U13" s="24"/>
       <c r="V13" s="47">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
@@ -2156,7 +2177,9 @@
       <c r="D14" s="26">
         <v>45566</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25">
+        <v>706</v>
+      </c>
       <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -2170,16 +2193,12 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="29"/>
-      <c r="S14" s="25">
-        <v>80</v>
-      </c>
+      <c r="S14" s="25"/>
       <c r="T14" s="26"/>
-      <c r="U14" s="24" t="s">
-        <v>184</v>
-      </c>
+      <c r="U14" s="24"/>
       <c r="V14" s="47">
         <f t="shared" si="0"/>
-        <v>1492</v>
+        <v>2118</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>185</v>
@@ -2206,7 +2225,9 @@
       <c r="D15" s="26">
         <v>45566</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25">
+        <v>145</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -2225,7 +2246,7 @@
       <c r="U15" s="24"/>
       <c r="V15" s="47">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>435</v>
       </c>
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
@@ -2250,7 +2271,9 @@
       <c r="D16" s="26">
         <v>45566</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25">
+        <v>495</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -2269,7 +2292,7 @@
       <c r="U16" s="24"/>
       <c r="V16" s="47">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>1485</v>
       </c>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
@@ -2294,7 +2317,9 @@
       <c r="D17" s="26">
         <v>45566</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25">
+        <v>160</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -2313,7 +2338,7 @@
       <c r="U17" s="24"/>
       <c r="V17" s="47">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -2335,7 +2360,9 @@
       <c r="D18" s="26">
         <v>45566</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="25">
+        <v>325</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -2354,7 +2381,7 @@
       <c r="U18" s="24"/>
       <c r="V18" s="47">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>975</v>
       </c>
       <c r="X18" s="32" t="s">
         <v>172</v>
@@ -2378,7 +2405,9 @@
       <c r="D19" s="26">
         <v>45566</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25">
+        <v>353</v>
+      </c>
       <c r="F19" s="27"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -2397,7 +2426,7 @@
       <c r="U19" s="24"/>
       <c r="V19" s="47">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X19" s="32" t="s">
         <v>172</v>
@@ -2421,7 +2450,9 @@
       <c r="D20" s="26">
         <v>45566</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="25">
+        <v>353</v>
+      </c>
       <c r="F20" s="27"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -2440,7 +2471,7 @@
       <c r="U20" s="24"/>
       <c r="V20" s="47">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
@@ -2461,7 +2492,9 @@
       <c r="D21" s="26">
         <v>45566</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="25">
+        <v>375</v>
+      </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -2480,7 +2513,7 @@
       <c r="U21" s="24"/>
       <c r="V21" s="47">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
@@ -2491,7 +2524,7 @@
     <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C22" s="25">
         <v>562.5</v>
@@ -2499,7 +2532,9 @@
       <c r="D22" s="26">
         <v>45566</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="25">
+        <v>281.25</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -2518,14 +2553,14 @@
       <c r="U22" s="24"/>
       <c r="V22" s="47">
         <f t="shared" si="0"/>
-        <v>562.5</v>
+        <v>843.75</v>
       </c>
       <c r="X22" s="31"/>
       <c r="Y22" s="31" t="s">
         <v>172</v>
       </c>
       <c r="AA22" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2574,9 @@
       <c r="D23" s="26">
         <v>45566</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="25">
+        <v>1059</v>
+      </c>
       <c r="F23" s="27"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -2558,7 +2595,7 @@
       <c r="U23" s="24"/>
       <c r="V23" s="47">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>3177</v>
       </c>
       <c r="X23" s="32" t="s">
         <v>172</v>
@@ -2579,7 +2616,9 @@
       <c r="D24" s="26">
         <v>45566</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25">
+        <v>200</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -2598,7 +2637,7 @@
       <c r="U24" s="26"/>
       <c r="V24" s="47">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
@@ -2617,7 +2656,9 @@
       <c r="D25" s="26">
         <v>45566</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="25">
+        <v>210</v>
+      </c>
       <c r="F25" s="27"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -2636,7 +2677,7 @@
       <c r="U25" s="24"/>
       <c r="V25" s="47">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>630</v>
       </c>
       <c r="X25" s="32" t="s">
         <v>172</v>
@@ -2657,7 +2698,9 @@
       <c r="D26" s="26">
         <v>45566</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F26" s="27"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -2676,7 +2719,7 @@
       <c r="U26" s="24"/>
       <c r="V26" s="47">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
@@ -2695,7 +2738,9 @@
       <c r="D27" s="26">
         <v>45566</v>
       </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -2714,7 +2759,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="47">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
@@ -2733,7 +2778,9 @@
       <c r="D28" s="26">
         <v>45566</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="25">
+        <v>150</v>
+      </c>
       <c r="F28" s="27"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -2752,7 +2799,7 @@
       <c r="U28" s="24"/>
       <c r="V28" s="47">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
@@ -2771,7 +2818,9 @@
       <c r="D29" s="26">
         <v>45566</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="25">
+        <v>1059</v>
+      </c>
       <c r="F29" s="27"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -2790,7 +2839,7 @@
       <c r="U29" s="24"/>
       <c r="V29" s="47">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>3177</v>
       </c>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
@@ -2812,7 +2861,9 @@
       <c r="D30" s="26">
         <v>45566</v>
       </c>
-      <c r="E30" s="25"/>
+      <c r="E30" s="25">
+        <v>706</v>
+      </c>
       <c r="F30" s="27"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -2831,7 +2882,7 @@
       <c r="U30" s="24"/>
       <c r="V30" s="47">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
@@ -2853,7 +2904,9 @@
       <c r="D31" s="26">
         <v>45566</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="25">
+        <v>202.5</v>
+      </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -2872,7 +2925,7 @@
       <c r="U31" s="24"/>
       <c r="V31" s="47">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>607.5</v>
       </c>
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
@@ -2891,7 +2944,9 @@
       <c r="D32" s="26">
         <v>45566</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="25">
+        <v>353</v>
+      </c>
       <c r="F32" s="27"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -2910,7 +2965,7 @@
       <c r="U32" s="24"/>
       <c r="V32" s="47">
         <f t="shared" si="0"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
@@ -2929,7 +2984,9 @@
       <c r="D33" s="26">
         <v>45566</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F33" s="27"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -2948,7 +3005,7 @@
       <c r="U33" s="24"/>
       <c r="V33" s="47">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
@@ -2967,7 +3024,9 @@
       <c r="D34" s="26">
         <v>45566</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="25">
+        <v>706</v>
+      </c>
       <c r="F34" s="27"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -2986,7 +3045,7 @@
       <c r="U34" s="24"/>
       <c r="V34" s="47">
         <f t="shared" ref="V34:V65" si="2">C34+E34+G34+I34+K34+M34+O34+Q34+S34</f>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
@@ -3008,7 +3067,9 @@
       <c r="D35" s="26">
         <v>45566</v>
       </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -3027,7 +3088,7 @@
       <c r="U35" s="24"/>
       <c r="V35" s="47">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
@@ -3049,7 +3110,9 @@
       <c r="D36" s="26">
         <v>45566</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -3068,7 +3131,7 @@
       <c r="U36" s="24"/>
       <c r="V36" s="47">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X36" s="31"/>
       <c r="Y36" s="31"/>
@@ -3087,7 +3150,9 @@
       <c r="D37" s="26">
         <v>45566</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="25">
+        <v>102.5</v>
+      </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
@@ -3110,7 +3175,7 @@
       </c>
       <c r="V37" s="47">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>182.5</v>
       </c>
       <c r="X37" s="32" t="s">
         <v>172</v>
@@ -3131,7 +3196,9 @@
       <c r="D38" s="26">
         <v>45566</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="25">
+        <v>353</v>
+      </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -3150,7 +3217,7 @@
       <c r="U38" s="24"/>
       <c r="V38" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
@@ -3169,7 +3236,9 @@
       <c r="D39" s="26">
         <v>45566</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="25">
+        <v>353</v>
+      </c>
       <c r="F39" s="27"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -3188,7 +3257,7 @@
       <c r="U39" s="24"/>
       <c r="V39" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X39" s="31"/>
       <c r="Y39" s="31"/>
@@ -3207,7 +3276,9 @@
       <c r="D40" s="26">
         <v>45566</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="25">
+        <v>1412</v>
+      </c>
       <c r="F40" s="27"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
@@ -3221,16 +3292,12 @@
       <c r="P40" s="26"/>
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
-      <c r="S40" s="25">
-        <v>120</v>
-      </c>
+      <c r="S40" s="25"/>
       <c r="T40" s="26"/>
-      <c r="U40" s="24" t="s">
-        <v>184</v>
-      </c>
+      <c r="U40" s="24"/>
       <c r="V40" s="47">
         <f t="shared" si="2"/>
-        <v>2944</v>
+        <v>4236</v>
       </c>
       <c r="X40" s="32" t="s">
         <v>172</v>
@@ -3251,7 +3318,9 @@
       <c r="D41" s="26">
         <v>45566</v>
       </c>
-      <c r="E41" s="25"/>
+      <c r="E41" s="25">
+        <v>353</v>
+      </c>
       <c r="F41" s="27"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -3270,7 +3339,7 @@
       <c r="U41" s="24"/>
       <c r="V41" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
@@ -3289,7 +3358,9 @@
       <c r="D42" s="26">
         <v>45566</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="25">
+        <v>353</v>
+      </c>
       <c r="F42" s="27"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
@@ -3308,7 +3379,7 @@
       <c r="U42" s="24"/>
       <c r="V42" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
@@ -3327,7 +3398,9 @@
       <c r="D43" s="26">
         <v>45566</v>
       </c>
-      <c r="E43" s="25"/>
+      <c r="E43" s="25">
+        <v>353</v>
+      </c>
       <c r="F43" s="27"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -3341,16 +3414,12 @@
       <c r="P43" s="26"/>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
-      <c r="S43" s="25">
-        <v>-206</v>
-      </c>
+      <c r="S43" s="25"/>
       <c r="T43" s="27"/>
-      <c r="U43" s="24" t="s">
-        <v>213</v>
-      </c>
+      <c r="U43" s="24"/>
       <c r="V43" s="47">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1059</v>
       </c>
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
@@ -3369,7 +3438,9 @@
       <c r="D44" s="26">
         <v>45566</v>
       </c>
-      <c r="E44" s="25"/>
+      <c r="E44" s="25">
+        <v>1059</v>
+      </c>
       <c r="F44" s="27"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
@@ -3388,7 +3459,7 @@
       <c r="U44" s="24"/>
       <c r="V44" s="47">
         <f t="shared" si="2"/>
-        <v>2118</v>
+        <v>3177</v>
       </c>
       <c r="X44" s="31"/>
       <c r="Y44" s="31"/>
@@ -3410,7 +3481,9 @@
       <c r="D45" s="26">
         <v>45566</v>
       </c>
-      <c r="E45" s="25"/>
+      <c r="E45" s="25">
+        <v>85</v>
+      </c>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -3429,7 +3502,7 @@
       <c r="U45" s="24"/>
       <c r="V45" s="47">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="X45" s="32" t="s">
         <v>172</v>
@@ -3447,7 +3520,9 @@
       <c r="D46" s="26">
         <v>45566</v>
       </c>
-      <c r="E46" s="25"/>
+      <c r="E46" s="25">
+        <v>706</v>
+      </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
@@ -3466,7 +3541,7 @@
       <c r="U46" s="24"/>
       <c r="V46" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X46" s="32" t="s">
         <v>172</v>
@@ -3487,7 +3562,9 @@
       <c r="D47" s="26">
         <v>45566</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -3506,7 +3583,7 @@
       <c r="U47" s="24"/>
       <c r="V47" s="47">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
@@ -3525,7 +3602,9 @@
       <c r="D48" s="26">
         <v>45566</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="25">
+        <v>706</v>
+      </c>
       <c r="F48" s="27"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -3544,7 +3623,7 @@
       <c r="U48" s="24"/>
       <c r="V48" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X48" s="31"/>
       <c r="Y48" s="31"/>
@@ -3563,7 +3642,9 @@
       <c r="D49" s="26">
         <v>45566</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="25">
+        <v>353</v>
+      </c>
       <c r="F49" s="27"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -3582,7 +3663,7 @@
       <c r="U49" s="24"/>
       <c r="V49" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X49" s="31"/>
       <c r="Y49" s="32" t="s">
@@ -3600,7 +3681,9 @@
       <c r="D50" s="26">
         <v>45566</v>
       </c>
-      <c r="E50" s="25"/>
+      <c r="E50" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -3619,7 +3702,7 @@
       <c r="U50" s="24"/>
       <c r="V50" s="47">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
@@ -3638,7 +3721,9 @@
       <c r="D51" s="26">
         <v>45566</v>
       </c>
-      <c r="E51" s="25"/>
+      <c r="E51" s="25">
+        <v>706</v>
+      </c>
       <c r="F51" s="27"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -3657,7 +3742,7 @@
       <c r="U51" s="24"/>
       <c r="V51" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X51" s="32" t="s">
         <v>172</v>
@@ -3678,7 +3763,9 @@
       <c r="D52" s="26">
         <v>45566</v>
       </c>
-      <c r="E52" s="25"/>
+      <c r="E52" s="25">
+        <v>565</v>
+      </c>
       <c r="F52" s="27"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -3697,7 +3784,7 @@
       <c r="U52" s="24"/>
       <c r="V52" s="47">
         <f t="shared" si="2"/>
-        <v>1130</v>
+        <v>1695</v>
       </c>
       <c r="X52" s="31"/>
       <c r="Y52" s="31"/>
@@ -3716,7 +3803,9 @@
       <c r="D53" s="26">
         <v>45566</v>
       </c>
-      <c r="E53" s="25"/>
+      <c r="E53" s="25">
+        <v>290</v>
+      </c>
       <c r="F53" s="27"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -3735,7 +3824,7 @@
       <c r="U53" s="24"/>
       <c r="V53" s="47">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>870</v>
       </c>
       <c r="X53" s="32" t="s">
         <v>172</v>
@@ -3756,7 +3845,9 @@
       <c r="D54" s="26">
         <v>45566</v>
       </c>
-      <c r="E54" s="25"/>
+      <c r="E54" s="25">
+        <v>1059</v>
+      </c>
       <c r="F54" s="27"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
@@ -3775,7 +3866,7 @@
       <c r="U54" s="24"/>
       <c r="V54" s="47">
         <f t="shared" si="2"/>
-        <v>2118</v>
+        <v>3177</v>
       </c>
       <c r="X54" s="31"/>
       <c r="Y54" s="31"/>
@@ -3797,7 +3888,9 @@
       <c r="D55" s="26">
         <v>45566</v>
       </c>
-      <c r="E55" s="25"/>
+      <c r="E55" s="25">
+        <v>706</v>
+      </c>
       <c r="F55" s="27"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -3816,7 +3909,7 @@
       <c r="U55" s="24"/>
       <c r="V55" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X55" s="31"/>
       <c r="Y55" s="32" t="s">
@@ -3837,7 +3930,9 @@
       <c r="D56" s="26">
         <v>45566</v>
       </c>
-      <c r="E56" s="25"/>
+      <c r="E56" s="25">
+        <v>706</v>
+      </c>
       <c r="F56" s="27"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
@@ -3856,7 +3951,7 @@
       <c r="U56" s="24"/>
       <c r="V56" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X56" s="31"/>
       <c r="Y56" s="32" t="s">
@@ -3877,7 +3972,9 @@
       <c r="D57" s="26">
         <v>45566</v>
       </c>
-      <c r="E57" s="25"/>
+      <c r="E57" s="25">
+        <v>300</v>
+      </c>
       <c r="F57" s="27"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -3896,7 +3993,7 @@
       <c r="U57" s="24"/>
       <c r="V57" s="47">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="X57" s="31"/>
       <c r="Y57" s="31"/>
@@ -3915,7 +4012,9 @@
       <c r="D58" s="26">
         <v>45566</v>
       </c>
-      <c r="E58" s="25"/>
+      <c r="E58" s="25">
+        <v>125</v>
+      </c>
       <c r="F58" s="27"/>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -3934,7 +4033,7 @@
       <c r="U58" s="24"/>
       <c r="V58" s="47">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="X58" s="31"/>
       <c r="Y58" s="31"/>
@@ -3942,7 +4041,7 @@
         <v>237</v>
       </c>
       <c r="AB58" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC58" t="s">
         <v>172</v>
@@ -3959,7 +4058,9 @@
       <c r="D59" s="26">
         <v>45566</v>
       </c>
-      <c r="E59" s="25"/>
+      <c r="E59" s="25">
+        <v>445</v>
+      </c>
       <c r="F59" s="27"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -3973,16 +4074,12 @@
       <c r="P59" s="29"/>
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
-      <c r="S59" s="25">
-        <v>600</v>
-      </c>
+      <c r="S59" s="25"/>
       <c r="T59" s="26"/>
-      <c r="U59" s="24" t="s">
-        <v>277</v>
-      </c>
+      <c r="U59" s="24"/>
       <c r="V59" s="47">
         <f t="shared" si="2"/>
-        <v>1490</v>
+        <v>1335</v>
       </c>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
@@ -4001,7 +4098,9 @@
       <c r="D60" s="26">
         <v>45566</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="25">
+        <v>1412</v>
+      </c>
       <c r="F60" s="27"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -4015,16 +4114,12 @@
       <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
-      <c r="S60" s="25">
-        <v>600</v>
-      </c>
+      <c r="S60" s="25"/>
       <c r="T60" s="27"/>
-      <c r="U60" s="24" t="s">
-        <v>277</v>
-      </c>
+      <c r="U60" s="24"/>
       <c r="V60" s="47">
         <f t="shared" si="2"/>
-        <v>3424</v>
+        <v>4236</v>
       </c>
       <c r="X60" s="31"/>
       <c r="Y60" s="31"/>
@@ -4046,7 +4141,9 @@
       <c r="D61" s="26">
         <v>45566</v>
       </c>
-      <c r="E61" s="25"/>
+      <c r="E61" s="25">
+        <v>264.5</v>
+      </c>
       <c r="F61" s="27"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -4065,7 +4162,7 @@
       <c r="U61" s="24"/>
       <c r="V61" s="47">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>793.5</v>
       </c>
       <c r="X61" s="31"/>
       <c r="Y61" s="31"/>
@@ -4087,7 +4184,9 @@
       <c r="D62" s="26">
         <v>45566</v>
       </c>
-      <c r="E62" s="25"/>
+      <c r="E62" s="25">
+        <v>2118</v>
+      </c>
       <c r="F62" s="27"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -4106,7 +4205,7 @@
       <c r="U62" s="24"/>
       <c r="V62" s="47">
         <f t="shared" si="2"/>
-        <v>4236</v>
+        <v>6354</v>
       </c>
       <c r="X62" s="31"/>
       <c r="Y62" s="31"/>
@@ -4128,7 +4227,9 @@
       <c r="D63" s="26">
         <v>45566</v>
       </c>
-      <c r="E63" s="25"/>
+      <c r="E63" s="25">
+        <v>353</v>
+      </c>
       <c r="F63" s="27"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -4147,7 +4248,7 @@
       <c r="U63" s="24"/>
       <c r="V63" s="47">
         <f t="shared" si="2"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X63" s="31"/>
       <c r="Y63" s="31"/>
@@ -4166,7 +4267,9 @@
       <c r="D64" s="26">
         <v>45566</v>
       </c>
-      <c r="E64" s="25"/>
+      <c r="E64" s="25">
+        <v>706</v>
+      </c>
       <c r="F64" s="27"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -4180,12 +4283,16 @@
       <c r="P64" s="26"/>
       <c r="Q64" s="29"/>
       <c r="R64" s="29"/>
-      <c r="S64" s="25"/>
+      <c r="S64" s="25">
+        <v>120</v>
+      </c>
       <c r="T64" s="26"/>
-      <c r="U64" s="24"/>
+      <c r="U64" s="24" t="s">
+        <v>184</v>
+      </c>
       <c r="V64" s="47">
         <f t="shared" si="2"/>
-        <v>1412</v>
+        <v>2238</v>
       </c>
       <c r="X64" s="31"/>
       <c r="Y64" s="31"/>
@@ -4204,7 +4311,9 @@
       <c r="D65" s="26">
         <v>45566</v>
       </c>
-      <c r="E65" s="25"/>
+      <c r="E65" s="25">
+        <v>140</v>
+      </c>
       <c r="F65" s="27"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -4223,7 +4332,7 @@
       <c r="U65" s="24"/>
       <c r="V65" s="47">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
@@ -4245,7 +4354,9 @@
       <c r="D66" s="26">
         <v>45566</v>
       </c>
-      <c r="E66" s="25"/>
+      <c r="E66" s="25">
+        <v>176.5</v>
+      </c>
       <c r="F66" s="27"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -4264,7 +4375,7 @@
       <c r="U66" s="24"/>
       <c r="V66" s="47">
         <f t="shared" ref="V66:V91" si="3">C66+E66+G66+I66+K66+M66+O66+Q66+S66</f>
-        <v>353</v>
+        <v>529.5</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
@@ -4283,7 +4394,9 @@
       <c r="D67" s="26">
         <v>45566</v>
       </c>
-      <c r="E67" s="25"/>
+      <c r="E67" s="25">
+        <v>353</v>
+      </c>
       <c r="F67" s="27"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -4302,7 +4415,7 @@
       <c r="U67" s="24"/>
       <c r="V67" s="47">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
@@ -4324,7 +4437,9 @@
       <c r="D68" s="26">
         <v>45566</v>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="25">
+        <v>706</v>
+      </c>
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -4343,7 +4458,7 @@
       <c r="U68" s="24"/>
       <c r="V68" s="47">
         <f t="shared" si="3"/>
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
@@ -4362,7 +4477,9 @@
       <c r="D69" s="26">
         <v>45566</v>
       </c>
-      <c r="E69" s="25"/>
+      <c r="E69" s="25">
+        <v>150</v>
+      </c>
       <c r="F69" s="27"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -4381,7 +4498,7 @@
       <c r="U69" s="24"/>
       <c r="V69" s="47">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
@@ -4395,12 +4512,14 @@
         <v>113</v>
       </c>
       <c r="C70" s="25">
-        <v>926</v>
+        <v>176</v>
       </c>
       <c r="D70" s="26">
         <v>45566</v>
       </c>
-      <c r="E70" s="25"/>
+      <c r="E70" s="25">
+        <v>88</v>
+      </c>
       <c r="F70" s="27"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -4419,7 +4538,7 @@
       <c r="U70" s="24"/>
       <c r="V70" s="47">
         <f t="shared" si="3"/>
-        <v>926</v>
+        <v>264</v>
       </c>
       <c r="X70" s="31"/>
       <c r="Y70" s="31"/>
@@ -4438,7 +4557,9 @@
       <c r="D71" s="26">
         <v>45566</v>
       </c>
-      <c r="E71" s="25"/>
+      <c r="E71" s="25">
+        <v>125</v>
+      </c>
       <c r="F71" s="27"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -4457,7 +4578,7 @@
       <c r="U71" s="24"/>
       <c r="V71" s="47">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
@@ -4476,7 +4597,9 @@
       <c r="D72" s="26">
         <v>45566</v>
       </c>
-      <c r="E72" s="25"/>
+      <c r="E72" s="25">
+        <v>200</v>
+      </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -4495,7 +4618,7 @@
       <c r="U72" s="24"/>
       <c r="V72" s="47">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X72" s="32" t="s">
         <v>172</v>
@@ -4516,7 +4639,9 @@
       <c r="D73" s="26">
         <v>45566</v>
       </c>
-      <c r="E73" s="25"/>
+      <c r="E73" s="25">
+        <v>125</v>
+      </c>
       <c r="F73" s="27"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -4535,7 +4660,7 @@
       <c r="U73" s="24"/>
       <c r="V73" s="47">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="X73" s="32" t="s">
         <v>172</v>
@@ -4556,7 +4681,9 @@
       <c r="D74" s="26">
         <v>45566</v>
       </c>
-      <c r="E74" s="25"/>
+      <c r="E74" s="25">
+        <v>195</v>
+      </c>
       <c r="F74" s="27"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -4575,7 +4702,7 @@
       <c r="U74" s="24"/>
       <c r="V74" s="47">
         <f t="shared" si="3"/>
-        <v>390</v>
+        <v>585</v>
       </c>
       <c r="X74" s="31"/>
       <c r="Y74" s="31"/>
@@ -4597,7 +4724,9 @@
       <c r="D75" s="26">
         <v>45566</v>
       </c>
-      <c r="E75" s="25"/>
+      <c r="E75" s="25">
+        <v>353</v>
+      </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -4616,7 +4745,7 @@
       <c r="U75" s="24"/>
       <c r="V75" s="47">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X75" s="31"/>
       <c r="Y75" s="31"/>
@@ -4635,7 +4764,9 @@
       <c r="D76" s="26">
         <v>45566</v>
       </c>
-      <c r="E76" s="25"/>
+      <c r="E76" s="25">
+        <v>353</v>
+      </c>
       <c r="F76" s="27"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -4654,7 +4785,7 @@
       <c r="U76" s="24"/>
       <c r="V76" s="47">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X76" s="31"/>
       <c r="Y76" s="31"/>
@@ -4676,7 +4807,9 @@
       <c r="D77" s="26">
         <v>45566</v>
       </c>
-      <c r="E77" s="25"/>
+      <c r="E77" s="25">
+        <v>225</v>
+      </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -4695,7 +4828,7 @@
       <c r="U77" s="24"/>
       <c r="V77" s="47">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
@@ -4717,7 +4850,9 @@
       <c r="D78" s="26">
         <v>45566</v>
       </c>
-      <c r="E78" s="25"/>
+      <c r="E78" s="25">
+        <v>250</v>
+      </c>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -4736,7 +4871,7 @@
       <c r="U78" s="24"/>
       <c r="V78" s="47">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
@@ -4755,7 +4890,9 @@
       <c r="D79" s="26">
         <v>45566</v>
       </c>
-      <c r="E79" s="25"/>
+      <c r="E79" s="25">
+        <v>565</v>
+      </c>
       <c r="F79" s="27"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -4774,7 +4911,7 @@
       <c r="U79" s="24"/>
       <c r="V79" s="47">
         <f t="shared" si="3"/>
-        <v>1130</v>
+        <v>1695</v>
       </c>
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
@@ -4793,7 +4930,9 @@
       <c r="D80" s="26">
         <v>45566</v>
       </c>
-      <c r="E80" s="25"/>
+      <c r="E80" s="25">
+        <v>1059</v>
+      </c>
       <c r="F80" s="27"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
@@ -4812,7 +4951,7 @@
       <c r="U80" s="24"/>
       <c r="V80" s="47">
         <f t="shared" si="3"/>
-        <v>2118</v>
+        <v>3177</v>
       </c>
       <c r="X80" s="31"/>
       <c r="Y80" s="31"/>
@@ -4834,7 +4973,9 @@
       <c r="D81" s="26">
         <v>45566</v>
       </c>
-      <c r="E81" s="25"/>
+      <c r="E81" s="25">
+        <v>565</v>
+      </c>
       <c r="F81" s="27"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
@@ -4853,7 +4994,7 @@
       <c r="U81" s="24"/>
       <c r="V81" s="47">
         <f t="shared" si="3"/>
-        <v>1130</v>
+        <v>1695</v>
       </c>
       <c r="X81" s="32" t="s">
         <v>172</v>
@@ -4874,7 +5015,9 @@
       <c r="D82" s="26">
         <v>45566</v>
       </c>
-      <c r="E82" s="25"/>
+      <c r="E82" s="25">
+        <v>290</v>
+      </c>
       <c r="F82" s="27"/>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -4893,7 +5036,7 @@
       <c r="U82" s="24"/>
       <c r="V82" s="47">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>870</v>
       </c>
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
@@ -4912,7 +5055,9 @@
       <c r="D83" s="26">
         <v>45566</v>
       </c>
-      <c r="E83" s="25"/>
+      <c r="E83" s="25">
+        <v>180</v>
+      </c>
       <c r="F83" s="27"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -4931,7 +5076,7 @@
       <c r="U83" s="24"/>
       <c r="V83" s="47">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
@@ -4950,7 +5095,9 @@
       <c r="D84" s="26">
         <v>45566</v>
       </c>
-      <c r="E84" s="25"/>
+      <c r="E84" s="25">
+        <v>115</v>
+      </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -4969,7 +5116,7 @@
       <c r="U84" s="24"/>
       <c r="V84" s="47">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
@@ -4988,7 +5135,9 @@
       <c r="D85" s="26">
         <v>45566</v>
       </c>
-      <c r="E85" s="25"/>
+      <c r="E85" s="25">
+        <v>450</v>
+      </c>
       <c r="F85" s="27"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
@@ -5007,7 +5156,7 @@
       <c r="U85" s="24"/>
       <c r="V85" s="47">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
@@ -5026,7 +5175,9 @@
       <c r="D86" s="26">
         <v>45566</v>
       </c>
-      <c r="E86" s="25"/>
+      <c r="E86" s="25">
+        <v>353</v>
+      </c>
       <c r="F86" s="27"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
@@ -5045,7 +5196,7 @@
       <c r="U86" s="24"/>
       <c r="V86" s="47">
         <f t="shared" si="3"/>
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="X86" s="31"/>
       <c r="Y86" s="31"/>
@@ -5064,7 +5215,9 @@
       <c r="D87" s="26">
         <v>45566</v>
       </c>
-      <c r="E87" s="25"/>
+      <c r="E87" s="25">
+        <v>175</v>
+      </c>
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
@@ -5083,7 +5236,7 @@
       <c r="U87" s="24"/>
       <c r="V87" s="47">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="X87" s="31"/>
       <c r="Y87" s="31"/>
@@ -5105,7 +5258,9 @@
       <c r="D88" s="26">
         <v>45566</v>
       </c>
-      <c r="E88" s="25"/>
+      <c r="E88" s="25">
+        <v>350</v>
+      </c>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
@@ -5124,7 +5279,7 @@
       <c r="U88" s="24"/>
       <c r="V88" s="47">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="X88" s="31"/>
       <c r="Y88" s="31"/>
@@ -5143,7 +5298,9 @@
       <c r="D89" s="26">
         <v>45566</v>
       </c>
-      <c r="E89" s="25"/>
+      <c r="E89" s="25">
+        <v>290</v>
+      </c>
       <c r="F89" s="27"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
@@ -5162,7 +5319,7 @@
       <c r="U89" s="24"/>
       <c r="V89" s="47">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>870</v>
       </c>
       <c r="X89" s="31"/>
       <c r="Y89" s="31"/>
@@ -5181,7 +5338,9 @@
       <c r="D90" s="26">
         <v>45566</v>
       </c>
-      <c r="E90" s="25"/>
+      <c r="E90" s="25">
+        <v>565</v>
+      </c>
       <c r="F90" s="27"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
@@ -5200,7 +5359,7 @@
       <c r="U90" s="24"/>
       <c r="V90" s="47">
         <f t="shared" si="3"/>
-        <v>1130</v>
+        <v>1695</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
@@ -5222,7 +5381,9 @@
       <c r="D91" s="26">
         <v>45566</v>
       </c>
-      <c r="E91" s="25"/>
+      <c r="E91" s="25">
+        <v>290</v>
+      </c>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
@@ -5241,7 +5402,7 @@
       <c r="U91" s="24"/>
       <c r="V91" s="47">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>870</v>
       </c>
       <c r="X91" s="31"/>
       <c r="Y91" s="31"/>
@@ -5256,7 +5417,7 @@
       </c>
       <c r="C92" s="37">
         <f>SUM(C2:C91)</f>
-        <v>77147.5</v>
+        <v>76397.5</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="30"/>
@@ -5275,13 +5436,13 @@
       <c r="R92" s="29"/>
       <c r="S92" s="30">
         <f>SUM(S2:S91)</f>
-        <v>916</v>
+        <v>-158</v>
       </c>
       <c r="T92" s="26"/>
       <c r="U92" s="24"/>
       <c r="V92" s="47">
         <f>C92+F92+H92+J92+P92+R92+S92+M92+E92</f>
-        <v>78063.5</v>
+        <v>76239.5</v>
       </c>
     </row>
     <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D185FB63-79B5-48AB-9B92-61B25899DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3522D8-381A-491B-98F3-CBA2DC001EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="285">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -476,15 +476,9 @@
     <t>REF</t>
   </si>
   <si>
-    <t>DIRF</t>
-  </si>
-  <si>
     <t>REF2</t>
   </si>
   <si>
-    <t>RAIS</t>
-  </si>
-  <si>
     <t>REF3</t>
   </si>
   <si>
@@ -870,6 +864,21 @@
   </si>
   <si>
     <t>05.911.861/0001-45</t>
+  </si>
+  <si>
+    <t>VCTO</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>25/12/2024</t>
+  </si>
+  <si>
+    <t>vcto</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1197,6 +1206,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1504,11 +1525,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC246"/>
+  <dimension ref="A1:AD246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U65" sqref="U65"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1540,7 @@
     <col min="4" max="4" width="6.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="52" customWidth="1"/>
     <col min="8" max="9" width="12.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
@@ -1541,7 +1562,7 @@
     <col min="28" max="105" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
         <v>147</v>
@@ -1552,83 +1573,86 @@
       <c r="D1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="18">
+        <v>13</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="46" t="s">
         <v>165</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="V1" s="46" t="s">
-        <v>167</v>
       </c>
       <c r="W1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="X1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="AA1" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="Z1" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA1" s="42" t="s">
-        <v>171</v>
-      </c>
       <c r="AB1" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1645,7 +1669,7 @@
         <v>353</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="25"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="27"/>
@@ -1666,10 +1690,13 @@
       </c>
       <c r="X2" s="31"/>
       <c r="Y2" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="AD2" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1686,7 +1713,7 @@
         <v>160</v>
       </c>
       <c r="F3" s="27"/>
-      <c r="G3" s="25"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="27"/>
@@ -1708,13 +1735,16 @@
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
       <c r="Z3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA3" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="AD3" s="50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1731,7 +1761,7 @@
         <v>575</v>
       </c>
       <c r="F4" s="27"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="27"/>
@@ -1751,14 +1781,17 @@
         <v>1725</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y4" s="31"/>
       <c r="AA4" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="AD4" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -1775,7 +1808,7 @@
         <v>155</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="27"/>
@@ -1797,10 +1830,13 @@
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
       <c r="AA5" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="AD5" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -1817,7 +1853,7 @@
         <v>495</v>
       </c>
       <c r="F6" s="27"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="29"/>
@@ -1839,18 +1875,21 @@
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
       <c r="Z6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA6" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="AD6" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="25">
         <v>353</v>
@@ -1862,7 +1901,7 @@
         <v>176.5</v>
       </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="27"/>
@@ -1879,7 +1918,7 @@
       </c>
       <c r="T7" s="26"/>
       <c r="U7" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V7" s="47">
         <f t="shared" si="0"/>
@@ -1888,10 +1927,13 @@
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
       <c r="AA7" s="43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="AD7" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -1908,7 +1950,7 @@
         <v>547.5</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="27"/>
@@ -1928,14 +1970,17 @@
         <v>1642.5</v>
       </c>
       <c r="X8" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y8" s="31"/>
       <c r="AA8" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="AD8" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <f t="shared" ref="A9:A20" si="1">A8+1</f>
         <v>8</v>
@@ -1953,7 +1998,7 @@
         <v>706</v>
       </c>
       <c r="F9" s="27"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="27"/>
@@ -1973,14 +2018,17 @@
         <v>2118</v>
       </c>
       <c r="X9" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y9" s="31"/>
       <c r="AA9" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="AD9" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1998,7 +2046,7 @@
         <v>353</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="27"/>
@@ -2018,14 +2066,17 @@
         <v>1059</v>
       </c>
       <c r="X10" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y10" s="31"/>
       <c r="AA10" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="AD10" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2043,7 +2094,7 @@
         <v>585</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="27"/>
@@ -2065,13 +2116,16 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA11" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="AD11" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2089,7 +2143,7 @@
         <v>211.5</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="29"/>
@@ -2111,13 +2165,16 @@
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
       <c r="Z12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA12" s="43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="AD12" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2135,7 +2192,7 @@
         <v>176.5</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="27"/>
@@ -2157,13 +2214,16 @@
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
       <c r="Z13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA13" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="AD13" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2181,7 +2241,7 @@
         <v>706</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="27"/>
@@ -2201,23 +2261,26 @@
         <v>2118</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X14" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y14" s="31"/>
       <c r="AA14" s="43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="AD14" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C15" s="25">
         <v>290</v>
@@ -2229,7 +2292,7 @@
         <v>145</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="27"/>
@@ -2251,13 +2314,16 @@
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
       <c r="Z15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA15" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="AD15" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2275,7 +2341,7 @@
         <v>495</v>
       </c>
       <c r="F16" s="27"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="27"/>
@@ -2297,13 +2363,16 @@
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
       <c r="Z16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA16" s="43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="AD16" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2321,7 +2390,7 @@
         <v>160</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="27"/>
@@ -2343,10 +2412,13 @@
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
       <c r="AA17" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="AD17" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2364,7 +2436,7 @@
         <v>325</v>
       </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="27"/>
@@ -2384,14 +2456,17 @@
         <v>975</v>
       </c>
       <c r="X18" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y18" s="31"/>
       <c r="AA18" s="43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="AD18" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2409,7 +2484,7 @@
         <v>353</v>
       </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="27"/>
@@ -2429,20 +2504,23 @@
         <v>1059</v>
       </c>
       <c r="X19" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y19" s="31"/>
       <c r="AA19" s="43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="AD19" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" s="25">
         <v>706</v>
@@ -2454,7 +2532,7 @@
         <v>353</v>
       </c>
       <c r="F20" s="27"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="27"/>
@@ -2476,10 +2554,13 @@
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
       <c r="AA20" s="43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="AD20" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -2496,7 +2577,7 @@
         <v>375</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="27"/>
@@ -2518,13 +2599,16 @@
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
       <c r="AA21" s="43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="AD21" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C22" s="25">
         <v>562.5</v>
@@ -2536,7 +2620,7 @@
         <v>281.25</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="27"/>
@@ -2557,13 +2641,16 @@
       </c>
       <c r="X22" s="31"/>
       <c r="Y22" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA22" s="43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="AD22" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
         <v>34</v>
@@ -2578,7 +2665,7 @@
         <v>1059</v>
       </c>
       <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="27"/>
@@ -2598,14 +2685,17 @@
         <v>3177</v>
       </c>
       <c r="X23" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y23" s="31"/>
       <c r="AA23" s="43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="AD23" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="24" t="s">
         <v>35</v>
@@ -2620,7 +2710,7 @@
         <v>200</v>
       </c>
       <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="27"/>
@@ -2642,10 +2732,13 @@
       <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
       <c r="AA24" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="AD24" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
         <v>42</v>
@@ -2660,7 +2753,7 @@
         <v>210</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="25"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="27"/>
@@ -2680,14 +2773,17 @@
         <v>630</v>
       </c>
       <c r="X25" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y25" s="31"/>
       <c r="AA25" s="43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="AD25" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24" t="s">
         <v>43</v>
@@ -2702,7 +2798,7 @@
         <v>176.5</v>
       </c>
       <c r="F26" s="27"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="27"/>
@@ -2724,10 +2820,13 @@
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="AA26" s="43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="AD26" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
         <v>45</v>
@@ -2742,7 +2841,7 @@
         <v>176.5</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="27"/>
@@ -2764,10 +2863,13 @@
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
       <c r="AA27" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="AD27" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24" t="s">
         <v>47</v>
@@ -2782,7 +2884,7 @@
         <v>150</v>
       </c>
       <c r="F28" s="27"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="27"/>
@@ -2804,10 +2906,13 @@
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
       <c r="AA28" s="43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="AD28" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
         <v>49</v>
@@ -2822,7 +2927,7 @@
         <v>1059</v>
       </c>
       <c r="F29" s="27"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="29"/>
@@ -2844,13 +2949,16 @@
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
       <c r="Z29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA29" s="43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="AD29" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
         <v>51</v>
@@ -2865,7 +2973,7 @@
         <v>706</v>
       </c>
       <c r="F30" s="27"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="27"/>
@@ -2887,13 +2995,16 @@
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
       <c r="Z30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA30" s="43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="AD30" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24" t="s">
         <v>52</v>
@@ -2908,7 +3019,7 @@
         <v>202.5</v>
       </c>
       <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="27"/>
@@ -2930,13 +3041,16 @@
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
       <c r="AA31" s="43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="AD31" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C32" s="25">
         <v>706</v>
@@ -2948,7 +3062,7 @@
         <v>353</v>
       </c>
       <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="29"/>
@@ -2970,13 +3084,16 @@
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
       <c r="AA32" s="43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="AD32" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C33" s="25">
         <v>353</v>
@@ -2988,7 +3105,7 @@
         <v>176.5</v>
       </c>
       <c r="F33" s="27"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="29"/>
@@ -3010,13 +3127,16 @@
       <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
       <c r="AA33" s="44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="AD33" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C34" s="25">
         <v>1412</v>
@@ -3028,7 +3148,7 @@
         <v>706</v>
       </c>
       <c r="F34" s="27"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="27"/>
@@ -3050,13 +3170,16 @@
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
       <c r="Z34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA34" s="43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="AD34" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
         <v>57</v>
@@ -3071,7 +3194,7 @@
         <v>176.5</v>
       </c>
       <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="27"/>
@@ -3093,13 +3216,16 @@
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
       <c r="Z35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA35" s="43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="AD35" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24" t="s">
         <v>59</v>
@@ -3114,7 +3240,7 @@
         <v>176.5</v>
       </c>
       <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="27"/>
@@ -3136,10 +3262,13 @@
       <c r="X36" s="31"/>
       <c r="Y36" s="31"/>
       <c r="AA36" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="AD36" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="24" t="s">
         <v>61</v>
@@ -3154,7 +3283,7 @@
         <v>102.5</v>
       </c>
       <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="27"/>
@@ -3171,24 +3300,27 @@
       </c>
       <c r="T37" s="26"/>
       <c r="U37" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V37" s="47">
         <f t="shared" si="2"/>
         <v>182.5</v>
       </c>
       <c r="X37" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y37" s="31"/>
       <c r="AA37" s="43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="AD37" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C38" s="25">
         <v>706</v>
@@ -3200,7 +3332,7 @@
         <v>353</v>
       </c>
       <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="27"/>
@@ -3222,10 +3354,13 @@
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="AA38" s="43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="AD38" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="24" t="s">
         <v>64</v>
@@ -3240,7 +3375,7 @@
         <v>353</v>
       </c>
       <c r="F39" s="27"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="27"/>
@@ -3262,10 +3397,13 @@
       <c r="X39" s="31"/>
       <c r="Y39" s="31"/>
       <c r="AA39" s="43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="AD39" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="24" t="s">
         <v>65</v>
@@ -3280,7 +3418,7 @@
         <v>1412</v>
       </c>
       <c r="F40" s="27"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="27"/>
@@ -3300,14 +3438,17 @@
         <v>4236</v>
       </c>
       <c r="X40" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y40" s="31"/>
       <c r="AA40" s="43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="AD40" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="35" t="s">
         <v>66</v>
@@ -3322,7 +3463,7 @@
         <v>353</v>
       </c>
       <c r="F41" s="27"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="27"/>
@@ -3344,10 +3485,13 @@
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
       <c r="AA41" s="43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="AD41" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="24" t="s">
         <v>68</v>
@@ -3362,7 +3506,7 @@
         <v>353</v>
       </c>
       <c r="F42" s="27"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="50"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="27"/>
@@ -3384,13 +3528,16 @@
       <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
       <c r="AA42" s="43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="AD42" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C43" s="25">
         <v>706</v>
@@ -3402,7 +3549,7 @@
         <v>353</v>
       </c>
       <c r="F43" s="27"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="27"/>
@@ -3424,10 +3571,13 @@
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
       <c r="AA43" s="43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="AD43" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24" t="s">
         <v>72</v>
@@ -3442,7 +3592,7 @@
         <v>1059</v>
       </c>
       <c r="F44" s="27"/>
-      <c r="G44" s="25"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="27"/>
@@ -3464,13 +3614,16 @@
       <c r="X44" s="31"/>
       <c r="Y44" s="31"/>
       <c r="Z44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA44" s="43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="AD44" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="24" t="s">
         <v>74</v>
@@ -3485,7 +3638,7 @@
         <v>85</v>
       </c>
       <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="27"/>
@@ -3505,14 +3658,17 @@
         <v>255</v>
       </c>
       <c r="X45" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y45" s="31"/>
-    </row>
-    <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD45" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C46" s="25">
         <v>1412</v>
@@ -3524,7 +3680,7 @@
         <v>706</v>
       </c>
       <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="27"/>
@@ -3544,14 +3700,17 @@
         <v>2118</v>
       </c>
       <c r="X46" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y46" s="31"/>
       <c r="AA46" s="43" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="AD46" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24" t="s">
         <v>75</v>
@@ -3566,7 +3725,7 @@
         <v>176.5</v>
       </c>
       <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="27"/>
@@ -3588,10 +3747,13 @@
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
       <c r="AA47" s="43" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="AD47" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="24" t="s">
         <v>77</v>
@@ -3606,7 +3768,7 @@
         <v>706</v>
       </c>
       <c r="F48" s="27"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="29"/>
@@ -3628,13 +3790,16 @@
       <c r="X48" s="31"/>
       <c r="Y48" s="31"/>
       <c r="AA48" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="AD48" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C49" s="25">
         <v>706</v>
@@ -3646,7 +3811,7 @@
         <v>353</v>
       </c>
       <c r="F49" s="27"/>
-      <c r="G49" s="25"/>
+      <c r="G49" s="50"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="27"/>
@@ -3667,10 +3832,13 @@
       </c>
       <c r="X49" s="31"/>
       <c r="Y49" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="AD49" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24" t="s">
         <v>80</v>
@@ -3685,7 +3853,7 @@
         <v>176.5</v>
       </c>
       <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="G50" s="50"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="27"/>
@@ -3707,10 +3875,13 @@
       <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
       <c r="AA50" s="43" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="AD50" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24" t="s">
         <v>82</v>
@@ -3725,7 +3896,7 @@
         <v>706</v>
       </c>
       <c r="F51" s="27"/>
-      <c r="G51" s="25"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="27"/>
@@ -3745,14 +3916,17 @@
         <v>2118</v>
       </c>
       <c r="X51" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y51" s="31"/>
       <c r="AA51" s="43" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="AD51" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
         <v>83</v>
@@ -3767,7 +3941,7 @@
         <v>565</v>
       </c>
       <c r="F52" s="27"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="27"/>
@@ -3789,10 +3963,13 @@
       <c r="X52" s="31"/>
       <c r="Y52" s="31"/>
       <c r="AA52" s="43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="AD52" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="24" t="s">
         <v>85</v>
@@ -3807,7 +3984,7 @@
         <v>290</v>
       </c>
       <c r="F53" s="27"/>
-      <c r="G53" s="25"/>
+      <c r="G53" s="50"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="27"/>
@@ -3827,14 +4004,17 @@
         <v>870</v>
       </c>
       <c r="X53" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y53" s="31"/>
       <c r="AA53" s="43" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="AD53" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24" t="s">
         <v>86</v>
@@ -3849,7 +4029,7 @@
         <v>1059</v>
       </c>
       <c r="F54" s="27"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="50"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="27"/>
@@ -3871,13 +4051,16 @@
       <c r="X54" s="31"/>
       <c r="Y54" s="31"/>
       <c r="Z54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA54" s="43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="AD54" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="24" t="s">
         <v>88</v>
@@ -3892,7 +4075,7 @@
         <v>706</v>
       </c>
       <c r="F55" s="27"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="50"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="27"/>
@@ -3913,13 +4096,16 @@
       </c>
       <c r="X55" s="31"/>
       <c r="Y55" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA55" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="AD55" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
         <v>89</v>
@@ -3934,7 +4120,7 @@
         <v>706</v>
       </c>
       <c r="F56" s="27"/>
-      <c r="G56" s="25"/>
+      <c r="G56" s="50"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="27"/>
@@ -3955,13 +4141,16 @@
       </c>
       <c r="X56" s="31"/>
       <c r="Y56" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA56" s="43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="AD56" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="24" t="s">
         <v>90</v>
@@ -3976,7 +4165,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="27"/>
-      <c r="G57" s="25"/>
+      <c r="G57" s="50"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="27"/>
@@ -3998,10 +4187,13 @@
       <c r="X57" s="31"/>
       <c r="Y57" s="31"/>
       <c r="AA57" s="43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="AD57" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="24" t="s">
         <v>91</v>
@@ -4016,7 +4208,7 @@
         <v>125</v>
       </c>
       <c r="F58" s="27"/>
-      <c r="G58" s="25"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="27"/>
@@ -4038,16 +4230,19 @@
       <c r="X58" s="31"/>
       <c r="Y58" s="31"/>
       <c r="AA58" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AB58" s="45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AC58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="AD58" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
         <v>92</v>
@@ -4062,7 +4257,7 @@
         <v>445</v>
       </c>
       <c r="F59" s="27"/>
-      <c r="G59" s="25"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="29"/>
@@ -4084,10 +4279,13 @@
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
       <c r="Z59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="AD59" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="24" t="s">
         <v>93</v>
@@ -4102,7 +4300,7 @@
         <v>1412</v>
       </c>
       <c r="F60" s="27"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="50"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="27"/>
@@ -4124,13 +4322,16 @@
       <c r="X60" s="31"/>
       <c r="Y60" s="31"/>
       <c r="Z60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA60" s="43" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="AD60" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="24" t="s">
         <v>95</v>
@@ -4145,7 +4346,7 @@
         <v>264.5</v>
       </c>
       <c r="F61" s="27"/>
-      <c r="G61" s="25"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="27"/>
@@ -4167,13 +4368,16 @@
       <c r="X61" s="31"/>
       <c r="Y61" s="31"/>
       <c r="Z61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA61" s="43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="AD61" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24" t="s">
         <v>97</v>
@@ -4188,7 +4392,7 @@
         <v>2118</v>
       </c>
       <c r="F62" s="27"/>
-      <c r="G62" s="25"/>
+      <c r="G62" s="50"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="27"/>
@@ -4210,16 +4414,19 @@
       <c r="X62" s="31"/>
       <c r="Y62" s="31"/>
       <c r="Z62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA62" s="43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="AD62" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C63" s="25">
         <v>706</v>
@@ -4231,7 +4438,7 @@
         <v>353</v>
       </c>
       <c r="F63" s="27"/>
-      <c r="G63" s="25"/>
+      <c r="G63" s="50"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="27"/>
@@ -4253,10 +4460,13 @@
       <c r="X63" s="31"/>
       <c r="Y63" s="31"/>
       <c r="AA63" s="43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="AD63" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="24" t="s">
         <v>100</v>
@@ -4271,7 +4481,7 @@
         <v>706</v>
       </c>
       <c r="F64" s="27"/>
-      <c r="G64" s="25"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="29"/>
@@ -4288,7 +4498,7 @@
       </c>
       <c r="T64" s="26"/>
       <c r="U64" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V64" s="47">
         <f t="shared" si="2"/>
@@ -4297,10 +4507,13 @@
       <c r="X64" s="31"/>
       <c r="Y64" s="31"/>
       <c r="AA64" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="AD64" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="24" t="s">
         <v>103</v>
@@ -4315,7 +4528,7 @@
         <v>140</v>
       </c>
       <c r="F65" s="27"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="50"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="27"/>
@@ -4337,13 +4550,16 @@
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
       <c r="Z65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA65" s="43" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="AD65" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="24" t="s">
         <v>105</v>
@@ -4358,7 +4574,7 @@
         <v>176.5</v>
       </c>
       <c r="F66" s="27"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="50"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="27"/>
@@ -4380,13 +4596,16 @@
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="AA66" s="43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="AD66" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C67" s="25">
         <v>706</v>
@@ -4398,7 +4617,7 @@
         <v>353</v>
       </c>
       <c r="F67" s="27"/>
-      <c r="G67" s="25"/>
+      <c r="G67" s="50"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="29"/>
@@ -4420,13 +4639,16 @@
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
       <c r="Z67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA67" s="43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="AD67" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="24" t="s">
         <v>110</v>
@@ -4441,7 +4663,7 @@
         <v>706</v>
       </c>
       <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="27"/>
@@ -4463,10 +4685,13 @@
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
       <c r="AA68" s="43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="AD68" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="24" t="s">
         <v>112</v>
@@ -4481,7 +4706,7 @@
         <v>150</v>
       </c>
       <c r="F69" s="27"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="27"/>
@@ -4503,10 +4728,13 @@
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
       <c r="AA69" s="43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="AD69" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="24" t="s">
         <v>113</v>
@@ -4521,7 +4749,7 @@
         <v>88</v>
       </c>
       <c r="F70" s="27"/>
-      <c r="G70" s="25"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="27"/>
@@ -4543,10 +4771,13 @@
       <c r="X70" s="31"/>
       <c r="Y70" s="31"/>
       <c r="AA70" s="43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="AD70" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="24" t="s">
         <v>115</v>
@@ -4561,7 +4792,7 @@
         <v>125</v>
       </c>
       <c r="F71" s="27"/>
-      <c r="G71" s="25"/>
+      <c r="G71" s="50"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="29"/>
@@ -4583,10 +4814,13 @@
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="AA71" s="43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="AD71" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="24" t="s">
         <v>117</v>
@@ -4601,7 +4835,7 @@
         <v>200</v>
       </c>
       <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="50"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="27"/>
@@ -4621,14 +4855,17 @@
         <v>600</v>
       </c>
       <c r="X72" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y72" s="31"/>
       <c r="AA72" s="43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="AD72" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="24" t="s">
         <v>118</v>
@@ -4643,7 +4880,7 @@
         <v>125</v>
       </c>
       <c r="F73" s="27"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="50"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="29"/>
@@ -4663,14 +4900,17 @@
         <v>375</v>
       </c>
       <c r="X73" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y73" s="31"/>
       <c r="AA73" s="43" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="AD73" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="24" t="s">
         <v>119</v>
@@ -4685,7 +4925,7 @@
         <v>195</v>
       </c>
       <c r="F74" s="27"/>
-      <c r="G74" s="25"/>
+      <c r="G74" s="50"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="27"/>
@@ -4707,13 +4947,16 @@
       <c r="X74" s="31"/>
       <c r="Y74" s="31"/>
       <c r="Z74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA74" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="AD74" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="24" t="s">
         <v>121</v>
@@ -4728,7 +4971,7 @@
         <v>353</v>
       </c>
       <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
+      <c r="G75" s="50"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="27"/>
@@ -4750,10 +4993,13 @@
       <c r="X75" s="31"/>
       <c r="Y75" s="31"/>
       <c r="AA75" s="43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="AD75" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="24" t="s">
         <v>123</v>
@@ -4768,7 +5014,7 @@
         <v>353</v>
       </c>
       <c r="F76" s="27"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="50"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="27"/>
@@ -4790,13 +5036,16 @@
       <c r="X76" s="31"/>
       <c r="Y76" s="31"/>
       <c r="Z76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA76" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="AD76" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="24" t="s">
         <v>125</v>
@@ -4811,7 +5060,7 @@
         <v>225</v>
       </c>
       <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="50"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="27"/>
@@ -4833,16 +5082,19 @@
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
       <c r="Z77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA77" s="43" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="AD77" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C78" s="25">
         <v>500</v>
@@ -4854,7 +5106,7 @@
         <v>250</v>
       </c>
       <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="G78" s="50"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="27"/>
@@ -4876,10 +5128,13 @@
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
       <c r="AA78" s="43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="AD78" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="24" t="s">
         <v>128</v>
@@ -4894,7 +5149,7 @@
         <v>565</v>
       </c>
       <c r="F79" s="27"/>
-      <c r="G79" s="25"/>
+      <c r="G79" s="50"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="27"/>
@@ -4916,10 +5171,13 @@
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
       <c r="AA79" s="43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="AD79" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
         <v>130</v>
@@ -4934,7 +5192,7 @@
         <v>1059</v>
       </c>
       <c r="F80" s="27"/>
-      <c r="G80" s="25"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="27"/>
@@ -4956,13 +5214,16 @@
       <c r="X80" s="31"/>
       <c r="Y80" s="31"/>
       <c r="Z80" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA80" s="43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="AD80" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="24" t="s">
         <v>132</v>
@@ -4977,7 +5238,7 @@
         <v>565</v>
       </c>
       <c r="F81" s="27"/>
-      <c r="G81" s="25"/>
+      <c r="G81" s="50"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
       <c r="J81" s="27"/>
@@ -4997,17 +5258,20 @@
         <v>1695</v>
       </c>
       <c r="X81" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y81" s="31"/>
       <c r="AA81" s="43" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="AD81" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C82" s="25">
         <v>580</v>
@@ -5019,7 +5283,7 @@
         <v>290</v>
       </c>
       <c r="F82" s="27"/>
-      <c r="G82" s="25"/>
+      <c r="G82" s="50"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="27"/>
@@ -5041,10 +5305,13 @@
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
       <c r="AA82" s="43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="AD82" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="24" t="s">
         <v>135</v>
@@ -5059,7 +5326,7 @@
         <v>180</v>
       </c>
       <c r="F83" s="27"/>
-      <c r="G83" s="25"/>
+      <c r="G83" s="50"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="29"/>
@@ -5081,10 +5348,13 @@
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
       <c r="AA83" s="43" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="AD83" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="24" t="s">
         <v>137</v>
@@ -5099,7 +5369,7 @@
         <v>115</v>
       </c>
       <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+      <c r="G84" s="50"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
       <c r="J84" s="27"/>
@@ -5121,10 +5391,13 @@
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="AA84" s="43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="AD84" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="24" t="s">
         <v>138</v>
@@ -5139,7 +5412,7 @@
         <v>450</v>
       </c>
       <c r="F85" s="27"/>
-      <c r="G85" s="25"/>
+      <c r="G85" s="50"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="27"/>
@@ -5161,10 +5434,13 @@
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
       <c r="AA85" s="43" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="AD85" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="24" t="s">
         <v>140</v>
@@ -5179,7 +5455,7 @@
         <v>353</v>
       </c>
       <c r="F86" s="27"/>
-      <c r="G86" s="25"/>
+      <c r="G86" s="50"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="27"/>
@@ -5201,10 +5477,13 @@
       <c r="X86" s="31"/>
       <c r="Y86" s="31"/>
       <c r="AA86" s="43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="AD86" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="24" t="s">
         <v>141</v>
@@ -5219,7 +5498,7 @@
         <v>175</v>
       </c>
       <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
+      <c r="G87" s="50"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
       <c r="J87" s="27"/>
@@ -5241,16 +5520,19 @@
       <c r="X87" s="31"/>
       <c r="Y87" s="31"/>
       <c r="Z87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA87" s="43" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="AD87" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C88" s="25">
         <v>700</v>
@@ -5262,7 +5544,7 @@
         <v>350</v>
       </c>
       <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+      <c r="G88" s="50"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
       <c r="J88" s="27"/>
@@ -5284,10 +5566,13 @@
       <c r="X88" s="31"/>
       <c r="Y88" s="31"/>
       <c r="AA88" s="43" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="AD88" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="24" t="s">
         <v>143</v>
@@ -5302,7 +5587,7 @@
         <v>290</v>
       </c>
       <c r="F89" s="27"/>
-      <c r="G89" s="25"/>
+      <c r="G89" s="50"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
       <c r="J89" s="27"/>
@@ -5324,10 +5609,13 @@
       <c r="X89" s="31"/>
       <c r="Y89" s="31"/>
       <c r="AA89" s="43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="AD89" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="24" t="s">
         <v>144</v>
@@ -5342,7 +5630,7 @@
         <v>565</v>
       </c>
       <c r="F90" s="27"/>
-      <c r="G90" s="25"/>
+      <c r="G90" s="50"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
       <c r="J90" s="27"/>
@@ -5364,13 +5652,16 @@
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
       <c r="Z90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA90" s="43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="AD90" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="24" t="s">
         <v>146</v>
@@ -5385,7 +5676,7 @@
         <v>290</v>
       </c>
       <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+      <c r="G91" s="50"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="27"/>
@@ -5407,13 +5698,16 @@
       <c r="X91" s="31"/>
       <c r="Y91" s="31"/>
       <c r="AA91" s="43" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="AD91" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C92" s="37">
         <f>SUM(C2:C91)</f>
@@ -5422,7 +5716,7 @@
       <c r="D92" s="26"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
+      <c r="G92" s="51"/>
       <c r="H92" s="26"/>
       <c r="I92" s="25"/>
       <c r="J92" s="27"/>
@@ -5445,16 +5739,16 @@
         <v>76239.5</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K93" s="40"/>
     </row>
-    <row r="94" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K94" s="40"/>
     </row>
-    <row r="95" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K95" s="40"/>
     </row>
-    <row r="96" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K96" s="40"/>
     </row>
     <row r="97" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/relacao_honorarios.xlsx
+++ b/relacao_honorarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3522D8-381A-491B-98F3-CBA2DC001EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733AA826-2593-45E2-B0A1-1D37EE647010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="286">
   <si>
     <t xml:space="preserve">3 EMPREITEIRAS BJM </t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t>vcto</t>
+  </si>
+  <si>
+    <t>JC ESTRUTURAS METALICAS LTDA</t>
   </si>
 </sst>
 </file>
@@ -1528,8 +1531,8 @@
   <dimension ref="A1:AD246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,7 +3167,7 @@
       <c r="T34" s="26"/>
       <c r="U34" s="24"/>
       <c r="V34" s="47">
-        <f t="shared" ref="V34:V65" si="2">C34+E34+G34+I34+K34+M34+O34+Q34+S34</f>
+        <f t="shared" ref="V34:V66" si="2">C34+E34+G34+I34+K34+M34+O34+Q34+S34</f>
         <v>2118</v>
       </c>
       <c r="X34" s="31"/>
@@ -3756,22 +3759,16 @@
     <row r="48" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="25">
-        <v>1412</v>
-      </c>
-      <c r="D48" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E48" s="25">
-        <v>706</v>
-      </c>
-      <c r="F48" s="27"/>
+        <v>285</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="50"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="29"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="25"/>
       <c r="L48" s="26"/>
       <c r="M48" s="25"/>
@@ -3783,38 +3780,30 @@
       <c r="S48" s="25"/>
       <c r="T48" s="26"/>
       <c r="U48" s="24"/>
-      <c r="V48" s="47">
-        <f t="shared" si="2"/>
-        <v>2118</v>
-      </c>
+      <c r="V48" s="47"/>
       <c r="X48" s="31"/>
       <c r="Y48" s="31"/>
-      <c r="AA48" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD48" s="50" t="s">
-        <v>281</v>
-      </c>
+      <c r="AD48" s="50"/>
     </row>
     <row r="49" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="24" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="C49" s="25">
+        <v>1412</v>
+      </c>
+      <c r="D49" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E49" s="25">
         <v>706</v>
-      </c>
-      <c r="D49" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E49" s="25">
-        <v>353</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="50"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="27"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="25"/>
       <c r="L49" s="26"/>
       <c r="M49" s="25"/>
@@ -3828,11 +3817,12 @@
       <c r="U49" s="24"/>
       <c r="V49" s="47">
         <f t="shared" si="2"/>
-        <v>1059</v>
+        <v>2118</v>
       </c>
       <c r="X49" s="31"/>
-      <c r="Y49" s="32" t="s">
-        <v>170</v>
+      <c r="Y49" s="31"/>
+      <c r="AA49" s="43" t="s">
+        <v>225</v>
       </c>
       <c r="AD49" s="50" t="s">
         <v>281</v>
@@ -3841,18 +3831,18 @@
     <row r="50" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="C50" s="25">
+        <v>706</v>
+      </c>
+      <c r="D50" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E50" s="25">
         <v>353</v>
       </c>
-      <c r="D50" s="26">
-        <v>45566</v>
-      </c>
-      <c r="E50" s="25">
-        <v>176.5</v>
-      </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="50"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
@@ -3870,12 +3860,11 @@
       <c r="U50" s="24"/>
       <c r="V50" s="47">
         <f t="shared" si="2"/>
-        <v>529.5</v>
+        <v>1059</v>
       </c>
       <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="AA50" s="43" t="s">
-        <v>227</v>
+      <c r="Y50" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="AD50" s="50" t="s">
         <v>281</v>
@@ -3884,18 +3873,18 @@
     <row r="51" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="25">
-        <v>1412</v>
+        <v>353</v>
       </c>
       <c r="D51" s="26">
         <v>45566</v>
       </c>
       <c r="E51" s="25">
-        <v>706</v>
-      </c>
-      <c r="F51" s="27"/>
+        <v>176.5</v>
+      </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="50"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
@@ -3913,14 +3902,12 @@
       <c r="U51" s="24"/>
       <c r="V51" s="47">
         <f t="shared" si="2"/>
-        <v>2118</v>
-      </c>
-      <c r="X51" s="32" t="s">
-        <v>170</v>
-      </c>
+        <v>529.5</v>
+      </c>
+      <c r="X51" s="31"/>
       <c r="Y51" s="31"/>
       <c r="AA51" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD51" s="50" t="s">
         <v>281</v>
@@ -3929,16 +3916,16 @@
     <row r="52" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="25">
-        <v>1130</v>
+        <v>1412</v>
       </c>
       <c r="D52" s="26">
         <v>45566</v>
       </c>
       <c r="E52" s="25">
-        <v>565</v>
+        <v>706</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="50"/>
@@ -3958,12 +3945,14 @@
       <c r="U52" s="24"/>
       <c r="V52" s="47">
         <f t="shared" si="2"/>
-        <v>1695</v>
-      </c>
-      <c r="X52" s="31"/>
+        <v>2118</v>
+      </c>
+      <c r="X52" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="Y52" s="31"/>
       <c r="AA52" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD52" s="50" t="s">
         <v>281</v>
@@ -3972,16 +3961,16 @@
     <row r="53" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="25">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D53" s="26">
         <v>45566</v>
       </c>
       <c r="E53" s="25">
-        <v>290</v>
+        <v>565</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="50"/>
@@ -4001,14 +3990,12 @@
       <c r="U53" s="24"/>
       <c r="V53" s="47">
         <f t="shared" si="2"/>
-        <v>870</v>
-      </c>
-      <c r="X53" s="32" t="s">
-        <v>170</v>
-      </c>
+        <v>1695</v>
+      </c>
+      <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
       <c r="AA53" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AD53" s="50" t="s">
         <v>281</v>
@@ -4017,16 +4004,16 @@
     <row r="54" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="25">
-        <v>2118</v>
+        <v>580</v>
       </c>
       <c r="D54" s="26">
         <v>45566</v>
       </c>
       <c r="E54" s="25">
-        <v>1059</v>
+        <v>290</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="50"/>
@@ -4046,15 +4033,14 @@
       <c r="U54" s="24"/>
       <c r="V54" s="47">
         <f t="shared" si="2"/>
-        <v>3177</v>
-      </c>
-      <c r="X54" s="31"/>
+        <v>870</v>
+      </c>
+      <c r="X54" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="Y54" s="31"/>
-      <c r="Z54" t="s">
-        <v>170</v>
-      </c>
       <c r="AA54" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD54" s="50" t="s">
         <v>281</v>
@@ -4063,16 +4049,16 @@
     <row r="55" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="25">
-        <v>1412</v>
+        <v>2118</v>
       </c>
       <c r="D55" s="26">
         <v>45566</v>
       </c>
       <c r="E55" s="25">
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="50"/>
@@ -4092,14 +4078,15 @@
       <c r="U55" s="24"/>
       <c r="V55" s="47">
         <f t="shared" si="2"/>
-        <v>2118</v>
+        <v>3177</v>
       </c>
       <c r="X55" s="31"/>
-      <c r="Y55" s="32" t="s">
+      <c r="Y55" s="31"/>
+      <c r="Z55" t="s">
         <v>170</v>
       </c>
       <c r="AA55" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD55" s="50" t="s">
         <v>281</v>
@@ -4108,7 +4095,7 @@
     <row r="56" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="25">
         <v>1412</v>
@@ -4144,7 +4131,7 @@
         <v>170</v>
       </c>
       <c r="AA56" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AD56" s="50" t="s">
         <v>281</v>
@@ -4153,16 +4140,16 @@
     <row r="57" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="25">
-        <v>600</v>
+        <v>1412</v>
       </c>
       <c r="D57" s="26">
         <v>45566</v>
       </c>
       <c r="E57" s="25">
-        <v>300</v>
+        <v>706</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="50"/>
@@ -4182,12 +4169,14 @@
       <c r="U57" s="24"/>
       <c r="V57" s="47">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>2118</v>
       </c>
       <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
+      <c r="Y57" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="AA57" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD57" s="50" t="s">
         <v>281</v>
@@ -4196,16 +4185,16 @@
     <row r="58" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="25">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="D58" s="26">
         <v>45566</v>
       </c>
       <c r="E58" s="25">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="50"/>
@@ -4225,18 +4214,12 @@
       <c r="U58" s="24"/>
       <c r="V58" s="47">
         <f t="shared" si="2"/>
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="X58" s="31"/>
       <c r="Y58" s="31"/>
       <c r="AA58" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB58" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="AD58" s="50" t="s">
         <v>281</v>
@@ -4245,28 +4228,28 @@
     <row r="59" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="25">
-        <v>890</v>
+        <v>250</v>
       </c>
       <c r="D59" s="26">
         <v>45566</v>
       </c>
       <c r="E59" s="25">
-        <v>445</v>
+        <v>125</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="50"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="29"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="25"/>
       <c r="L59" s="26"/>
       <c r="M59" s="25"/>
       <c r="N59" s="26"/>
       <c r="O59" s="28"/>
-      <c r="P59" s="29"/>
+      <c r="P59" s="26"/>
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
       <c r="S59" s="25"/>
@@ -4274,36 +4257,37 @@
       <c r="U59" s="24"/>
       <c r="V59" s="47">
         <f t="shared" si="2"/>
-        <v>1335</v>
+        <v>375</v>
       </c>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
-      <c r="Z59" t="s">
-        <v>170</v>
-      </c>
+      <c r="AA59" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB59" s="45"/>
       <c r="AD59" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="25">
-        <v>2824</v>
+        <v>890</v>
       </c>
       <c r="D60" s="26">
         <v>45566</v>
       </c>
       <c r="E60" s="25">
-        <v>1412</v>
+        <v>445</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="50"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="27"/>
+      <c r="J60" s="29"/>
       <c r="K60" s="25"/>
       <c r="L60" s="26"/>
       <c r="M60" s="25"/>
@@ -4313,19 +4297,22 @@
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
       <c r="S60" s="25"/>
-      <c r="T60" s="27"/>
+      <c r="T60" s="26"/>
       <c r="U60" s="24"/>
       <c r="V60" s="47">
         <f t="shared" si="2"/>
-        <v>4236</v>
+        <v>1335</v>
       </c>
       <c r="X60" s="31"/>
       <c r="Y60" s="31"/>
       <c r="Z60" t="s">
         <v>170</v>
       </c>
-      <c r="AA60" s="43" t="s">
-        <v>236</v>
+      <c r="AB60" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>170</v>
       </c>
       <c r="AD60" s="50" t="s">
         <v>282</v>
@@ -4334,16 +4321,16 @@
     <row r="61" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C61" s="25">
-        <v>529</v>
+        <v>2824</v>
       </c>
       <c r="D61" s="26">
         <v>45566</v>
       </c>
       <c r="E61" s="25">
-        <v>264.5</v>
+        <v>1412</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="50"/>
@@ -4359,11 +4346,11 @@
       <c r="Q61" s="29"/>
       <c r="R61" s="29"/>
       <c r="S61" s="25"/>
-      <c r="T61" s="26"/>
+      <c r="T61" s="27"/>
       <c r="U61" s="24"/>
       <c r="V61" s="47">
         <f t="shared" si="2"/>
-        <v>793.5</v>
+        <v>4236</v>
       </c>
       <c r="X61" s="31"/>
       <c r="Y61" s="31"/>
@@ -4371,25 +4358,25 @@
         <v>170</v>
       </c>
       <c r="AA61" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AD61" s="50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C62" s="25">
-        <v>4236</v>
+        <v>529</v>
       </c>
       <c r="D62" s="26">
         <v>45566</v>
       </c>
       <c r="E62" s="25">
-        <v>2118</v>
+        <v>264.5</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="50"/>
@@ -4401,7 +4388,7 @@
       <c r="M62" s="25"/>
       <c r="N62" s="26"/>
       <c r="O62" s="28"/>
-      <c r="P62" s="26"/>
+      <c r="P62" s="29"/>
       <c r="Q62" s="29"/>
       <c r="R62" s="29"/>
       <c r="S62" s="25"/>
@@ -4409,7 +4396,7 @@
       <c r="U62" s="24"/>
       <c r="V62" s="47">
         <f t="shared" si="2"/>
-        <v>6354</v>
+        <v>793.5</v>
       </c>
       <c r="X62" s="31"/>
       <c r="Y62" s="31"/>
@@ -4417,25 +4404,25 @@
         <v>170</v>
       </c>
       <c r="AA62" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD62" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="24" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="C63" s="25">
-        <v>706</v>
+        <v>4236</v>
       </c>
       <c r="D63" s="26">
         <v>45566</v>
       </c>
       <c r="E63" s="25">
-        <v>353</v>
+        <v>2118</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="50"/>
@@ -4455,36 +4442,39 @@
       <c r="U63" s="24"/>
       <c r="V63" s="47">
         <f t="shared" si="2"/>
-        <v>1059</v>
+        <v>6354</v>
       </c>
       <c r="X63" s="31"/>
       <c r="Y63" s="31"/>
+      <c r="Z63" t="s">
+        <v>170</v>
+      </c>
       <c r="AA63" s="43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AD63" s="50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="24" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="C64" s="25">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D64" s="26">
         <v>45566</v>
       </c>
       <c r="E64" s="25">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="50"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="29"/>
+      <c r="J64" s="27"/>
       <c r="K64" s="25"/>
       <c r="L64" s="26"/>
       <c r="M64" s="25"/>
@@ -4493,21 +4483,17 @@
       <c r="P64" s="26"/>
       <c r="Q64" s="29"/>
       <c r="R64" s="29"/>
-      <c r="S64" s="25">
-        <v>120</v>
-      </c>
+      <c r="S64" s="25"/>
       <c r="T64" s="26"/>
-      <c r="U64" s="24" t="s">
-        <v>182</v>
-      </c>
+      <c r="U64" s="24"/>
       <c r="V64" s="47">
         <f t="shared" si="2"/>
-        <v>2238</v>
+        <v>1059</v>
       </c>
       <c r="X64" s="31"/>
       <c r="Y64" s="31"/>
       <c r="AA64" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AD64" s="50" t="s">
         <v>281</v>
@@ -4516,22 +4502,22 @@
     <row r="65" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C65" s="25">
-        <v>280</v>
+        <v>1412</v>
       </c>
       <c r="D65" s="26">
         <v>45566</v>
       </c>
       <c r="E65" s="25">
-        <v>140</v>
+        <v>706</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="50"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="27"/>
+      <c r="J65" s="29"/>
       <c r="K65" s="25"/>
       <c r="L65" s="26"/>
       <c r="M65" s="25"/>
@@ -4540,20 +4526,21 @@
       <c r="P65" s="26"/>
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
-      <c r="S65" s="25"/>
+      <c r="S65" s="25">
+        <v>120</v>
+      </c>
       <c r="T65" s="26"/>
-      <c r="U65" s="24"/>
+      <c r="U65" s="24" t="s">
+        <v>182</v>
+      </c>
       <c r="V65" s="47">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>2238</v>
       </c>
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
-      <c r="Z65" t="s">
-        <v>170</v>
-      </c>
       <c r="AA65" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AD65" s="50" t="s">
         <v>281</v>
@@ -4562,16 +4549,16 @@
     <row r="66" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C66" s="25">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="D66" s="26">
         <v>45566</v>
       </c>
       <c r="E66" s="25">
-        <v>176.5</v>
+        <v>140</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="50"/>
@@ -4583,20 +4570,23 @@
       <c r="M66" s="25"/>
       <c r="N66" s="26"/>
       <c r="O66" s="28"/>
-      <c r="P66" s="29"/>
+      <c r="P66" s="26"/>
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
       <c r="S66" s="25"/>
       <c r="T66" s="26"/>
       <c r="U66" s="24"/>
       <c r="V66" s="47">
-        <f t="shared" ref="V66:V91" si="3">C66+E66+G66+I66+K66+M66+O66+Q66+S66</f>
-        <v>529.5</v>
+        <f t="shared" si="2"/>
+        <v>420</v>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
+      <c r="Z66" t="s">
+        <v>170</v>
+      </c>
       <c r="AA66" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AD66" s="50" t="s">
         <v>281</v>
@@ -4605,22 +4595,22 @@
     <row r="67" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="24" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="C67" s="25">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="D67" s="26">
         <v>45566</v>
       </c>
       <c r="E67" s="25">
-        <v>353</v>
+        <v>176.5</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="50"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="29"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="25"/>
       <c r="L67" s="26"/>
       <c r="M67" s="25"/>
@@ -4633,16 +4623,13 @@
       <c r="T67" s="26"/>
       <c r="U67" s="24"/>
       <c r="V67" s="47">
-        <f t="shared" si="3"/>
-        <v>1059</v>
+        <f t="shared" ref="V67:V92" si="3">C67+E67+G67+I67+K67+M67+O67+Q67+S67</f>
+        <v>529.5</v>
       </c>
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
-      <c r="Z67" t="s">
-        <v>170</v>
-      </c>
       <c r="AA67" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AD67" s="50" t="s">
         <v>281</v>
@@ -4651,22 +4638,22 @@
     <row r="68" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="24" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="C68" s="25">
-        <v>1412</v>
+        <v>706</v>
       </c>
       <c r="D68" s="26">
         <v>45566</v>
       </c>
       <c r="E68" s="25">
-        <v>706</v>
-      </c>
-      <c r="F68" s="25"/>
+        <v>353</v>
+      </c>
+      <c r="F68" s="27"/>
       <c r="G68" s="50"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="27"/>
+      <c r="J68" s="29"/>
       <c r="K68" s="25"/>
       <c r="L68" s="26"/>
       <c r="M68" s="25"/>
@@ -4680,12 +4667,15 @@
       <c r="U68" s="24"/>
       <c r="V68" s="47">
         <f t="shared" si="3"/>
-        <v>2118</v>
+        <v>1059</v>
       </c>
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
+      <c r="Z68" t="s">
+        <v>170</v>
+      </c>
       <c r="AA68" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD68" s="50" t="s">
         <v>281</v>
@@ -4694,18 +4684,18 @@
     <row r="69" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" s="25">
-        <v>300</v>
+        <v>1412</v>
       </c>
       <c r="D69" s="26">
         <v>45566</v>
       </c>
       <c r="E69" s="25">
-        <v>150</v>
-      </c>
-      <c r="F69" s="27"/>
+        <v>706</v>
+      </c>
+      <c r="F69" s="25"/>
       <c r="G69" s="50"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
@@ -4715,7 +4705,7 @@
       <c r="M69" s="25"/>
       <c r="N69" s="26"/>
       <c r="O69" s="28"/>
-      <c r="P69" s="26"/>
+      <c r="P69" s="29"/>
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="25"/>
@@ -4723,12 +4713,12 @@
       <c r="U69" s="24"/>
       <c r="V69" s="47">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>2118</v>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
       <c r="AA69" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD69" s="50" t="s">
         <v>281</v>
@@ -4737,16 +4727,16 @@
     <row r="70" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="25">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="D70" s="26">
         <v>45566</v>
       </c>
       <c r="E70" s="25">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="F70" s="27"/>
       <c r="G70" s="50"/>
@@ -4766,12 +4756,12 @@
       <c r="U70" s="24"/>
       <c r="V70" s="47">
         <f t="shared" si="3"/>
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="X70" s="31"/>
       <c r="Y70" s="31"/>
       <c r="AA70" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD70" s="50" t="s">
         <v>281</v>
@@ -4780,28 +4770,28 @@
     <row r="71" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C71" s="25">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="D71" s="26">
         <v>45566</v>
       </c>
       <c r="E71" s="25">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="50"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="29"/>
+      <c r="J71" s="27"/>
       <c r="K71" s="25"/>
       <c r="L71" s="26"/>
       <c r="M71" s="25"/>
       <c r="N71" s="26"/>
       <c r="O71" s="28"/>
-      <c r="P71" s="29"/>
+      <c r="P71" s="26"/>
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="25"/>
@@ -4809,12 +4799,12 @@
       <c r="U71" s="24"/>
       <c r="V71" s="47">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="AA71" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD71" s="50" t="s">
         <v>281</v>
@@ -4823,28 +4813,28 @@
     <row r="72" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="25">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D72" s="26">
         <v>45566</v>
       </c>
       <c r="E72" s="25">
-        <v>200</v>
-      </c>
-      <c r="F72" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="F72" s="27"/>
       <c r="G72" s="50"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="27"/>
+      <c r="J72" s="29"/>
       <c r="K72" s="25"/>
       <c r="L72" s="26"/>
       <c r="M72" s="25"/>
       <c r="N72" s="26"/>
       <c r="O72" s="28"/>
-      <c r="P72" s="26"/>
+      <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
       <c r="R72" s="29"/>
       <c r="S72" s="25"/>
@@ -4852,14 +4842,12 @@
       <c r="U72" s="24"/>
       <c r="V72" s="47">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="X72" s="32" t="s">
-        <v>170</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
       <c r="AA72" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD72" s="50" t="s">
         <v>281</v>
@@ -4868,28 +4856,28 @@
     <row r="73" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" s="25">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D73" s="26">
         <v>45566</v>
       </c>
       <c r="E73" s="25">
-        <v>125</v>
-      </c>
-      <c r="F73" s="27"/>
+        <v>200</v>
+      </c>
+      <c r="F73" s="25"/>
       <c r="G73" s="50"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="29"/>
+      <c r="J73" s="27"/>
       <c r="K73" s="25"/>
       <c r="L73" s="26"/>
       <c r="M73" s="25"/>
       <c r="N73" s="26"/>
       <c r="O73" s="28"/>
-      <c r="P73" s="29"/>
+      <c r="P73" s="26"/>
       <c r="Q73" s="29"/>
       <c r="R73" s="29"/>
       <c r="S73" s="25"/>
@@ -4897,14 +4885,14 @@
       <c r="U73" s="24"/>
       <c r="V73" s="47">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="X73" s="32" t="s">
         <v>170</v>
       </c>
       <c r="Y73" s="31"/>
       <c r="AA73" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD73" s="50" t="s">
         <v>281</v>
@@ -4913,22 +4901,22 @@
     <row r="74" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" s="25">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="D74" s="26">
         <v>45566</v>
       </c>
       <c r="E74" s="25">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="50"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="27"/>
+      <c r="J74" s="29"/>
       <c r="K74" s="25"/>
       <c r="L74" s="26"/>
       <c r="M74" s="25"/>
@@ -4942,15 +4930,14 @@
       <c r="U74" s="24"/>
       <c r="V74" s="47">
         <f t="shared" si="3"/>
-        <v>585</v>
-      </c>
-      <c r="X74" s="31"/>
+        <v>375</v>
+      </c>
+      <c r="X74" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="Y74" s="31"/>
-      <c r="Z74" t="s">
-        <v>170</v>
-      </c>
       <c r="AA74" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AD74" s="50" t="s">
         <v>281</v>
@@ -4959,18 +4946,18 @@
     <row r="75" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C75" s="25">
-        <v>706</v>
+        <v>390</v>
       </c>
       <c r="D75" s="26">
         <v>45566</v>
       </c>
       <c r="E75" s="25">
-        <v>353</v>
-      </c>
-      <c r="F75" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="F75" s="27"/>
       <c r="G75" s="50"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
@@ -4988,12 +4975,15 @@
       <c r="U75" s="24"/>
       <c r="V75" s="47">
         <f t="shared" si="3"/>
-        <v>1059</v>
+        <v>585</v>
       </c>
       <c r="X75" s="31"/>
       <c r="Y75" s="31"/>
+      <c r="Z75" t="s">
+        <v>170</v>
+      </c>
       <c r="AA75" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AD75" s="50" t="s">
         <v>281</v>
@@ -5002,7 +4992,7 @@
     <row r="76" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C76" s="25">
         <v>706</v>
@@ -5013,7 +5003,7 @@
       <c r="E76" s="25">
         <v>353</v>
       </c>
-      <c r="F76" s="27"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="50"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
@@ -5035,11 +5025,8 @@
       </c>
       <c r="X76" s="31"/>
       <c r="Y76" s="31"/>
-      <c r="Z76" t="s">
-        <v>170</v>
-      </c>
       <c r="AA76" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD76" s="50" t="s">
         <v>281</v>
@@ -5048,18 +5035,18 @@
     <row r="77" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C77" s="25">
-        <v>450</v>
+        <v>706</v>
       </c>
       <c r="D77" s="26">
         <v>45566</v>
       </c>
       <c r="E77" s="25">
-        <v>225</v>
-      </c>
-      <c r="F77" s="25"/>
+        <v>353</v>
+      </c>
+      <c r="F77" s="27"/>
       <c r="G77" s="50"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
@@ -5077,7 +5064,7 @@
       <c r="U77" s="24"/>
       <c r="V77" s="47">
         <f t="shared" si="3"/>
-        <v>675</v>
+        <v>1059</v>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
@@ -5085,7 +5072,7 @@
         <v>170</v>
       </c>
       <c r="AA77" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD77" s="50" t="s">
         <v>281</v>
@@ -5094,16 +5081,16 @@
     <row r="78" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="24" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="C78" s="25">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D78" s="26">
         <v>45566</v>
       </c>
       <c r="E78" s="25">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="50"/>
@@ -5123,12 +5110,15 @@
       <c r="U78" s="24"/>
       <c r="V78" s="47">
         <f t="shared" si="3"/>
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
+      <c r="Z78" t="s">
+        <v>170</v>
+      </c>
       <c r="AA78" s="43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AD78" s="50" t="s">
         <v>281</v>
@@ -5137,18 +5127,18 @@
     <row r="79" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="24" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C79" s="25">
-        <v>1130</v>
+        <v>500</v>
       </c>
       <c r="D79" s="26">
         <v>45566</v>
       </c>
       <c r="E79" s="25">
-        <v>565</v>
-      </c>
-      <c r="F79" s="27"/>
+        <v>250</v>
+      </c>
+      <c r="F79" s="25"/>
       <c r="G79" s="50"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
@@ -5166,12 +5156,12 @@
       <c r="U79" s="24"/>
       <c r="V79" s="47">
         <f t="shared" si="3"/>
-        <v>1695</v>
+        <v>750</v>
       </c>
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
       <c r="AA79" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD79" s="50" t="s">
         <v>281</v>
@@ -5180,16 +5170,16 @@
     <row r="80" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C80" s="25">
-        <v>2118</v>
+        <v>1130</v>
       </c>
       <c r="D80" s="26">
         <v>45566</v>
       </c>
       <c r="E80" s="25">
-        <v>1059</v>
+        <v>565</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="50"/>
@@ -5209,15 +5199,12 @@
       <c r="U80" s="24"/>
       <c r="V80" s="47">
         <f t="shared" si="3"/>
-        <v>3177</v>
+        <v>1695</v>
       </c>
       <c r="X80" s="31"/>
       <c r="Y80" s="31"/>
-      <c r="Z80" t="s">
-        <v>170</v>
-      </c>
       <c r="AA80" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD80" s="50" t="s">
         <v>281</v>
@@ -5226,16 +5213,16 @@
     <row r="81" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C81" s="25">
-        <v>1130</v>
+        <v>2118</v>
       </c>
       <c r="D81" s="26">
         <v>45566</v>
       </c>
       <c r="E81" s="25">
-        <v>565</v>
+        <v>1059</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="50"/>
@@ -5247,7 +5234,7 @@
       <c r="M81" s="25"/>
       <c r="N81" s="26"/>
       <c r="O81" s="28"/>
-      <c r="P81" s="26"/>
+      <c r="P81" s="29"/>
       <c r="Q81" s="29"/>
       <c r="R81" s="29"/>
       <c r="S81" s="25"/>
@@ -5255,14 +5242,15 @@
       <c r="U81" s="24"/>
       <c r="V81" s="47">
         <f t="shared" si="3"/>
-        <v>1695</v>
-      </c>
-      <c r="X81" s="32" t="s">
+        <v>3177</v>
+      </c>
+      <c r="X81" s="31"/>
+      <c r="Y81" s="31"/>
+      <c r="Z81" t="s">
         <v>170</v>
       </c>
-      <c r="Y81" s="31"/>
       <c r="AA81" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD81" s="50" t="s">
         <v>281</v>
@@ -5271,16 +5259,16 @@
     <row r="82" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="24" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="C82" s="25">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D82" s="26">
         <v>45566</v>
       </c>
       <c r="E82" s="25">
-        <v>290</v>
+        <v>565</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="50"/>
@@ -5300,12 +5288,14 @@
       <c r="U82" s="24"/>
       <c r="V82" s="47">
         <f t="shared" si="3"/>
-        <v>870</v>
-      </c>
-      <c r="X82" s="31"/>
+        <v>1695</v>
+      </c>
+      <c r="X82" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="Y82" s="31"/>
       <c r="AA82" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AD82" s="50" t="s">
         <v>281</v>
@@ -5314,28 +5304,28 @@
     <row r="83" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="24" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="C83" s="25">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="D83" s="26">
         <v>45566</v>
       </c>
       <c r="E83" s="25">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="50"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="29"/>
+      <c r="J83" s="27"/>
       <c r="K83" s="25"/>
       <c r="L83" s="26"/>
       <c r="M83" s="25"/>
       <c r="N83" s="26"/>
       <c r="O83" s="28"/>
-      <c r="P83" s="29"/>
+      <c r="P83" s="26"/>
       <c r="Q83" s="29"/>
       <c r="R83" s="29"/>
       <c r="S83" s="25"/>
@@ -5343,12 +5333,12 @@
       <c r="U83" s="24"/>
       <c r="V83" s="47">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>870</v>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
       <c r="AA83" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD83" s="50" t="s">
         <v>281</v>
@@ -5357,28 +5347,28 @@
     <row r="84" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84" s="25">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="D84" s="26">
         <v>45566</v>
       </c>
       <c r="E84" s="25">
-        <v>115</v>
-      </c>
-      <c r="F84" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="F84" s="27"/>
       <c r="G84" s="50"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="27"/>
+      <c r="J84" s="29"/>
       <c r="K84" s="25"/>
       <c r="L84" s="26"/>
       <c r="M84" s="25"/>
       <c r="N84" s="26"/>
       <c r="O84" s="28"/>
-      <c r="P84" s="26"/>
+      <c r="P84" s="29"/>
       <c r="Q84" s="29"/>
       <c r="R84" s="29"/>
       <c r="S84" s="25"/>
@@ -5386,12 +5376,12 @@
       <c r="U84" s="24"/>
       <c r="V84" s="47">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>540</v>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="AA84" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD84" s="50" t="s">
         <v>281</v>
@@ -5400,18 +5390,18 @@
     <row r="85" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="25">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="D85" s="26">
         <v>45566</v>
       </c>
       <c r="E85" s="25">
-        <v>450</v>
-      </c>
-      <c r="F85" s="27"/>
+        <v>115</v>
+      </c>
+      <c r="F85" s="25"/>
       <c r="G85" s="50"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
@@ -5429,12 +5419,12 @@
       <c r="U85" s="24"/>
       <c r="V85" s="47">
         <f t="shared" si="3"/>
-        <v>1350</v>
+        <v>345</v>
       </c>
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
       <c r="AA85" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD85" s="50" t="s">
         <v>281</v>
@@ -5443,16 +5433,16 @@
     <row r="86" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C86" s="25">
-        <v>706</v>
+        <v>900</v>
       </c>
       <c r="D86" s="26">
         <v>45566</v>
       </c>
       <c r="E86" s="25">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="50"/>
@@ -5472,12 +5462,12 @@
       <c r="U86" s="24"/>
       <c r="V86" s="47">
         <f t="shared" si="3"/>
-        <v>1059</v>
+        <v>1350</v>
       </c>
       <c r="X86" s="31"/>
       <c r="Y86" s="31"/>
       <c r="AA86" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD86" s="50" t="s">
         <v>281</v>
@@ -5486,18 +5476,18 @@
     <row r="87" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="25">
-        <v>350</v>
+        <v>706</v>
       </c>
       <c r="D87" s="26">
         <v>45566</v>
       </c>
       <c r="E87" s="25">
-        <v>175</v>
-      </c>
-      <c r="F87" s="25"/>
+        <v>353</v>
+      </c>
+      <c r="F87" s="27"/>
       <c r="G87" s="50"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
@@ -5507,7 +5497,7 @@
       <c r="M87" s="25"/>
       <c r="N87" s="26"/>
       <c r="O87" s="28"/>
-      <c r="P87" s="29"/>
+      <c r="P87" s="26"/>
       <c r="Q87" s="29"/>
       <c r="R87" s="29"/>
       <c r="S87" s="25"/>
@@ -5515,15 +5505,12 @@
       <c r="U87" s="24"/>
       <c r="V87" s="47">
         <f t="shared" si="3"/>
-        <v>525</v>
+        <v>1059</v>
       </c>
       <c r="X87" s="31"/>
       <c r="Y87" s="31"/>
-      <c r="Z87" t="s">
-        <v>170</v>
-      </c>
       <c r="AA87" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD87" s="50" t="s">
         <v>281</v>
@@ -5532,16 +5519,16 @@
     <row r="88" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="24" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="C88" s="25">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D88" s="26">
         <v>45566</v>
       </c>
       <c r="E88" s="25">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="F88" s="25"/>
       <c r="G88" s="50"/>
@@ -5561,12 +5548,15 @@
       <c r="U88" s="24"/>
       <c r="V88" s="47">
         <f t="shared" si="3"/>
-        <v>1050</v>
+        <v>525</v>
       </c>
       <c r="X88" s="31"/>
       <c r="Y88" s="31"/>
+      <c r="Z88" t="s">
+        <v>170</v>
+      </c>
       <c r="AA88" s="43" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AD88" s="50" t="s">
         <v>281</v>
@@ -5575,18 +5565,18 @@
     <row r="89" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="24" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="C89" s="25">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="D89" s="26">
         <v>45566</v>
       </c>
       <c r="E89" s="25">
-        <v>290</v>
-      </c>
-      <c r="F89" s="27"/>
+        <v>350</v>
+      </c>
+      <c r="F89" s="25"/>
       <c r="G89" s="50"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
@@ -5604,12 +5594,12 @@
       <c r="U89" s="24"/>
       <c r="V89" s="47">
         <f t="shared" si="3"/>
-        <v>870</v>
+        <v>1050</v>
       </c>
       <c r="X89" s="31"/>
       <c r="Y89" s="31"/>
       <c r="AA89" s="43" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AD89" s="50" t="s">
         <v>281</v>
@@ -5618,16 +5608,16 @@
     <row r="90" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="25">
-        <v>1130</v>
+        <v>580</v>
       </c>
       <c r="D90" s="26">
         <v>45566</v>
       </c>
       <c r="E90" s="25">
-        <v>565</v>
+        <v>290</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="50"/>
@@ -5647,15 +5637,12 @@
       <c r="U90" s="24"/>
       <c r="V90" s="47">
         <f t="shared" si="3"/>
-        <v>1695</v>
+        <v>870</v>
       </c>
       <c r="X90" s="31"/>
       <c r="Y90" s="31"/>
-      <c r="Z90" t="s">
-        <v>170</v>
-      </c>
       <c r="AA90" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD90" s="50" t="s">
         <v>281</v>
@@ -5664,18 +5651,18 @@
     <row r="91" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C91" s="25">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="D91" s="26">
         <v>45566</v>
       </c>
       <c r="E91" s="25">
-        <v>290</v>
-      </c>
-      <c r="F91" s="25"/>
+        <v>565</v>
+      </c>
+      <c r="F91" s="27"/>
       <c r="G91" s="50"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
@@ -5693,12 +5680,15 @@
       <c r="U91" s="24"/>
       <c r="V91" s="47">
         <f t="shared" si="3"/>
-        <v>870</v>
+        <v>1695</v>
       </c>
       <c r="X91" s="31"/>
       <c r="Y91" s="31"/>
+      <c r="Z91" t="s">
+        <v>170</v>
+      </c>
       <c r="AA91" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD91" s="50" t="s">
         <v>281</v>
@@ -5706,41 +5696,81 @@
     </row>
     <row r="92" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
-      <c r="B92" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="C92" s="37">
-        <f>SUM(C2:C91)</f>
-        <v>76397.5</v>
-      </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="26"/>
+      <c r="B92" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="25">
+        <v>580</v>
+      </c>
+      <c r="D92" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E92" s="25">
+        <v>290</v>
+      </c>
+      <c r="F92" s="25"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="27"/>
-      <c r="K92" s="30"/>
+      <c r="K92" s="25"/>
       <c r="L92" s="26"/>
       <c r="M92" s="25"/>
       <c r="N92" s="26"/>
-      <c r="O92" s="30"/>
+      <c r="O92" s="28"/>
       <c r="P92" s="29"/>
       <c r="Q92" s="29"/>
       <c r="R92" s="29"/>
-      <c r="S92" s="30">
-        <f>SUM(S2:S91)</f>
-        <v>-158</v>
-      </c>
+      <c r="S92" s="25"/>
       <c r="T92" s="26"/>
       <c r="U92" s="24"/>
       <c r="V92" s="47">
-        <f>C92+F92+H92+J92+P92+R92+S92+M92+E92</f>
+        <f t="shared" si="3"/>
+        <v>870</v>
+      </c>
+      <c r="X92" s="31"/>
+      <c r="Y92" s="31"/>
+      <c r="AA92" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD92" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+      <c r="B93" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="37">
+        <f>SUM(C2:C92)</f>
+        <v>76397.5</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="30">
+        <f>SUM(S2:S92)</f>
+        <v>-158</v>
+      </c>
+      <c r="T93" s="26"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="47">
+        <f>C93+F93+H93+J93+P93+R93+S93+M93+E93</f>
         <v>76239.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K94" s="40"/>
@@ -6189,7 +6219,9 @@
     <row r="242" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K242" s="40"/>
     </row>
-    <row r="243" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K243" s="40"/>
+    </row>
     <row r="244" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="246" spans="11:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
